--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF1473-7345-4AE0-8ED7-CD5C61658FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2BFA3-23E4-4D0E-B8CB-D5A11CE34C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30330" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="32760" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Memory</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>#neverforget</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>DENSE FOG: WEEKEND EDITION</t>
   </si>
   <si>
@@ -301,6 +295,117 @@
   </si>
   <si>
     <t>10107800412093549</t>
+  </si>
+  <si>
+    <t>DENSE FOG Mark McLawhorn</t>
+  </si>
+  <si>
+    <t>10104874956579849</t>
+  </si>
+  <si>
+    <t>ALWAYS AND FOREVER</t>
+  </si>
+  <si>
+    <t>10107803271812649</t>
+  </si>
+  <si>
+    <t>Not sure how early this one is, but it’s probably one of the first ones</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>Jeremy Ashton</t>
+  </si>
+  <si>
+    <t>There’s a freeze warning tonight?</t>
+  </si>
+  <si>
+    <t>10106097109660279</t>
+  </si>
+  <si>
+    <t>Y’all be careful out there driving in this morning. BIG GLARE has the upper hand. 🌞</t>
+  </si>
+  <si>
+    <t>10106295970950659</t>
+  </si>
+  <si>
+    <t>10107058669421809</t>
+  </si>
+  <si>
+    <t>Chris Bushnell</t>
+  </si>
+  <si>
+    <t>Paul McCauley</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/CtrYtatUMAALnyY.jpg:large</t>
+  </si>
+  <si>
+    <t>10103641605370559</t>
+  </si>
+  <si>
+    <t>Christopher Meckola</t>
+  </si>
+  <si>
+    <t>10102451535360399</t>
+  </si>
+  <si>
+    <t>!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>174825469229802</t>
+  </si>
+  <si>
+    <t>This weather is PERFECT.</t>
+  </si>
+  <si>
+    <t>10102042127047939</t>
+  </si>
+  <si>
+    <t>Outside at the moment is a scientific weather wonder. We can’t be too far from snow.</t>
+  </si>
+  <si>
+    <t>10106396152296439</t>
+  </si>
+  <si>
+    <t>I wouldn’t really be surprised if it snowed tonight.</t>
+  </si>
+  <si>
+    <t>10107112447011089</t>
+  </si>
+  <si>
+    <t>MAKE IT STOP 🐒💩</t>
+  </si>
+  <si>
+    <t>10106560743174999</t>
+  </si>
+  <si>
+    <t>Could really use some NC “Fake Fall pt. 1” weather this week.</t>
+  </si>
+  <si>
+    <t>10106512894055019</t>
+  </si>
+  <si>
+    <t>RIP Fake Fall. Here comes Second Summer. 😿</t>
+  </si>
+  <si>
+    <t>10106542523212949</t>
+  </si>
+  <si>
+    <t>Y’all ready for a week of some pre-Christmas weather of near 70’s in North Carolina? 🎅🏾🌞</t>
+  </si>
+  <si>
+    <t>10104989562872919</t>
+  </si>
+  <si>
+    <t>OH YEAH WE GOT RETRO WEATHER CHANNEL ON FOR THE HURRICANE</t>
+  </si>
+  <si>
+    <t>10105645208114599</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -311,10 +416,18 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -337,18 +450,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +793,7 @@
     <col min="6" max="7" width="5.42578125" customWidth="1"/>
     <col min="8" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -685,46 +801,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
+      <c r="O1" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -735,13 +851,13 @@
         <v>0.30972222222222223</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -770,22 +886,22 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>40883</v>
+        <v>40611</v>
       </c>
       <c r="B3" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.81388888888888899</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -806,27 +922,27 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>40897</v>
+        <v>40883</v>
       </c>
       <c r="B4" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -847,27 +963,27 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>41285</v>
+        <v>40897</v>
       </c>
       <c r="B5" s="4">
-        <v>0.74722222222222223</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -888,27 +1004,27 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>41286</v>
+        <v>41285</v>
       </c>
       <c r="B6" s="4">
-        <v>0.3527777777777778</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -929,18 +1045,18 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>41492</v>
+        <v>41286</v>
       </c>
       <c r="B7" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -949,7 +1065,7 @@
         <v>59</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -970,28 +1086,28 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>41654</v>
+        <v>41492</v>
       </c>
       <c r="B8" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -1011,27 +1127,27 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>41912</v>
+        <v>41654</v>
       </c>
       <c r="B9" s="4">
-        <v>0.30763888888888891</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1052,27 +1168,27 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>41940</v>
+        <v>41860</v>
       </c>
       <c r="B10" s="4">
-        <v>0.34166666666666662</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1093,27 +1209,27 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>41955</v>
+        <v>41912</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2986111111111111</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1139,23 +1255,23 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>42313</v>
+        <v>41940</v>
       </c>
       <c r="B12" s="4">
-        <v>0.3215277777777778</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1175,27 +1291,27 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>42313</v>
+        <v>41955</v>
       </c>
       <c r="B13" s="4">
-        <v>0.8930555555555556</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1216,27 +1332,27 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>42337</v>
+        <v>42051</v>
       </c>
       <c r="B14" s="4">
-        <v>0.52222222222222225</v>
+        <v>0.86944444444444446</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1257,27 +1373,27 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>42340</v>
+        <v>42313</v>
       </c>
       <c r="B15" s="4">
-        <v>0.33402777777777781</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1298,147 +1414,147 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
+        <v>42313</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.8930555555555556</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42337</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42340</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>42346</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B19" s="4">
         <v>0.74097222222222225</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>42420</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.43124999999999997</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>42424</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.32361111111111113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>42738</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.375</v>
-      </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -1465,567 +1581,573 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
+        <v>42420</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42424</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42644</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42738</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>42756</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B24" s="4">
         <v>0.33611111111111108</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>42756</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42980</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>43023</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>43037</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>42756</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>42980</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>43023</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>43037</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.37708333333333338</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>43074</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.32777777777777778</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>43141</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.31736111111111115</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>43151</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.29305555555555557</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>43428</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>43045</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>43074</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>43087</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>43507</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43141</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43151</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>43508</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="D33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="I33">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>43589</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.39861111111111108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>43683</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.29236111111111113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>43808</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.27291666666666664</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
@@ -2036,27 +2158,27 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>43815</v>
+        <v>43354</v>
       </c>
       <c r="B34" s="4">
-        <v>0.34375</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2079,119 +2201,107 @@
       <c r="M34">
         <v>2</v>
       </c>
-      <c r="N34" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>43826</v>
+        <v>43428</v>
       </c>
       <c r="B35" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43507</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>43508</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37">
         <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35">
-        <v>6</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>43851</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.44236111111111115</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-      <c r="N36" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>43878</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.25763888888888892</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2212,33 +2322,33 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>43887</v>
+        <v>43555</v>
       </c>
       <c r="B38" s="4">
-        <v>0.33194444444444443</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38">
         <v>4</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
       <c r="G38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2253,24 +2363,24 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>43902</v>
+        <v>43589</v>
       </c>
       <c r="B39" s="4">
-        <v>0.3659722222222222</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -2282,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2294,24 +2404,24 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44048</v>
+        <v>43637</v>
       </c>
       <c r="B40" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -2320,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2329,156 +2439,156 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44102</v>
+        <v>43669</v>
       </c>
       <c r="B41" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
         <v>4</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>44116</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0.33819444444444446</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42">
-        <v>6</v>
-      </c>
-      <c r="G42">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>2</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>44123</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43">
-        <v>17</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
       <c r="M43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44125</v>
+        <v>43716</v>
       </c>
       <c r="B44" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2487,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2502,99 +2612,770 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
+        <v>43729</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45">
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43808</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>43815</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43826</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43851</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43902</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44102</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44116</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44123</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58">
+        <v>17</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44125</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>44129</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B60" s="4">
         <v>0.43958333333333338</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44140</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
+      <c r="F61">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44140</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0.34513888888888888</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>15</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="1" t="s">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44141</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>14</v>
-      </c>
-      <c r="N46" t="s">
-        <v>12</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O46">
-    <sortCondition ref="A2:A44"/>
+  <sortState ref="A2:O62">
+    <sortCondition ref="A2:A62"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2BFA3-23E4-4D0E-B8CB-D5A11CE34C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104F59B-EEEB-43DF-8E6E-294DEA100618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="32760" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="33975" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>65</v>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104F59B-EEEB-43DF-8E6E-294DEA100618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594F97EA-E131-499B-B858-78F6CBFC61E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="33975" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="36405" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>Dense Fog Friday ☁️</t>
+  </si>
+  <si>
+    <t>10107821070853229</t>
   </si>
 </sst>
 </file>
@@ -777,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,7 +3347,7 @@
         <v>93</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3366,6 +3372,47 @@
       </c>
       <c r="N62" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44148</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594F97EA-E131-499B-B858-78F6CBFC61E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C0F85-61BB-45B1-88BF-1919BFB4E04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36405" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="37620" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>10107821070853229</t>
+  </si>
+  <si>
+    <t>DENSE FOG (Night Edition)</t>
+  </si>
+  <si>
+    <t>10107853002117719</t>
   </si>
 </sst>
 </file>
@@ -783,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,9 +3421,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44161</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:O62">
-    <sortCondition ref="A2:A62"/>
+  <sortState ref="A2:O64">
+    <sortCondition ref="A2:A64"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D22" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C0F85-61BB-45B1-88BF-1919BFB4E04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BCA83E-AB5E-4CD0-B7EC-C41351525795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="37620" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="38835" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>10107853002117719</t>
+  </si>
+  <si>
+    <t>10107873438657729</t>
+  </si>
+  <si>
+    <t>Posting this to mess with Rohan’s numbers.</t>
   </si>
 </sst>
 </file>
@@ -789,10 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q67" sqref="Q67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,6 +3469,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:O64">
     <sortCondition ref="A2:A64"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BCA83E-AB5E-4CD0-B7EC-C41351525795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB63CF-75D3-4D66-BED0-31168CC52663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="38835" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="40050" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Posting this to mess with Rohan’s numbers.</t>
+  </si>
+  <si>
+    <t>Rohan FYI</t>
+  </si>
+  <si>
+    <t>10107875864870579</t>
   </si>
 </sst>
 </file>
@@ -795,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,6 +3519,50 @@
         <v>44</v>
       </c>
     </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:O64">
     <sortCondition ref="A2:A64"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB63CF-75D3-4D66-BED0-31168CC52663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD77E694-FB37-4BDA-92AF-E2348A73F4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40050" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="41265" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="180">
   <si>
     <t>Date</t>
   </si>
@@ -430,6 +430,141 @@
   </si>
   <si>
     <t>10107875864870579</t>
+  </si>
+  <si>
+    <t>I know some people find it irritating small talk, but I actually LIKE talking about the weather. And now it's time for a day full of paperwork.</t>
+  </si>
+  <si>
+    <t>10104041628391219</t>
+  </si>
+  <si>
+    <t>Nice weather for #ducks . *(make sure to watch to the end 🤗) #ducklings #babyanimals #rain</t>
+  </si>
+  <si>
+    <t>10104271132887369</t>
+  </si>
+  <si>
+    <t>DJ KHALEDDDD!!! THIS THE BEST WEATHER!!! 🎤🧔🏻🎶</t>
+  </si>
+  <si>
+    <t>10106658230035549</t>
+  </si>
+  <si>
+    <t>THERE’S A COLD WIND A-BLOWING! 🌬🦋❄️</t>
+  </si>
+  <si>
+    <t>10105983762274349</t>
+  </si>
+  <si>
+    <t>OK, McLawhorn, you might be a cousin but I saw the Donna video and I'm coming for you…</t>
+  </si>
+  <si>
+    <t>10107429583771479</t>
+  </si>
+  <si>
+    <t>Ron Kemp</t>
+  </si>
+  <si>
+    <t>It’s a Mini-Hurricane</t>
+  </si>
+  <si>
+    <t>10106943261150909</t>
+  </si>
+  <si>
+    <t>Christopher Meckola BIG CHANGES</t>
+  </si>
+  <si>
+    <t>10103651851307619</t>
+  </si>
+  <si>
+    <t>i love everything about this</t>
+  </si>
+  <si>
+    <t>185811568129752</t>
+  </si>
+  <si>
+    <t>Lowes in Sanford post-tornado</t>
+  </si>
+  <si>
+    <t>181704801877519</t>
+  </si>
+  <si>
+    <t>Tornadoes, y'all!</t>
+  </si>
+  <si>
+    <t>10100123207453189</t>
+  </si>
+  <si>
+    <t>Shaw got so much tornado damage, classes have been suspended for the rest of the year? Holy Cow! (pdf doc btw)</t>
+  </si>
+  <si>
+    <t>216174368392967</t>
+  </si>
+  <si>
+    <t>HOLY HAIL</t>
+  </si>
+  <si>
+    <t>10106243397398479</t>
+  </si>
+  <si>
+    <t>HOLY HAIL 2</t>
+  </si>
+  <si>
+    <t>10106243407238759</t>
+  </si>
+  <si>
+    <t>313237945450550</t>
+  </si>
+  <si>
+    <t>lol ok</t>
+  </si>
+  <si>
+    <t>time to cloud up and never rain</t>
+  </si>
+  <si>
+    <t>10100188985423609</t>
+  </si>
+  <si>
+    <t>I hope it stays this cloudy ALL DAY.</t>
+  </si>
+  <si>
+    <t>10100234927255809</t>
+  </si>
+  <si>
+    <t>I love a good cloudy Sunday.</t>
+  </si>
+  <si>
+    <t>10103962421297869</t>
+  </si>
+  <si>
+    <t>THE SUN 🌞</t>
+  </si>
+  <si>
+    <t>10105659189890009</t>
+  </si>
+  <si>
+    <t>I get sad when there's no fog in the morning now.</t>
+  </si>
+  <si>
+    <t>10103009433288479</t>
+  </si>
+  <si>
+    <t>Today it’s cloudy with no fog, too. 😢</t>
+  </si>
+  <si>
+    <t>10107895598793639</t>
+  </si>
+  <si>
+    <t>😮</t>
+  </si>
+  <si>
+    <t>10104271948153569</t>
+  </si>
+  <si>
+    <t>"The Grand Tour" on Amazon, a book of Terry Pratchett collected shorter fiction, "March" by John Lewis, the couch and the cold January rain 📖🐛</t>
+  </si>
+  <si>
+    <t>10103922467964669</t>
   </si>
 </sst>
 </file>
@@ -801,11 +936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M66" sqref="M66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,22 +1087,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>40883</v>
+        <v>40626</v>
       </c>
       <c r="B4" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.45277777777777778</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -988,27 +1123,30 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>40897</v>
+        <v>40649</v>
       </c>
       <c r="B5" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.67291666666666661</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1034,22 +1172,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>41285</v>
+        <v>40649</v>
       </c>
       <c r="B6" s="4">
-        <v>0.74722222222222223</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1070,27 +1208,27 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>41286</v>
+        <v>40650</v>
       </c>
       <c r="B7" s="4">
-        <v>0.3527777777777778</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1111,27 +1249,27 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>41492</v>
+        <v>40720</v>
       </c>
       <c r="B8" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1152,27 +1290,27 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>41654</v>
+        <v>40755</v>
       </c>
       <c r="B9" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.41111111111111115</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1193,27 +1331,27 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>41860</v>
+        <v>40883</v>
       </c>
       <c r="B10" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1234,27 +1372,27 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>41912</v>
+        <v>40897</v>
       </c>
       <c r="B11" s="4">
-        <v>0.30763888888888891</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1275,27 +1413,27 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>41940</v>
+        <v>41184</v>
       </c>
       <c r="B12" s="4">
-        <v>0.34166666666666662</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1316,24 +1454,27 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>41955</v>
+        <v>41285</v>
       </c>
       <c r="B13" s="4">
-        <v>0.2986111111111111</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1362,22 +1503,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>42051</v>
+        <v>41286</v>
       </c>
       <c r="B14" s="4">
-        <v>0.86944444444444446</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1403,22 +1544,22 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>42313</v>
+        <v>41492</v>
       </c>
       <c r="B15" s="4">
-        <v>0.3215277777777778</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1439,27 +1580,27 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>42313</v>
+        <v>41654</v>
       </c>
       <c r="B16" s="4">
-        <v>0.8930555555555556</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1480,27 +1621,27 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>42337</v>
+        <v>41860</v>
       </c>
       <c r="B17" s="4">
-        <v>0.52222222222222225</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1526,22 +1667,22 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>42340</v>
+        <v>41912</v>
       </c>
       <c r="B18" s="4">
-        <v>0.33402777777777781</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1562,15 +1703,15 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>42346</v>
+        <v>41940</v>
       </c>
       <c r="B19" s="4">
-        <v>0.74097222222222225</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1579,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1608,69 +1749,69 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>42420</v>
+        <v>41955</v>
       </c>
       <c r="B20" s="4">
-        <v>0.43124999999999997</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>42424</v>
+        <v>42051</v>
       </c>
       <c r="B21" s="4">
-        <v>0.32361111111111113</v>
+        <v>0.86944444444444446</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1685,24 +1826,24 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>42644</v>
+        <v>42313</v>
       </c>
       <c r="B22" s="4">
-        <v>0.30208333333333331</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1728,28 +1869,25 @@
       <c r="M22">
         <v>3</v>
       </c>
-      <c r="O22" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>42738</v>
+        <v>42313</v>
       </c>
       <c r="B23" s="4">
-        <v>0.375</v>
+        <v>0.8930555555555556</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1770,30 +1908,30 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>42756</v>
+        <v>42337</v>
       </c>
       <c r="B24" s="4">
-        <v>0.33611111111111108</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1811,24 +1949,24 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>42756</v>
+        <v>42340</v>
       </c>
       <c r="B25" s="4">
-        <v>0.49305555555555558</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>7</v>
@@ -1840,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1852,27 +1990,27 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>42980</v>
+        <v>42346</v>
       </c>
       <c r="B26" s="4">
-        <v>0.44791666666666669</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1893,30 +2031,30 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>43023</v>
+        <v>42352</v>
       </c>
       <c r="B27" s="4">
-        <v>0.46180555555555558</v>
+        <v>0.31319444444444444</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1934,27 +2072,27 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43037</v>
+        <v>42420</v>
       </c>
       <c r="B28" s="4">
-        <v>0.37708333333333338</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1975,33 +2113,33 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>43045</v>
+        <v>42424</v>
       </c>
       <c r="B29" s="4">
-        <v>0.27986111111111112</v>
+        <v>0.32361111111111113</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2016,77 +2154,77 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>43074</v>
+        <v>42644</v>
       </c>
       <c r="B30" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
+      <c r="O30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>43087</v>
+        <v>42648</v>
       </c>
       <c r="B31" s="4">
-        <v>0.41319444444444442</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2098,30 +2236,30 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43141</v>
+        <v>42737</v>
       </c>
       <c r="B32" s="4">
-        <v>0.31736111111111115</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
+      <c r="D32" t="s">
+        <v>178</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2142,69 +2280,69 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>43151</v>
+        <v>42738</v>
       </c>
       <c r="B33" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.375</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>33</v>
+      <c r="D33" t="s">
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>42750</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>43354</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.47430555555555554</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -2224,68 +2362,68 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>43428</v>
+        <v>42756</v>
       </c>
       <c r="B35" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>34</v>
+      <c r="D35" t="s">
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>2</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43507</v>
+        <v>42756</v>
       </c>
       <c r="B36" s="4">
-        <v>0.70694444444444438</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2294,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2306,27 +2444,27 @@
         <v>0</v>
       </c>
       <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>42775</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>43508</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2335,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2347,33 +2485,33 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>43555</v>
+        <v>42850</v>
       </c>
       <c r="B38" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2388,36 +2526,36 @@
         <v>0</v>
       </c>
       <c r="M38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>43589</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0.39861111111111108</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2429,33 +2567,33 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>43637</v>
+        <v>42980</v>
       </c>
       <c r="B40" s="4">
-        <v>0.28819444444444448</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2473,33 +2611,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>43669</v>
+        <v>43023</v>
       </c>
       <c r="B41" s="4">
-        <v>0.875</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2514,12 +2652,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>43683</v>
+        <v>43037</v>
       </c>
       <c r="B42" s="4">
-        <v>0.29236111111111113</v>
+        <v>0.37708333333333338</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -2528,13 +2666,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2552,411 +2690,408 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43705</v>
+        <v>43045</v>
       </c>
       <c r="B43" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43074</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43087</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43141</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>43151</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43354</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43360</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>4</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>43428</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>2</v>
       </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>43716</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44">
-        <v>27</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>43504</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>43729</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0.40347222222222223</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45">
-        <v>18</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>43808</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0.27291666666666664</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>43815</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43507</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52">
         <v>2</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43826</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.36874999999999997</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48">
-        <v>6</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>43851</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.44236111111111115</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>43878</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0.25763888888888892</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>43887</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0.33194444444444443</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51">
-        <v>7</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>43902</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2971,24 +3106,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43908</v>
+        <v>43508</v>
       </c>
       <c r="B53" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2997,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3009,39 +3144,36 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="O53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43921</v>
+        <v>43555</v>
       </c>
       <c r="B54" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F54">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3053,24 +3185,24 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44048</v>
+        <v>43589</v>
       </c>
       <c r="B55" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -3079,303 +3211,297 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>43616</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>43616</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43637</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>44102</v>
-      </c>
-      <c r="B56" s="4">
-        <v>0.29375000000000001</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60">
         <v>3</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>44116</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.33819444444444446</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>44123</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58">
-        <v>17</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>44125</v>
-      </c>
-      <c r="B59" s="4">
-        <v>0.33819444444444446</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="O59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>44129</v>
-      </c>
-      <c r="B60" s="4">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44140</v>
+        <v>43705</v>
       </c>
       <c r="B61" s="4">
-        <v>0.34513888888888888</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>2</v>
       </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
       <c r="M61">
-        <v>17</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44141</v>
+        <v>43716</v>
       </c>
       <c r="B62" s="4">
-        <v>0.42222222222222222</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3387,30 +3513,27 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44148</v>
+        <v>43729</v>
       </c>
       <c r="B63" s="4">
-        <v>0.30902777777777779</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3419,89 +3542,89 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44161</v>
+        <v>43770</v>
       </c>
       <c r="B64" s="4">
-        <v>0.9770833333333333</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44170</v>
+        <v>43808</v>
       </c>
       <c r="B65" s="4">
-        <v>0.48680555555555555</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3513,27 +3636,24 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>4</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44171</v>
+        <v>43815</v>
       </c>
       <c r="B66" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.34375</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3554,21 +3674,950 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>2</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>43826</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43851</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>43902</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74">
+        <v>17</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>14</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44001</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44102</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44116</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>44123</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79">
+        <v>17</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>44125</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>44129</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>44140</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>17</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>44141</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>44148</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>44161</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87" s="1" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>7</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:O64">
-    <sortCondition ref="A2:A64"/>
+  <sortState ref="A2:O85">
+    <sortCondition ref="A2:A85"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD77E694-FB37-4BDA-92AF-E2348A73F4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2DF3C8-684A-4757-A6AD-90471D8B03B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="41265" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="42480" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -939,8 +939,8 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>1</v>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2DF3C8-684A-4757-A6AD-90471D8B03B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F0732B-0EFE-47EA-AF34-7CD32C444CC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="42480" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="43695" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="183">
   <si>
     <t>Date</t>
   </si>
@@ -565,6 +565,15 @@
   </si>
   <si>
     <t>10103922467964669</t>
+  </si>
+  <si>
+    <t>Secretary status unlocked!</t>
+  </si>
+  <si>
+    <t>10107916485805899</t>
+  </si>
+  <si>
+    <t>Rohan Lewis</t>
   </si>
 </sst>
 </file>
@@ -936,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M86" sqref="M86"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4269,7 +4278,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44129</v>
       </c>
@@ -4310,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44140</v>
       </c>
@@ -4354,7 +4363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44141</v>
       </c>
@@ -4398,7 +4407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44148</v>
       </c>
@@ -4439,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44161</v>
       </c>
@@ -4480,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44170</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44171</v>
       </c>
@@ -4568,7 +4577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44179</v>
       </c>
@@ -4610,6 +4619,53 @@
       </c>
       <c r="N88" s="1" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O89" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F0732B-0EFE-47EA-AF34-7CD32C444CC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5362D584-9181-4E4C-A91C-DACE395845A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="43695" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="45510" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -574,6 +574,18 @@
   </si>
   <si>
     <t>Rohan Lewis</t>
+  </si>
+  <si>
+    <t>DENSE FOG: NYE ☁️ 🎆</t>
+  </si>
+  <si>
+    <t>10107934723078259</t>
+  </si>
+  <si>
+    <t>10107941020143889</t>
+  </si>
+  <si>
+    <t>🌫 DENSE FOG 🌫</t>
   </si>
 </sst>
 </file>
@@ -622,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -630,6 +642,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -945,11 +960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N93" sqref="N93"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,11 +4676,93 @@
       <c r="M89">
         <v>1</v>
       </c>
-      <c r="N89" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="O89" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>44196</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>44198</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5362D584-9181-4E4C-A91C-DACE395845A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26528480-72A7-4A23-92B3-898073487D34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45510" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="47325" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>🌫 DENSE FOG 🌫</t>
+  </si>
+  <si>
+    <t>DENSE FOG 2K21</t>
+  </si>
+  <si>
+    <t>10107942303217599</t>
   </si>
 </sst>
 </file>
@@ -960,11 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,7 +4744,7 @@
         <v>185</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4759,10 +4765,54 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>44199</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26528480-72A7-4A23-92B3-898073487D34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F193B-AD1B-4D47-A049-8C41C41FD493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="47325" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="49755" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="196">
   <si>
     <t>Date</t>
   </si>
@@ -592,6 +592,27 @@
   </si>
   <si>
     <t>10107942303217599</t>
+  </si>
+  <si>
+    <t>&lt;img&gt;</t>
+  </si>
+  <si>
+    <t>10107974416427469</t>
+  </si>
+  <si>
+    <t>#raleighsnow ❄️❄️❄️ :: #lakejohnson #walk :: #yokokanno &amp; #seatbelts - #memory | #cowboybebop #ost</t>
+  </si>
+  <si>
+    <t>10105068234813719</t>
+  </si>
+  <si>
+    <t>Three years ago today.</t>
+  </si>
+  <si>
+    <t>10107977309779169</t>
+  </si>
+  <si>
+    <t>10106872994580679</t>
   </si>
 </sst>
 </file>
@@ -966,11 +987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,28 +2872,28 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>43141</v>
+        <v>43117</v>
       </c>
       <c r="B46" s="4">
-        <v>0.31736111111111115</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2887,36 +2908,36 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>43151</v>
+        <v>43141</v>
       </c>
       <c r="B47" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2928,36 +2949,36 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43354</v>
+        <v>43151</v>
       </c>
       <c r="B48" s="4">
-        <v>0.47430555555555554</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2969,27 +2990,27 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43360</v>
+        <v>43354</v>
       </c>
       <c r="B49" s="4">
-        <v>0.48402777777777778</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3010,36 +3031,36 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43428</v>
+        <v>43360</v>
       </c>
       <c r="B50" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3056,19 +3077,19 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>43504</v>
+        <v>43428</v>
       </c>
       <c r="B51" s="4">
-        <v>0.6020833333333333</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -3077,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3092,68 +3113,68 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>43507</v>
+        <v>43504</v>
       </c>
       <c r="B52" s="4">
-        <v>0.70694444444444438</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>13</v>
+      <c r="D52" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
         <v>2</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="B53" s="4">
-        <v>0.75694444444444453</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3162,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3174,37 +3195,37 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43555</v>
+        <v>43508</v>
       </c>
       <c r="B54" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>2</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
         <v>0</v>
       </c>
@@ -3215,24 +3236,24 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43589</v>
+        <v>43555</v>
       </c>
       <c r="B55" s="4">
-        <v>0.39861111111111108</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -3241,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3256,37 +3277,37 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>43616</v>
+        <v>43589</v>
       </c>
       <c r="B56" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>2</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>11</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
         <v>0</v>
       </c>
@@ -3297,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3305,25 +3326,25 @@
         <v>43616</v>
       </c>
       <c r="B57" s="4">
-        <v>0.78611111111111109</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3343,28 +3364,28 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>43637</v>
+        <v>43616</v>
       </c>
       <c r="B58" s="4">
-        <v>0.28819444444444448</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3379,27 +3400,27 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>43669</v>
+        <v>43637</v>
       </c>
       <c r="B59" s="4">
-        <v>0.875</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3408,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3420,37 +3441,37 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>43683</v>
+        <v>43669</v>
       </c>
       <c r="B60" s="4">
-        <v>0.29236111111111113</v>
+        <v>0.875</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
         <v>13</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>3</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
         <v>0</v>
       </c>
@@ -3461,121 +3482,121 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>43705</v>
+        <v>43683</v>
       </c>
       <c r="B61" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>43716</v>
+        <v>43705</v>
       </c>
       <c r="B62" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>43729</v>
+        <v>43716</v>
       </c>
       <c r="B63" s="4">
-        <v>0.40347222222222223</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3584,39 +3605,39 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>43770</v>
+        <v>43729</v>
       </c>
       <c r="B64" s="4">
-        <v>0.35555555555555557</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F64">
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>5</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>7</v>
-      </c>
       <c r="J64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3625,27 +3646,27 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43808</v>
+        <v>43770</v>
       </c>
       <c r="B65" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3654,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3666,36 +3687,36 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>43815</v>
+        <v>43808</v>
       </c>
       <c r="B66" s="4">
-        <v>0.34375</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3707,83 +3728,83 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>2</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>43826</v>
+        <v>43815</v>
       </c>
       <c r="B67" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.34375</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>2</v>
       </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>13</v>
+      <c r="N67" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>43851</v>
+        <v>43826</v>
       </c>
       <c r="B68" s="4">
-        <v>0.44236111111111115</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3792,27 +3813,24 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>43868</v>
+        <v>43847</v>
       </c>
       <c r="B69" s="4">
-        <v>0.3125</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3836,27 +3854,30 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>43878</v>
+        <v>43851</v>
       </c>
       <c r="B70" s="4">
-        <v>0.25763888888888892</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3865,42 +3886,45 @@
         <v>0</v>
       </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>2</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
+      <c r="N70" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43887</v>
+        <v>43868</v>
       </c>
       <c r="B71" s="4">
-        <v>0.33194444444444443</v>
+        <v>0.3125</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3918,36 +3942,36 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>43902</v>
+        <v>43878</v>
       </c>
       <c r="B72" s="4">
-        <v>0.3659722222222222</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3959,30 +3983,30 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>43908</v>
+        <v>43887</v>
       </c>
       <c r="B73" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.33194444444444443</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4000,30 +4024,27 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="O73" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>43921</v>
+        <v>43902</v>
       </c>
       <c r="B74" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4032,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4049,28 +4070,28 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44001</v>
+        <v>43908</v>
       </c>
       <c r="B75" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="C75" t="s">
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4088,176 +4109,179 @@
         <v>1</v>
       </c>
       <c r="O75" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44048</v>
+        <v>43921</v>
       </c>
       <c r="B76" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76">
+        <v>17</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>14</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
         <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76">
-        <v>4</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44102</v>
+        <v>44001</v>
       </c>
       <c r="B77" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44116</v>
+        <v>44048</v>
       </c>
       <c r="B78" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44123</v>
+        <v>44102</v>
       </c>
       <c r="B79" s="4">
-        <v>0.3666666666666667</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F79">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44125</v>
+        <v>44116</v>
       </c>
       <c r="B80" s="4">
         <v>0.33819444444444446</v>
@@ -4266,57 +4290,54 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="O80" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44129</v>
+        <v>44123</v>
       </c>
       <c r="B81" s="4">
-        <v>0.43958333333333338</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4325,83 +4346,83 @@
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44140</v>
+        <v>44125</v>
       </c>
       <c r="B82" s="4">
-        <v>0.34513888888888888</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>2</v>
       </c>
-      <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>17</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>65</v>
+      <c r="O82" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44141</v>
+        <v>44129</v>
       </c>
       <c r="B83" s="4">
-        <v>0.42222222222222222</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4416,80 +4437,80 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44148</v>
+        <v>44140</v>
       </c>
       <c r="B84" s="4">
-        <v>0.30902777777777779</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44161</v>
+        <v>44141</v>
       </c>
       <c r="B85" s="4">
-        <v>0.9770833333333333</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="F85">
         <v>3</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -4501,33 +4522,36 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44170</v>
+        <v>44148</v>
       </c>
       <c r="B86" s="4">
-        <v>0.48680555555555555</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4542,42 +4566,39 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>4</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44171</v>
+        <v>44161</v>
       </c>
       <c r="B87" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4586,33 +4607,30 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44179</v>
+        <v>44170</v>
       </c>
       <c r="B88" s="4">
-        <v>0.34861111111111115</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4624,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4636,27 +4654,27 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>44188</v>
+        <v>44171</v>
       </c>
       <c r="B89" s="4">
-        <v>0.46111111111111108</v>
+        <v>0.42291666666666666</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4668,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4677,36 +4695,36 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="O89" t="s">
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="B90" s="4">
-        <v>0.43055555555555558</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>183</v>
+      <c r="D90" t="s">
+        <v>174</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4715,109 +4733,282 @@
         <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>44198</v>
+        <v>44188</v>
       </c>
       <c r="B91" s="4">
-        <v>0.8208333333333333</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C91" t="s">
         <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="B92" s="4">
-        <v>0.49583333333333335</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>44198</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="C93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>44199</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
         <v>187</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
         <v>3</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>44212</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>44213</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:O85">
-    <sortCondition ref="A2:A85"/>
+  <sortState ref="A2:O87">
+    <sortCondition ref="A2:A87"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D30" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F193B-AD1B-4D47-A049-8C41C41FD493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B4D415-B49A-4E77-9CB6-5B9F50C7D2DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="49755" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="50970" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
   <si>
     <t>Date</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>10106872994580679</t>
+  </si>
+  <si>
+    <t>It’s a good afternoon for DENSE FOG ☁️</t>
+  </si>
+  <si>
+    <t>10108019946804229</t>
   </si>
 </sst>
 </file>
@@ -987,11 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5006,6 +5012,47 @@
         <v>192</v>
       </c>
     </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>44222</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:O87">
     <sortCondition ref="A2:A87"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B4D415-B49A-4E77-9CB6-5B9F50C7D2DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141FB77-9ABC-4AA6-B7E1-3132E9D78A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50970" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="52185" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,8 +996,8 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4985,7 +4985,7 @@
         <v>194</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141FB77-9ABC-4AA6-B7E1-3132E9D78A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C5705-9C66-4E39-9DD2-FADFF59031A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="52185" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="57045" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
   <si>
     <t>Date</t>
   </si>
@@ -619,6 +619,12 @@
   </si>
   <si>
     <t>10108019946804229</t>
+  </si>
+  <si>
+    <t>WE GOT SNOW 11 YEARS LATER</t>
+  </si>
+  <si>
+    <t>10108028807642039</t>
   </si>
 </sst>
 </file>
@@ -993,11 +999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5029,7 +5035,7 @@
         <v>197</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -5050,7 +5056,48 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>40206</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>198</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C5705-9C66-4E39-9DD2-FADFF59031A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48400B-B745-4A68-A5D1-AA4D52434872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="57045" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="60690" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="204">
   <si>
     <t>Date</t>
   </si>
@@ -625,6 +625,18 @@
   </si>
   <si>
     <t>10108028807642039</t>
+  </si>
+  <si>
+    <t>DENSE FOG ☁️(Also at Dentist)</t>
+  </si>
+  <si>
+    <t>10108072387916819</t>
+  </si>
+  <si>
+    <t>#email 📬⚡️📭 :: #doubleexposure #densefog #ncwinter #drizzle #night #lights</t>
+  </si>
+  <si>
+    <t>10108073812921099</t>
   </si>
 </sst>
 </file>
@@ -999,11 +1011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5100,6 +5112,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:O87">
     <sortCondition ref="A2:A87"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48400B-B745-4A68-A5D1-AA4D52434872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C80C16-7754-424D-BF61-34D24FB4DC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60690" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="63120" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -637,6 +637,15 @@
   </si>
   <si>
     <t>10108073812921099</t>
+  </si>
+  <si>
+    <t>10108075443004399</t>
+  </si>
+  <si>
+    <t>80º currently in Raleigh-Durham. High of 47º and rain on the morrow.</t>
+  </si>
+  <si>
+    <t>10105149977790139</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
@@ -2978,34 +2987,34 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43151</v>
+        <v>43147</v>
       </c>
       <c r="B48" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.59375</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3014,36 +3023,36 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43354</v>
+        <v>43151</v>
       </c>
       <c r="B49" s="4">
-        <v>0.47430555555555554</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3055,27 +3064,27 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43360</v>
+        <v>43354</v>
       </c>
       <c r="B50" s="4">
-        <v>0.48402777777777778</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3096,36 +3105,36 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>43428</v>
+        <v>43360</v>
       </c>
       <c r="B51" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3142,19 +3151,19 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>43504</v>
+        <v>43428</v>
       </c>
       <c r="B52" s="4">
-        <v>0.6020833333333333</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -3163,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3178,68 +3187,68 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43507</v>
+        <v>43504</v>
       </c>
       <c r="B53" s="4">
-        <v>0.70694444444444438</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" t="s">
-        <v>13</v>
+      <c r="D53" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>2</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="B54" s="4">
-        <v>0.75694444444444453</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3248,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3260,37 +3269,37 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43555</v>
+        <v>43508</v>
       </c>
       <c r="B55" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>2</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
       <c r="J55">
         <v>0</v>
       </c>
@@ -3301,24 +3310,24 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>43589</v>
+        <v>43555</v>
       </c>
       <c r="B56" s="4">
-        <v>0.39861111111111108</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -3327,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3342,37 +3351,37 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>43616</v>
+        <v>43589</v>
       </c>
       <c r="B57" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>11</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
         <v>0</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3391,25 +3400,25 @@
         <v>43616</v>
       </c>
       <c r="B58" s="4">
-        <v>0.78611111111111109</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3429,28 +3438,28 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>43637</v>
+        <v>43616</v>
       </c>
       <c r="B59" s="4">
-        <v>0.28819444444444448</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3465,27 +3474,27 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>43669</v>
+        <v>43637</v>
       </c>
       <c r="B60" s="4">
-        <v>0.875</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F60">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3494,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3506,37 +3515,37 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>43683</v>
+        <v>43669</v>
       </c>
       <c r="B61" s="4">
-        <v>0.29236111111111113</v>
+        <v>0.875</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61">
         <v>13</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>3</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
         <v>0</v>
       </c>
@@ -3547,121 +3556,121 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>43705</v>
+        <v>43683</v>
       </c>
       <c r="B62" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>43716</v>
+        <v>43705</v>
       </c>
       <c r="B63" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F63">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>43729</v>
+        <v>43716</v>
       </c>
       <c r="B64" s="4">
-        <v>0.40347222222222223</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3670,39 +3679,39 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43770</v>
+        <v>43729</v>
       </c>
       <c r="B65" s="4">
-        <v>0.35555555555555557</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F65">
+        <v>18</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>5</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>7</v>
-      </c>
       <c r="J65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3711,27 +3720,27 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>43808</v>
+        <v>43770</v>
       </c>
       <c r="B66" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3740,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3752,36 +3761,36 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>43815</v>
+        <v>43808</v>
       </c>
       <c r="B67" s="4">
-        <v>0.34375</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3793,83 +3802,83 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>2</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>43826</v>
+        <v>43815</v>
       </c>
       <c r="B68" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.34375</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
         <v>2</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>13</v>
+      <c r="N68" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>43847</v>
+        <v>43826</v>
       </c>
       <c r="B69" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3878,30 +3887,27 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>43851</v>
+        <v>43847</v>
       </c>
       <c r="B70" s="4">
-        <v>0.44236111111111115</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3922,30 +3928,30 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43868</v>
+        <v>43851</v>
       </c>
       <c r="B71" s="4">
-        <v>0.3125</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3966,24 +3972,27 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>43878</v>
+        <v>43868</v>
       </c>
       <c r="B72" s="4">
-        <v>0.25763888888888892</v>
+        <v>0.3125</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3995,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4007,15 +4016,15 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="B73" s="4">
-        <v>0.33194444444444443</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -4024,19 +4033,19 @@
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4048,77 +4057,77 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>43902</v>
+        <v>43887</v>
       </c>
       <c r="B74" s="4">
-        <v>0.3659722222222222</v>
+        <v>0.33194444444444443</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <v>4</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="B75" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4130,39 +4139,36 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="O75" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>43921</v>
+        <v>43908</v>
       </c>
       <c r="B76" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F76">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4174,27 +4180,30 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44001</v>
+        <v>43921</v>
       </c>
       <c r="B77" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4203,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4215,36 +4224,33 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44048</v>
+        <v>44001</v>
       </c>
       <c r="B78" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -4253,21 +4259,24 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44102</v>
+        <v>44048</v>
       </c>
       <c r="B79" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -4276,19 +4285,19 @@
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4297,162 +4306,159 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44116</v>
+        <v>44102</v>
       </c>
       <c r="B80" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F80">
         <v>6</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44123</v>
+        <v>44116</v>
       </c>
       <c r="B81" s="4">
-        <v>0.3666666666666667</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F81">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B82" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
         <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="O82" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44129</v>
+        <v>44125</v>
       </c>
       <c r="B83" s="4">
-        <v>0.43958333333333338</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -4469,78 +4475,78 @@
       <c r="M83">
         <v>2</v>
       </c>
+      <c r="O83" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44140</v>
+        <v>44129</v>
       </c>
       <c r="B84" s="4">
-        <v>0.34513888888888888</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
         <v>2</v>
-      </c>
-      <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>17</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B85" s="4">
-        <v>0.42222222222222222</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4552,27 +4558,27 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44148</v>
+        <v>44141</v>
       </c>
       <c r="B86" s="4">
-        <v>0.30902777777777779</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="F86">
         <v>3</v>
@@ -4581,124 +4587,124 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
         <v>0</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44161</v>
+        <v>44148</v>
       </c>
       <c r="B87" s="4">
-        <v>0.9770833333333333</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F87">
         <v>3</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44170</v>
+        <v>44161</v>
       </c>
       <c r="B88" s="4">
-        <v>0.48680555555555555</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>4</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B89" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4710,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4719,30 +4725,30 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>44179</v>
+        <v>44171</v>
       </c>
       <c r="B90" s="4">
-        <v>0.34861111111111115</v>
+        <v>0.42291666666666666</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4754,39 +4760,39 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>44188</v>
+        <v>44179</v>
       </c>
       <c r="B91" s="4">
-        <v>0.46111111111111108</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4801,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4810,33 +4816,33 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="O91" t="s">
-        <v>182</v>
+        <v>7</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="B92" s="4">
-        <v>0.43055555555555558</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>183</v>
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
+        <v>180</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4848,74 +4854,74 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B93" s="4">
-        <v>0.8208333333333333</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" t="s">
-        <v>186</v>
+        <v>7</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>2</v>
-      </c>
-      <c r="O93" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B94" s="4">
-        <v>0.49583333333333335</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4924,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4933,39 +4939,39 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>3</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>44212</v>
+        <v>44199</v>
       </c>
       <c r="B95" s="4">
-        <v>1.5972222222222224E-2</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4980,165 +4986,168 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95">
         <v>3</v>
       </c>
+      <c r="N95" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B96" s="4">
-        <v>0.4055555555555555</v>
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
         <v>3</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>44222</v>
+        <v>44213</v>
       </c>
       <c r="B97" s="4">
-        <v>0.6791666666666667</v>
+        <v>0.4055555555555555</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>44222</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
         <v>196</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>5</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
         <v>3</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>40206</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B99" s="4">
         <v>0.60347222222222219</v>
       </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
         <v>198</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>44242</v>
-      </c>
-      <c r="B99" s="4">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>200</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5147,56 +5156,141 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44242</v>
       </c>
       <c r="B100" s="4">
-        <v>0.84166666666666667</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
         <v>202</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F100">
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C102" t="s">
         <v>7</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
+      <c r="D102" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O87">
-    <sortCondition ref="A2:A87"/>
+  <sortState ref="A2:O88">
+    <sortCondition ref="A2:A88"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D30" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C80C16-7754-424D-BF61-34D24FB4DC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992383E1-9339-46B7-BA15-1D74BD30FABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="63120" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="66765" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>10105149977790139</t>
+  </si>
+  <si>
+    <t>After days of rain, it was nice to get out and enjoy the daytime moonlight. #maskup #hillsboroughstreet #chums #mates #boyos</t>
+  </si>
+  <si>
+    <t>10108085301847199</t>
   </si>
 </sst>
 </file>
@@ -1020,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5282,10 +5288,51 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>207</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992383E1-9339-46B7-BA15-1D74BD30FABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE5FA4C-D7AA-4480-A0A5-E256FA1D23A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="66765" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="69195" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
   <si>
     <t>Date</t>
   </si>
@@ -652,6 +652,15 @@
   </si>
   <si>
     <t>10108085301847199</t>
+  </si>
+  <si>
+    <t>Where’s my dense fog alert?!?!</t>
+  </si>
+  <si>
+    <t>Erica Porter</t>
+  </si>
+  <si>
+    <t>10108102710385349</t>
   </si>
 </sst>
 </file>
@@ -1026,11 +1035,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+      <selection pane="bottomLeft" activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5042,7 +5051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44213</v>
       </c>
@@ -5086,7 +5095,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44222</v>
       </c>
@@ -5127,7 +5136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>40206</v>
       </c>
@@ -5168,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44242</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44242</v>
       </c>
@@ -5250,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44243</v>
       </c>
@@ -5294,7 +5303,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44247</v>
       </c>
@@ -5333,6 +5342,50 @@
       </c>
       <c r="M103">
         <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>7</v>
+      </c>
+      <c r="O104" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE5FA4C-D7AA-4480-A0A5-E256FA1D23A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EAAE93-F082-4C1E-B280-8A3DE7CD7E16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="69195" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="72840" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -661,6 +661,12 @@
   </si>
   <si>
     <t>10108102710385349</t>
+  </si>
+  <si>
+    <t>10105215363172309</t>
+  </si>
+  <si>
+    <t>10108134381077029</t>
   </si>
 </sst>
 </file>
@@ -1035,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M111" sqref="M111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43151</v>
       </c>
@@ -3082,115 +3088,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>43354</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4">
         <v>0.47430555555555554</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>5</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>43360</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B52" s="4">
         <v>0.48402777777777778</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>9</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>43428</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3205,21 +3214,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43504</v>
+        <v>43428</v>
       </c>
       <c r="B53" s="4">
-        <v>0.6020833333333333</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -3228,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3243,147 +3252,147 @@
         <v>0</v>
       </c>
       <c r="M53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>43504</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>43507</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B55" s="4">
         <v>0.70694444444444438</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>2</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>43508</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B56" s="4">
         <v>0.75694444444444453</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>9</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>2</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>43555</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B57" s="4">
         <v>0.65208333333333335</v>
       </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>43589</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.39861111111111108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F57">
         <v>4</v>
@@ -3392,52 +3401,52 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43589</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>43616</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>11</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
         <v>0</v>
       </c>
@@ -3448,285 +3457,285 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43616</v>
       </c>
       <c r="B59" s="4">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43616</v>
+      </c>
+      <c r="B60" s="4">
         <v>0.78611111111111109</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
         <v>160</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>5</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>43637</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B61" s="4">
         <v>0.28819444444444448</v>
       </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>43669</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B62" s="4">
         <v>0.875</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>13</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>43683</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B63" s="4">
         <v>0.29236111111111113</v>
       </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>43705</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B64" s="4">
         <v>0.39583333333333331</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F63">
-        <v>8</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>4</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
-      </c>
-      <c r="M63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>43716</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.78402777777777777</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43729</v>
+        <v>43716</v>
       </c>
       <c r="B65" s="4">
-        <v>0.40347222222222223</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3735,39 +3744,39 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>43770</v>
+        <v>43729</v>
       </c>
       <c r="B66" s="4">
-        <v>0.35555555555555557</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F66">
+        <v>18</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>5</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>7</v>
-      </c>
       <c r="J66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3776,27 +3785,27 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>43808</v>
+        <v>43770</v>
       </c>
       <c r="B67" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -3805,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3817,36 +3826,36 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>43815</v>
+        <v>43808</v>
       </c>
       <c r="B68" s="4">
-        <v>0.34375</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3858,83 +3867,83 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>43826</v>
+        <v>43815</v>
       </c>
       <c r="B69" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.34375</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
         <v>2</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>13</v>
+      <c r="N69" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>43847</v>
+        <v>43826</v>
       </c>
       <c r="B70" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3943,30 +3952,27 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43851</v>
+        <v>43847</v>
       </c>
       <c r="B71" s="4">
-        <v>0.44236111111111115</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3987,30 +3993,30 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>43868</v>
+        <v>43851</v>
       </c>
       <c r="B72" s="4">
-        <v>0.3125</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4031,24 +4037,27 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>43878</v>
+        <v>43868</v>
       </c>
       <c r="B73" s="4">
-        <v>0.25763888888888892</v>
+        <v>0.3125</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4060,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4072,15 +4081,15 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="B74" s="4">
-        <v>0.33194444444444443</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -4089,19 +4098,19 @@
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4113,77 +4122,77 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>43902</v>
+        <v>43887</v>
       </c>
       <c r="B75" s="4">
-        <v>0.3659722222222222</v>
+        <v>0.33194444444444443</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
         <v>4</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="B76" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4195,39 +4204,36 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="O76" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>43921</v>
+        <v>43908</v>
       </c>
       <c r="B77" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4239,27 +4245,30 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44001</v>
+        <v>43921</v>
       </c>
       <c r="B78" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4268,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4280,36 +4289,33 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="O78" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44048</v>
+        <v>44001</v>
       </c>
       <c r="B79" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4318,21 +4324,24 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44102</v>
+        <v>44048</v>
       </c>
       <c r="B80" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -4341,19 +4350,19 @@
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4362,162 +4371,159 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44116</v>
+        <v>44102</v>
       </c>
       <c r="B81" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F81">
         <v>6</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44123</v>
+        <v>44116</v>
       </c>
       <c r="B82" s="4">
-        <v>0.3666666666666667</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F82">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B83" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
         <v>3</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="O83" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44129</v>
+        <v>44125</v>
       </c>
       <c r="B84" s="4">
-        <v>0.43958333333333338</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -4534,78 +4540,78 @@
       <c r="M84">
         <v>2</v>
       </c>
+      <c r="O84" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44140</v>
+        <v>44129</v>
       </c>
       <c r="B85" s="4">
-        <v>0.34513888888888888</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
         <v>2</v>
-      </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>17</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B86" s="4">
-        <v>0.42222222222222222</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4617,27 +4623,27 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44148</v>
+        <v>44141</v>
       </c>
       <c r="B87" s="4">
-        <v>0.30902777777777779</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -4646,124 +4652,124 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
         <v>0</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44161</v>
+        <v>44148</v>
       </c>
       <c r="B88" s="4">
-        <v>0.9770833333333333</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>44170</v>
+        <v>44161</v>
       </c>
       <c r="B89" s="4">
-        <v>0.48680555555555555</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>4</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B90" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4775,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4784,30 +4790,30 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>44179</v>
+        <v>44171</v>
       </c>
       <c r="B91" s="4">
-        <v>0.34861111111111115</v>
+        <v>0.42291666666666666</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4819,39 +4825,39 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>44188</v>
+        <v>44179</v>
       </c>
       <c r="B92" s="4">
-        <v>0.46111111111111108</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4866,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4875,33 +4881,33 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="O92" t="s">
-        <v>182</v>
+        <v>7</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="B93" s="4">
-        <v>0.43055555555555558</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>183</v>
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>180</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4913,74 +4919,74 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B94" s="4">
-        <v>0.8208333333333333</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C94" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" t="s">
-        <v>186</v>
+        <v>7</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>2</v>
-      </c>
-      <c r="O94" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B95" s="4">
-        <v>0.49583333333333335</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4989,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4998,39 +5004,39 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>3</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>44212</v>
+        <v>44199</v>
       </c>
       <c r="B96" s="4">
-        <v>1.5972222222222224E-2</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5045,80 +5051,80 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <v>3</v>
       </c>
+      <c r="N96" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B97" s="4">
-        <v>0.4055555555555555</v>
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
         <v>3</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>44222</v>
+        <v>44213</v>
       </c>
       <c r="B98" s="4">
-        <v>0.6791666666666667</v>
+        <v>0.4055555555555555</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -5133,36 +5139,39 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>40206</v>
+        <v>44222</v>
       </c>
       <c r="B99" s="4">
-        <v>0.60347222222222219</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5174,36 +5183,36 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>44242</v>
+        <v>40206</v>
       </c>
       <c r="B100" s="4">
-        <v>0.3840277777777778</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5212,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -5223,25 +5232,25 @@
         <v>44242</v>
       </c>
       <c r="B101" s="4">
-        <v>0.84166666666666667</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -5253,42 +5262,42 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B102" s="4">
-        <v>0.62152777777777779</v>
+        <v>0.84166666666666667</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -5297,100 +5306,182 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>7</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44247</v>
+        <v>44243</v>
       </c>
       <c r="B103" s="4">
-        <v>0.78263888888888899</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F103">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>44255</v>
+        <v>44247</v>
       </c>
       <c r="B104" s="4">
-        <v>0.3923611111111111</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
       <c r="D104" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C105" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" t="s">
         <v>209</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
         <v>3</v>
       </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104">
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
         <v>7</v>
       </c>
-      <c r="O104" t="s">
+      <c r="O105" t="s">
         <v>210</v>
       </c>
     </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="C106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:O88">
-    <sortCondition ref="A2:A88"/>
+  <sortState ref="A2:O89">
+    <sortCondition ref="A2:A89"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D30" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EAAE93-F082-4C1E-B280-8A3DE7CD7E16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC9FFB4-6F8A-4CC0-83D6-84B851DE3B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72840" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="0" yWindow="75270" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -667,6 +667,54 @@
   </si>
   <si>
     <t>10108134381077029</t>
+  </si>
+  <si>
+    <t>&lt;gif&gt;</t>
+  </si>
+  <si>
+    <t>10108143841628009</t>
+  </si>
+  <si>
+    <t>10108142542601269</t>
+  </si>
+  <si>
+    <t>YELLOW HAZE</t>
+  </si>
+  <si>
+    <t>10107067806261509</t>
+  </si>
+  <si>
+    <t>Brian LeBlanc</t>
+  </si>
+  <si>
+    <t>10108151803676999</t>
+  </si>
+  <si>
+    <t>We’re just around the corner. 🌸 🎸</t>
+  </si>
+  <si>
+    <t>Double rainbow power!</t>
+  </si>
+  <si>
+    <t>10108151808138059</t>
+  </si>
+  <si>
+    <t>10100585675378759</t>
+  </si>
+  <si>
+    <t>10105236795446859</t>
+  </si>
+  <si>
+    <t>🌈</t>
+  </si>
+  <si>
+    <t>🌈🌈</t>
+  </si>
+  <si>
+    <t>10106072123412919</t>
+  </si>
+  <si>
+    <t>10107067035715689</t>
   </si>
 </sst>
 </file>
@@ -1041,11 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,22 +1571,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>41184</v>
+        <v>40988</v>
       </c>
       <c r="B12" s="4">
-        <v>0.35972222222222222</v>
+        <v>0.37291666666666662</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1559,30 +1607,27 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>41285</v>
+        <v>41184</v>
       </c>
       <c r="B13" s="4">
-        <v>0.74722222222222223</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1603,27 +1648,30 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>41286</v>
+        <v>41285</v>
       </c>
       <c r="B14" s="4">
-        <v>0.3527777777777778</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1644,27 +1692,27 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>41492</v>
+        <v>41286</v>
       </c>
       <c r="B15" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1685,27 +1733,27 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>41654</v>
+        <v>41492</v>
       </c>
       <c r="B16" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1726,27 +1774,27 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>41860</v>
+        <v>41654</v>
       </c>
       <c r="B17" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1767,56 +1815,56 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>41912</v>
+        <v>41860</v>
       </c>
       <c r="B18" s="4">
-        <v>0.30763888888888891</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>41940</v>
+        <v>41912</v>
       </c>
       <c r="B19" s="4">
-        <v>0.34166666666666662</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1825,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1849,15 +1897,15 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>41955</v>
+        <v>41940</v>
       </c>
       <c r="B20" s="4">
-        <v>0.2986111111111111</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1866,10 +1914,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1890,27 +1938,27 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>42051</v>
+        <v>41955</v>
       </c>
       <c r="B21" s="4">
-        <v>0.86944444444444446</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1931,27 +1979,27 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>42313</v>
+        <v>42051</v>
       </c>
       <c r="B22" s="4">
-        <v>0.3215277777777778</v>
+        <v>0.86944444444444446</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1972,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1980,19 +2028,19 @@
         <v>42313</v>
       </c>
       <c r="B23" s="4">
-        <v>0.8930555555555556</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2013,27 +2061,27 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>42337</v>
+        <v>42313</v>
       </c>
       <c r="B24" s="4">
-        <v>0.52222222222222225</v>
+        <v>0.8930555555555556</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2054,27 +2102,27 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>42340</v>
+        <v>42337</v>
       </c>
       <c r="B25" s="4">
-        <v>0.33402777777777781</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2095,27 +2143,27 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>42346</v>
+        <v>42340</v>
       </c>
       <c r="B26" s="4">
-        <v>0.74097222222222225</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2141,22 +2189,22 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>42352</v>
+        <v>42346</v>
       </c>
       <c r="B27" s="4">
-        <v>0.31319444444444444</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2177,27 +2225,27 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>42420</v>
+        <v>42352</v>
       </c>
       <c r="B28" s="4">
-        <v>0.43124999999999997</v>
+        <v>0.31319444444444444</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2218,33 +2266,33 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>42424</v>
+        <v>42420</v>
       </c>
       <c r="B29" s="4">
-        <v>0.32361111111111113</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2259,24 +2307,24 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>42644</v>
+        <v>42424</v>
       </c>
       <c r="B30" s="4">
-        <v>0.30208333333333331</v>
+        <v>0.32361111111111113</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -2285,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2302,28 +2350,25 @@
       <c r="M30">
         <v>3</v>
       </c>
-      <c r="O30" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>42648</v>
+        <v>42644</v>
       </c>
       <c r="B31" s="4">
-        <v>0.38611111111111113</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>148</v>
+        <v>50</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2332,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2341,39 +2386,42 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>42737</v>
+        <v>42648</v>
       </c>
       <c r="B32" s="4">
-        <v>0.46249999999999997</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2382,33 +2430,33 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>42738</v>
+        <v>42737</v>
       </c>
       <c r="B33" s="4">
-        <v>0.375</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2426,27 +2474,27 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>42750</v>
+        <v>42738</v>
       </c>
       <c r="B34" s="4">
-        <v>0.41944444444444445</v>
+        <v>0.375</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2467,30 +2515,30 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>42756</v>
+        <v>42750</v>
       </c>
       <c r="B35" s="4">
-        <v>0.33611111111111108</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2508,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2516,28 +2564,28 @@
         <v>42756</v>
       </c>
       <c r="B36" s="4">
-        <v>0.49305555555555558</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2549,27 +2597,27 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>42775</v>
+        <v>42756</v>
       </c>
       <c r="B37" s="4">
-        <v>0.38263888888888892</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2578,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2590,30 +2638,30 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>42850</v>
+        <v>42775</v>
       </c>
       <c r="B38" s="4">
-        <v>0.37083333333333335</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2631,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2639,25 +2687,25 @@
         <v>42850</v>
       </c>
       <c r="B39" s="4">
-        <v>0.61736111111111114</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2672,34 +2720,34 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>42980</v>
+        <v>42850</v>
       </c>
       <c r="B40" s="4">
-        <v>0.44791666666666669</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>3</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
@@ -2713,30 +2761,30 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>43023</v>
+        <v>42980</v>
       </c>
       <c r="B41" s="4">
-        <v>0.46180555555555558</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2754,30 +2802,30 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>43037</v>
+        <v>43023</v>
       </c>
       <c r="B42" s="4">
-        <v>0.37708333333333338</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2795,30 +2843,30 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43045</v>
+        <v>43037</v>
       </c>
       <c r="B43" s="4">
-        <v>0.27986111111111112</v>
+        <v>0.37708333333333338</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2836,33 +2884,30 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43074</v>
+        <v>43045</v>
       </c>
       <c r="B44" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2880,36 +2925,39 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>43087</v>
+        <v>43074</v>
       </c>
       <c r="B45" s="4">
-        <v>0.41319444444444442</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2921,36 +2969,36 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>43117</v>
+        <v>43087</v>
       </c>
       <c r="B46" s="4">
-        <v>0.77986111111111101</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="F46">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2962,33 +3010,33 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>43141</v>
+        <v>43117</v>
       </c>
       <c r="B47" s="4">
-        <v>0.31736111111111115</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>191</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3003,30 +3051,30 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43147</v>
+        <v>43141</v>
       </c>
       <c r="B48" s="4">
-        <v>0.59375</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3035,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3044,39 +3092,39 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43151</v>
+        <v>43147</v>
       </c>
       <c r="B49" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.59375</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3085,39 +3133,39 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43171</v>
+        <v>43151</v>
       </c>
       <c r="B50" s="4">
-        <v>0.74791666666666667</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>189</v>
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3126,30 +3174,27 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>4</v>
-      </c>
-      <c r="O50" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>43354</v>
+        <v>43171</v>
       </c>
       <c r="B51" s="4">
-        <v>0.47430555555555554</v>
+        <v>0.74791666666666667</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>189</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3161,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3170,30 +3215,33 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>43360</v>
+        <v>43179</v>
       </c>
       <c r="B52" s="4">
-        <v>0.48402777777777778</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>170</v>
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>226</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3211,118 +3259,121 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43428</v>
+        <v>43354</v>
       </c>
       <c r="B53" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>2</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43504</v>
+        <v>43360</v>
       </c>
       <c r="B54" s="4">
-        <v>0.6020833333333333</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>4</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43507</v>
+        <v>43428</v>
       </c>
       <c r="B55" s="4">
-        <v>0.70694444444444438</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>2</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3334,27 +3385,27 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>43508</v>
+        <v>43504</v>
       </c>
       <c r="B56" s="4">
-        <v>0.75694444444444453</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
-        <v>14</v>
+      <c r="D56" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3363,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3380,28 +3431,28 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>43555</v>
+        <v>43507</v>
       </c>
       <c r="B57" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3416,33 +3467,33 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>43589</v>
+        <v>43508</v>
       </c>
       <c r="B58" s="4">
-        <v>0.39861111111111108</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -3457,33 +3508,33 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>43616</v>
+        <v>43544</v>
       </c>
       <c r="B59" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3498,33 +3549,36 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>43616</v>
+        <v>43555</v>
       </c>
       <c r="B60" s="4">
-        <v>0.78611111111111109</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3539,24 +3593,24 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>43637</v>
+        <v>43589</v>
       </c>
       <c r="B61" s="4">
-        <v>0.28819444444444448</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -3568,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3580,36 +3634,36 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>43669</v>
+        <v>43616</v>
       </c>
       <c r="B62" s="4">
-        <v>0.875</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="F62">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3621,33 +3675,33 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>43683</v>
+        <v>43616</v>
       </c>
       <c r="B63" s="4">
-        <v>0.29236111111111113</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3662,27 +3716,27 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>43705</v>
+        <v>43637</v>
       </c>
       <c r="B64" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3691,48 +3745,48 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>2</v>
-      </c>
-      <c r="M64">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43716</v>
+        <v>43669</v>
       </c>
       <c r="B65" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.875</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F65">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3744,39 +3798,39 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>43729</v>
+        <v>43683</v>
       </c>
       <c r="B66" s="4">
-        <v>0.40347222222222223</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3785,68 +3839,68 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>43770</v>
+        <v>43705</v>
       </c>
       <c r="B67" s="4">
-        <v>0.35555555555555557</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>43808</v>
+        <v>43716</v>
       </c>
       <c r="B68" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -3867,28 +3921,28 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>43815</v>
+        <v>43729</v>
       </c>
       <c r="B69" s="4">
-        <v>0.34375</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69">
         <v>18</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
       <c r="G69">
         <v>0</v>
       </c>
@@ -3896,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3908,42 +3962,39 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>2</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>43826</v>
+        <v>43770</v>
       </c>
       <c r="B70" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3952,36 +4003,36 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43847</v>
+        <v>43808</v>
       </c>
       <c r="B71" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3993,27 +4044,24 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>43851</v>
+        <v>43815</v>
       </c>
       <c r="B72" s="4">
-        <v>0.44236111111111115</v>
+        <v>0.34375</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4040,39 +4088,39 @@
         <v>2</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>43868</v>
+        <v>43826</v>
       </c>
       <c r="B73" s="4">
-        <v>0.3125</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4081,24 +4129,24 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>43878</v>
+        <v>43847</v>
       </c>
       <c r="B74" s="4">
-        <v>0.25763888888888892</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4110,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4123,29 +4171,32 @@
       </c>
       <c r="M74">
         <v>0</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>43887</v>
+        <v>43851</v>
       </c>
       <c r="B75" s="4">
-        <v>0.33194444444444443</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4163,36 +4214,39 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>43902</v>
+        <v>43868</v>
       </c>
       <c r="B76" s="4">
-        <v>0.3659722222222222</v>
+        <v>0.3125</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4204,24 +4258,24 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>43908</v>
+        <v>43878</v>
       </c>
       <c r="B77" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -4233,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4245,39 +4299,36 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>43921</v>
+        <v>43910</v>
       </c>
       <c r="B78" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="F78">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4289,33 +4340,36 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44001</v>
+        <v>43910</v>
       </c>
       <c r="B79" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="C79" t="s">
         <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4330,121 +4384,121 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44048</v>
+        <v>43887</v>
       </c>
       <c r="B80" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.33194444444444443</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
         <v>4</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44102</v>
+        <v>43902</v>
       </c>
       <c r="B81" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81">
-        <v>6</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44116</v>
+        <v>43908</v>
       </c>
       <c r="B82" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4456,24 +4510,27 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44123</v>
+        <v>43921</v>
       </c>
       <c r="B83" s="4">
-        <v>0.3666666666666667</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F83">
         <v>17</v>
@@ -4485,45 +4542,45 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44125</v>
+        <v>44001</v>
       </c>
       <c r="B84" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -4532,42 +4589,42 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44129</v>
+        <v>44048</v>
       </c>
       <c r="B85" s="4">
-        <v>0.43958333333333338</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4579,33 +4636,33 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44140</v>
+        <v>44102</v>
       </c>
       <c r="B86" s="4">
-        <v>0.34513888888888888</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4617,45 +4674,42 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>17</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44141</v>
+        <v>44116</v>
       </c>
       <c r="B87" s="4">
-        <v>0.42222222222222222</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4667,77 +4721,74 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44148</v>
+        <v>44123</v>
       </c>
       <c r="B88" s="4">
-        <v>0.30902777777777779</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F88">
+        <v>17</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
         <v>3</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>3</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>44161</v>
+        <v>44125</v>
       </c>
       <c r="B89" s="4">
-        <v>0.9770833333333333</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4752,24 +4803,27 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>44170</v>
+        <v>44129</v>
       </c>
       <c r="B90" s="4">
-        <v>0.48680555555555555</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4778,54 +4832,51 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
         <v>2</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>4</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>44171</v>
+        <v>44140</v>
       </c>
       <c r="B91" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4834,45 +4885,45 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>44179</v>
+        <v>44141</v>
       </c>
       <c r="B92" s="4">
-        <v>0.34861111111111115</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4881,30 +4932,30 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>44188</v>
+        <v>44148</v>
       </c>
       <c r="B93" s="4">
-        <v>0.46111111111111108</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4913,127 +4964,124 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="O93" t="s">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>44196</v>
+        <v>44161</v>
       </c>
       <c r="B94" s="4">
-        <v>0.43055555555555558</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>183</v>
+      <c r="D94" t="s">
+        <v>129</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>44198</v>
+        <v>44170</v>
       </c>
       <c r="B95" s="4">
-        <v>0.8208333333333333</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>2</v>
-      </c>
-      <c r="O95" t="s">
-        <v>96</v>
+        <v>4</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>44199</v>
+        <v>44171</v>
       </c>
       <c r="B96" s="4">
-        <v>0.49583333333333335</v>
+        <v>0.42291666666666666</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5054,42 +5102,42 @@
         <v>1</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>44212</v>
+        <v>44179</v>
       </c>
       <c r="B97" s="4">
-        <v>1.5972222222222224E-2</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5098,36 +5146,39 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>44213</v>
+        <v>44188</v>
       </c>
       <c r="B98" s="4">
-        <v>0.4055555555555555</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5141,66 +5192,66 @@
       <c r="M98">
         <v>1</v>
       </c>
-      <c r="N98" s="1" t="s">
-        <v>192</v>
+      <c r="O98" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>44222</v>
+        <v>44196</v>
       </c>
       <c r="B99" s="4">
-        <v>0.6791666666666667</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
-      <c r="D99" t="s">
-        <v>196</v>
+      <c r="D99" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>40206</v>
+        <v>44198</v>
       </c>
       <c r="B100" s="4">
-        <v>0.60347222222222219</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D100" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -5212,39 +5263,42 @@
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>44242</v>
+        <v>44199</v>
       </c>
       <c r="B101" s="4">
-        <v>0.3840277777777778</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5265,33 +5319,36 @@
         <v>1</v>
       </c>
       <c r="M101">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>44242</v>
+        <v>44212</v>
       </c>
       <c r="B102" s="4">
-        <v>0.84166666666666667</v>
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -5306,39 +5363,39 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44243</v>
+        <v>44213</v>
       </c>
       <c r="B103" s="4">
-        <v>0.62152777777777779</v>
+        <v>0.4055555555555555</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -5347,144 +5404,529 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>44247</v>
+        <v>44222</v>
       </c>
       <c r="B104" s="4">
-        <v>0.78263888888888899</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F104">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>44255</v>
+        <v>40206</v>
       </c>
       <c r="B105" s="4">
-        <v>0.3923611111111111</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>7</v>
-      </c>
-      <c r="O105" t="s">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>200</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>7</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>207</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" t="s">
+        <v>209</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>7</v>
+      </c>
+      <c r="O110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>44268</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B111" s="4">
         <v>0.64513888888888882</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C111" t="s">
         <v>50</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D111" t="s">
         <v>189</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F106">
+      <c r="F111">
         <v>4</v>
       </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
         <v>2</v>
       </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C112" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s">
+        <v>189</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C113" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>214</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>221</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>227</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O89">
-    <sortCondition ref="A2:A89"/>
+  <sortState ref="A2:O94">
+    <sortCondition ref="A2:A94"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC9FFB4-6F8A-4CC0-83D6-84B851DE3B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A98A4AE-1F2C-4CD5-894D-A09C9CEE62BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75270" windowWidth="17280" windowHeight="3585" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="237">
   <si>
     <t>Date</t>
   </si>
@@ -715,6 +715,27 @@
   </si>
   <si>
     <t>10107067035715689</t>
+  </si>
+  <si>
+    <t>10108170341856339</t>
+  </si>
+  <si>
+    <t>Enjoy this weather while the mosquitoes are sluggish. Specially a mosquito. I’d like you to feel free to stay sleep.</t>
+  </si>
+  <si>
+    <t>10108167224787969</t>
+  </si>
+  <si>
+    <t>Dense Fog bro where you at?</t>
+  </si>
+  <si>
+    <t>Mark McLawhorn Dense Fog Alert</t>
+  </si>
+  <si>
+    <t>Vicky Earp</t>
+  </si>
+  <si>
+    <t>10224539686495161</t>
   </si>
 </sst>
 </file>
@@ -1089,11 +1110,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5921,8 +5942,137 @@
         <v>224</v>
       </c>
     </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" t="s">
+        <v>234</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="O116" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" t="s">
+        <v>233</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:O94">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O94">
     <sortCondition ref="A2:A94"/>
   </sortState>
   <hyperlinks>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data Science\Completed\DENSE FOG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A98A4AE-1F2C-4CD5-894D-A09C9CEE62BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F53D145-2741-486C-BB51-DD97B3C1F213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="-120" yWindow="4740" windowWidth="29040" windowHeight="15225" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="320">
   <si>
     <t>Date</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Nice weather for #ducks . *(make sure to watch to the end 🤗) #ducklings #babyanimals #rain</t>
   </si>
   <si>
-    <t>10104271132887369</t>
-  </si>
-  <si>
     <t>DJ KHALEDDDD!!! THIS THE BEST WEATHER!!! 🎤🧔🏻🎶</t>
   </si>
   <si>
@@ -736,6 +733,275 @@
   </si>
   <si>
     <t>10224539686495161</t>
+  </si>
+  <si>
+    <t>10108171084932209</t>
+  </si>
+  <si>
+    <t>From yesterday’s … DENSE FOG.</t>
+  </si>
+  <si>
+    <t>Thanks to Jeremy Ashton for sharing this. 🌸💦</t>
+  </si>
+  <si>
+    <t>10106119007352129</t>
+  </si>
+  <si>
+    <t>Despite the rain, the POLLEN IS BACK, Y’ALL</t>
+  </si>
+  <si>
+    <t>10106118382339659</t>
+  </si>
+  <si>
+    <t>Welp, can’t open the windows now. 🌺🌾 #pollen #itbegins</t>
+  </si>
+  <si>
+    <t>10107048902614569</t>
+  </si>
+  <si>
+    <t>SPRING HAS SPRUNG!</t>
+  </si>
+  <si>
+    <t>10102257879672949</t>
+  </si>
+  <si>
+    <t>AND AGAIN!</t>
+  </si>
+  <si>
+    <t>10106937582236499</t>
+  </si>
+  <si>
+    <t>10105977499315369</t>
+  </si>
+  <si>
+    <t>SPRING HAS SPRUNG 🧚🏼‍♀️🐿💐🌹🌺</t>
+  </si>
+  <si>
+    <t>AND AGAIN AND AGAIN!</t>
+  </si>
+  <si>
+    <t>10106819618401969</t>
+  </si>
+  <si>
+    <t>10105890218711399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRING HAS SPRUNG! </t>
+  </si>
+  <si>
+    <t>Attn Groundhogs: Just because it's in the 70's today does not mean Spring is coming early.</t>
+  </si>
+  <si>
+    <t>161265590590133</t>
+  </si>
+  <si>
+    <t>Lows in the 30°s this week? SUCK IT, SPRING.</t>
+  </si>
+  <si>
+    <t>10101820512140989</t>
+  </si>
+  <si>
+    <t>Spring winter spring fall spring winter summer winter spring winter spring</t>
+  </si>
+  <si>
+    <t>782854065192133</t>
+  </si>
+  <si>
+    <t>Spring Equinox :: White Willow Bark 🌸🌾🫖 :: #firstdayofspring #coldoutside #teaforone #looseleaftea #buylocal #sitandstare #saturdayvibes</t>
+  </si>
+  <si>
+    <t>10108151198409959</t>
+  </si>
+  <si>
+    <t>57821 :: 🌺:: #neighbors #janellemonae #redundancy #flowers #spring #rain #tired #multiexposure</t>
+  </si>
+  <si>
+    <t>10108163263750919</t>
+  </si>
+  <si>
+    <t>3 blooms 🌸🌼🌺 :: #spring #lunchwander #flowers #nothing #tripleexposure #backtowork #thinkingpositive</t>
+  </si>
+  <si>
+    <t>10108121850079249</t>
+  </si>
+  <si>
+    <t>Pfizer Afternoon :: 🪡 :: #spring #ncweather #inbloom #industrialflower #tripleexposure 🌸</t>
+  </si>
+  <si>
+    <t>10108127121974329</t>
+  </si>
+  <si>
+    <t>Tree Service 🌳⛑ :: #2 #neighborhood #streetviews #throughthewindow #green #typewriter #kitchen #yard #spring #multiexposure</t>
+  </si>
+  <si>
+    <t>10108156099967199</t>
+  </si>
+  <si>
+    <t>SPRING BREAK '99!</t>
+  </si>
+  <si>
+    <t>10107031040570249</t>
+  </si>
+  <si>
+    <t>🌼🌸SPRING HAS SPRUNG!🌸🌼</t>
+  </si>
+  <si>
+    <t>10105047145596679</t>
+  </si>
+  <si>
+    <t>SPRING HAS SPRUNG! 🌈🌷</t>
+  </si>
+  <si>
+    <t>10106814777597979</t>
+  </si>
+  <si>
+    <t>SPRING HAS SPRUNG! 🌻</t>
+  </si>
+  <si>
+    <t>10106606132878669</t>
+  </si>
+  <si>
+    <t>"I AM the #lizardking. I can do anything." #reptiles #thedoors #spring</t>
+  </si>
+  <si>
+    <t>10104202726269779:0</t>
+  </si>
+  <si>
+    <t>HEY EVERYONE. IT'S SPRING AGAIN!</t>
+  </si>
+  <si>
+    <t>10103062420252179</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Shaade Oliveros-Tavares</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>Syme Hall</t>
+  </si>
+  <si>
+    <t>10104271132887369:0</t>
+  </si>
+  <si>
+    <t>Lake Johnson Nature Park</t>
+  </si>
+  <si>
+    <t>Randal McLawhorn
+Joe Grandstaff
+Jason Theierl
+Eric Hause</t>
+  </si>
+  <si>
+    <t>Adele Stuckey
+Shaade Oliveros-Tavares</t>
+  </si>
+  <si>
+    <t>Nick Mason
+Ron Kemp
+Donna Barnes</t>
+  </si>
+  <si>
+    <t>Vicky Earp
+Luis Chacon</t>
+  </si>
+  <si>
+    <t>Tin Roof Teas.</t>
+  </si>
+  <si>
+    <t>Vicky Earp
+Donna Barnes
+Ron Kemp</t>
+  </si>
+  <si>
+    <t>Transfer Co. Food Hall</t>
+  </si>
+  <si>
+    <t>James Ryals
+Alastair Hadden</t>
+  </si>
+  <si>
+    <t>Coworker</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Andrew Boyd</t>
+  </si>
+  <si>
+    <t>Paint Fumes</t>
+  </si>
+  <si>
+    <t>WRAL</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Warm, Spring</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Force Field</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Cloud
+Rain</t>
+  </si>
+  <si>
+    <t>Winter
+Weather.com</t>
+  </si>
+  <si>
+    <t>Cold
+Spring</t>
+  </si>
+  <si>
+    <t>Rain
+Warm</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Storm
+Tornado</t>
+  </si>
+  <si>
+    <t>Clouds
+Fog</t>
+  </si>
+  <si>
+    <t>Dense Fog
+WRAL</t>
+  </si>
+  <si>
+    <t>Pollen</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
   </si>
 </sst>
 </file>
@@ -784,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -793,6 +1059,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1110,11 +1379,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,15 +1391,17 @@
     <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
     <col min="6" max="7" width="5.42578125" customWidth="1"/>
     <col min="8" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1176,8 +1447,17 @@
       <c r="O1" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>39798</v>
       </c>
@@ -1217,63 +1497,69 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>40611</v>
+        <v>40576</v>
       </c>
       <c r="B3" s="4">
-        <v>0.81388888888888899</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>40611</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.81388888888888899</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>40626</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1299,66 +1585,72 @@
       <c r="M4">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>40626</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>40649</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.67291666666666661</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>40649</v>
       </c>
       <c r="B6" s="4">
-        <v>0.70138888888888884</v>
+        <v>0.67291666666666661</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1382,24 +1674,27 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>40650</v>
+        <v>40649</v>
       </c>
       <c r="B7" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1423,24 +1718,27 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>40720</v>
+        <v>40650</v>
       </c>
       <c r="B8" s="4">
-        <v>0.63611111111111118</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1464,109 +1762,118 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>40755</v>
+        <v>40720</v>
       </c>
       <c r="B9" s="4">
-        <v>0.41111111111111115</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>40755</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="R10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>40883</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>40897</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.33680555555555558</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1587,27 +1894,33 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>284</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>40988</v>
+        <v>40897</v>
       </c>
       <c r="B12" s="4">
-        <v>0.37291666666666662</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1630,25 +1943,28 @@
       <c r="M12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>41184</v>
+        <v>40988</v>
       </c>
       <c r="B13" s="4">
-        <v>0.35972222222222222</v>
+        <v>0.37291666666666662</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1669,30 +1985,33 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>41285</v>
+        <v>41184</v>
       </c>
       <c r="B14" s="4">
-        <v>0.74722222222222223</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1713,27 +2032,33 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>41286</v>
+        <v>41285</v>
       </c>
       <c r="B15" s="4">
-        <v>0.3527777777777778</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1754,109 +2079,121 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>41492</v>
+        <v>41286</v>
       </c>
       <c r="B16" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>41492</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>284</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>41654</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <v>0.33680555555555558</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>41860</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.50347222222222221</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1877,27 +2214,30 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>41912</v>
+        <v>41742</v>
       </c>
       <c r="B19" s="4">
-        <v>0.30763888888888891</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1918,56 +2258,62 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>41940</v>
+        <v>41860</v>
       </c>
       <c r="B20" s="4">
-        <v>0.34166666666666662</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>41955</v>
+        <v>41912</v>
       </c>
       <c r="B21" s="4">
-        <v>0.2986111111111111</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1976,10 +2322,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2002,25 +2348,28 @@
       <c r="M21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>42051</v>
+        <v>41940</v>
       </c>
       <c r="B22" s="4">
-        <v>0.86944444444444446</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2041,15 +2390,18 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>42313</v>
+        <v>41955</v>
       </c>
       <c r="B23" s="4">
-        <v>0.3215277777777778</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -2058,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -2082,27 +2434,30 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>42313</v>
+        <v>41967</v>
       </c>
       <c r="B24" s="4">
-        <v>0.8930555555555556</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2123,27 +2478,30 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>42337</v>
+        <v>42051</v>
       </c>
       <c r="B25" s="4">
-        <v>0.52222222222222225</v>
+        <v>0.86944444444444446</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2164,27 +2522,30 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>42340</v>
+        <v>42313</v>
       </c>
       <c r="B26" s="4">
-        <v>0.33402777777777781</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2205,27 +2566,30 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>42346</v>
+        <v>42313</v>
       </c>
       <c r="B27" s="4">
-        <v>0.74097222222222225</v>
+        <v>0.8930555555555556</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2246,27 +2610,30 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>42352</v>
+        <v>42337</v>
       </c>
       <c r="B28" s="4">
-        <v>0.31319444444444444</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2287,27 +2654,30 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>42420</v>
+        <v>42340</v>
       </c>
       <c r="B29" s="4">
-        <v>0.43124999999999997</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2328,33 +2698,36 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>42424</v>
+        <v>42346</v>
       </c>
       <c r="B30" s="4">
-        <v>0.32361111111111113</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2369,27 +2742,30 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>42644</v>
+        <v>42352</v>
       </c>
       <c r="B31" s="4">
-        <v>0.30208333333333331</v>
+        <v>0.31319444444444444</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2410,279 +2786,301 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="O31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>42648</v>
+        <v>42379</v>
       </c>
       <c r="B32" s="4">
-        <v>0.38611111111111113</v>
+        <v>0.4680555555555555</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>284</v>
+      </c>
+      <c r="R32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>42420</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>284</v>
+      </c>
+      <c r="R33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>42420</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.98819444444444438</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34"/>
+      <c r="P34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>42424</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>42644</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>42648</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32">
+      <c r="F37">
         <v>6</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="P37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>42737</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B38" s="4">
         <v>0.46249999999999997</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>42738</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34">
-        <v>8</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>42750</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>42756</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.33611111111111108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36">
-        <v>14</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>42756</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>42775</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.38263888888888892</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2700,74 +3098,74 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>42850</v>
+        <v>42738</v>
       </c>
       <c r="B39" s="4">
-        <v>0.37083333333333335</v>
+        <v>0.375</v>
       </c>
       <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39">
-        <v>18</v>
-      </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>42750</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>42850</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.61736111111111114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2785,27 +3183,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>42980</v>
+        <v>42756</v>
       </c>
       <c r="B41" s="4">
-        <v>0.44791666666666669</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2826,33 +3224,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>43023</v>
+        <v>42756</v>
       </c>
       <c r="B42" s="4">
-        <v>0.46180555555555558</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2866,25 +3264,28 @@
       <c r="M42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43037</v>
+        <v>42775</v>
       </c>
       <c r="B43" s="4">
-        <v>0.37708333333333338</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2908,27 +3309,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43045</v>
+        <v>42830</v>
       </c>
       <c r="B44" s="4">
-        <v>0.27986111111111112</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2946,33 +3347,33 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="O44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>43074</v>
+        <v>42850</v>
       </c>
       <c r="B45" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2990,36 +3391,36 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>43087</v>
+        <v>42850</v>
       </c>
       <c r="B46" s="4">
-        <v>0.41319444444444442</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="F46">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3031,33 +3432,33 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>43117</v>
+        <v>42980</v>
       </c>
       <c r="B47" s="4">
-        <v>0.77986111111111101</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3072,65 +3473,65 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43141</v>
+        <v>43023</v>
       </c>
       <c r="B48" s="4">
-        <v>0.31736111111111115</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43037</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>43147</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.59375</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -3145,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3154,121 +3555,121 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43151</v>
+        <v>43045</v>
       </c>
       <c r="B50" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>33</v>
+      <c r="D50" t="s">
+        <v>90</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>43074</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43087</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>2</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>43171</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0.74791666666666667</v>
-      </c>
-      <c r="C51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>4</v>
-      </c>
-      <c r="O51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>43179</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3280,77 +3681,74 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43354</v>
+        <v>43109</v>
       </c>
       <c r="B53" s="4">
-        <v>0.47430555555555554</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>124</v>
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>272</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>5</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43360</v>
+        <v>43117</v>
       </c>
       <c r="B54" s="4">
-        <v>0.48402777777777778</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>170</v>
+      <c r="D54" t="s">
+        <v>190</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3365,191 +3763,197 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43428</v>
+        <v>43141</v>
       </c>
       <c r="B55" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>43147</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>43151</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
         <v>4</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>43504</v>
-      </c>
-      <c r="B56" s="4">
-        <v>0.6020833333333333</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>43507</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>43508</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58">
-        <v>9</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>43544</v>
+        <v>43179</v>
       </c>
       <c r="B59" s="4">
-        <v>0.38055555555555554</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -3570,121 +3974,127 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="P59" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>43555</v>
+        <v>43354</v>
       </c>
       <c r="B60" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" t="s">
-        <v>97</v>
+      <c r="D60" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>2</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>43589</v>
+        <v>43360</v>
       </c>
       <c r="B61" s="4">
-        <v>0.39861111111111108</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="D61" t="s">
-        <v>12</v>
+      <c r="D61" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
         <v>4</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>43616</v>
+        <v>43428</v>
       </c>
       <c r="B62" s="4">
         <v>0.78402777777777777</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>158</v>
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>2</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>11</v>
-      </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3696,36 +4106,39 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>43616</v>
+        <v>43462</v>
       </c>
       <c r="B63" s="4">
-        <v>0.78611111111111109</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>160</v>
+        <v>7</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3740,30 +4153,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>43637</v>
+        <v>43501</v>
       </c>
       <c r="B64" s="4">
-        <v>0.28819444444444448</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
-        <v>99</v>
+      <c r="D64" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -3778,36 +4191,36 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43669</v>
+        <v>43504</v>
       </c>
       <c r="B65" s="4">
-        <v>0.875</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="D65" t="s">
-        <v>112</v>
+      <c r="D65" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3819,15 +4232,15 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>43683</v>
+        <v>43507</v>
       </c>
       <c r="B66" s="4">
-        <v>0.29236111111111113</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -3836,93 +4249,93 @@
         <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>43508</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43544</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68">
         <v>3</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>43705</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67">
-        <v>8</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>43716</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68">
-        <v>27</v>
-      </c>
       <c r="G68">
         <v>1</v>
       </c>
@@ -3930,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3942,39 +4355,45 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P68" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>43729</v>
+        <v>43555</v>
       </c>
       <c r="B69" s="4">
-        <v>0.40347222222222223</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3983,80 +4402,83 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>43770</v>
+        <v>43564</v>
       </c>
       <c r="B70" s="4">
-        <v>0.35555555555555557</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
         <v>7</v>
       </c>
-      <c r="D70" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F70">
-        <v>5</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>7</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43808</v>
+        <v>43564</v>
       </c>
       <c r="B71" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.38472222222222219</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4067,34 +4489,37 @@
       <c r="M71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>43815</v>
+        <v>43589</v>
       </c>
       <c r="B72" s="4">
-        <v>0.34375</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4106,42 +4531,39 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>43826</v>
+        <v>43616</v>
       </c>
       <c r="B73" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4150,24 +4572,24 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>43847</v>
+        <v>43616</v>
       </c>
       <c r="B74" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4176,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -4193,34 +4615,31 @@
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>43851</v>
+        <v>43637</v>
       </c>
       <c r="B75" s="4">
-        <v>0.44236111111111115</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4237,37 +4656,34 @@
       <c r="M75">
         <v>2</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>43868</v>
+        <v>43669</v>
       </c>
       <c r="B76" s="4">
-        <v>0.3125</v>
+        <v>0.875</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4282,118 +4698,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>43878</v>
+        <v>43683</v>
       </c>
       <c r="B77" s="4">
-        <v>0.25763888888888892</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77">
         <v>3</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>43705</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
         <v>2</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>43910</v>
-      </c>
-      <c r="B78" s="4">
-        <v>0.35694444444444445</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>227</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
       <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>43910</v>
+        <v>43716</v>
       </c>
       <c r="B79" s="4">
-        <v>0.51388888888888895</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4407,78 +4820,75 @@
       <c r="M79">
         <v>2</v>
       </c>
-      <c r="O79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>43887</v>
+        <v>43729</v>
       </c>
       <c r="B80" s="4">
-        <v>0.33194444444444443</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="F80">
+        <v>18</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>43752</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C81" t="s">
         <v>7</v>
       </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>43902</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4487,39 +4897,39 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>43770</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="C82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>43908</v>
-      </c>
-      <c r="B82" s="4">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="C82" t="s">
-        <v>50</v>
-      </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4531,39 +4941,36 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="O82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>43921</v>
+        <v>43808</v>
       </c>
       <c r="B83" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="F83">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4575,24 +4982,24 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44001</v>
+        <v>43815</v>
       </c>
       <c r="B84" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.34375</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4601,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -4616,68 +5023,68 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="O84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44048</v>
+        <v>43825</v>
       </c>
       <c r="B85" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.59652777777777777</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>274</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>4</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44102</v>
+        <v>43826</v>
       </c>
       <c r="B86" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -4686,127 +5093,136 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44116</v>
+        <v>43827</v>
       </c>
       <c r="B87" s="4">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>250</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>43847</v>
+      </c>
+      <c r="B88" s="4">
         <v>0.33819444444444446</v>
       </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F87">
-        <v>6</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>44123</v>
-      </c>
-      <c r="B88" s="4">
-        <v>0.3666666666666667</v>
-      </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="F88">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>44125</v>
+        <v>43851</v>
       </c>
       <c r="B89" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4818,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -4826,248 +5242,272 @@
       <c r="M89">
         <v>2</v>
       </c>
-      <c r="O89" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>44129</v>
+        <v>43866</v>
       </c>
       <c r="B90" s="4">
-        <v>0.43958333333333338</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="R92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P93" t="s">
+        <v>283</v>
+      </c>
+      <c r="R93" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>218</v>
+      </c>
+      <c r="R94" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95">
         <v>7</v>
       </c>
-      <c r="D90" t="s">
-        <v>87</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>44140</v>
-      </c>
-      <c r="B91" s="4">
-        <v>0.34513888888888888</v>
-      </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
-        <v>94</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>17</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>44141</v>
-      </c>
-      <c r="B92" s="4">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F92">
+      <c r="G95">
         <v>3</v>
       </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>44148</v>
-      </c>
-      <c r="B93" s="4">
-        <v>0.30902777777777779</v>
-      </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>3</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>44161</v>
-      </c>
-      <c r="B94" s="4">
-        <v>0.9770833333333333</v>
-      </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>129</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>44170</v>
-      </c>
-      <c r="B95" s="4">
-        <v>0.48680555555555555</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5081,28 +5521,28 @@
       <c r="M95">
         <v>4</v>
       </c>
-      <c r="N95" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>44171</v>
+        <v>44264</v>
       </c>
       <c r="B96" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.53125</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5120,45 +5560,45 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>2</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R96" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>44179</v>
+        <v>43902</v>
       </c>
       <c r="B97" s="4">
-        <v>0.34861111111111115</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5169,163 +5609,169 @@
       <c r="M97">
         <v>7</v>
       </c>
-      <c r="N97" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>44188</v>
+        <v>44270</v>
       </c>
       <c r="B98" s="4">
-        <v>0.46111111111111108</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="R98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C99" t="s">
         <v>50</v>
       </c>
-      <c r="D98" t="s">
-        <v>180</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="O98" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>44196</v>
-      </c>
-      <c r="B99" s="4">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>102</v>
+      </c>
+      <c r="R99" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>14</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
         <v>7</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F99">
-        <v>6</v>
-      </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>2</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>44198</v>
-      </c>
-      <c r="B100" s="4">
-        <v>0.8208333333333333</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="R100" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>44001</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="C101" t="s">
         <v>50</v>
       </c>
-      <c r="D100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>2</v>
-      </c>
-      <c r="O100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>44199</v>
-      </c>
-      <c r="B101" s="4">
-        <v>0.49583333333333335</v>
-      </c>
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
       <c r="D101" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -5337,36 +5783,39 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>3</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>144</v>
+      </c>
+      <c r="R101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>44212</v>
+        <v>44048</v>
       </c>
       <c r="B102" s="4">
-        <v>1.5972222222222224E-2</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5378,86 +5827,89 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44213</v>
+        <v>44102</v>
       </c>
       <c r="B103" s="4">
-        <v>0.4055555555555555</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="R103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>44222</v>
+        <v>44116</v>
       </c>
       <c r="B104" s="4">
-        <v>0.6791666666666667</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="F104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5471,25 +5923,28 @@
       <c r="M104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>40206</v>
+        <v>44123</v>
       </c>
       <c r="B105" s="4">
-        <v>0.60347222222222219</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5501,39 +5956,42 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R105" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>44242</v>
+        <v>44125</v>
       </c>
       <c r="B106" s="4">
-        <v>0.3840277777777778</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5545,33 +6003,39 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>96</v>
+      </c>
+      <c r="R106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>44242</v>
+        <v>44129</v>
       </c>
       <c r="B107" s="4">
-        <v>0.84166666666666667</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="F107">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5586,45 +6050,48 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
       <c r="M107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R107" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>44243</v>
+        <v>44140</v>
       </c>
       <c r="B108" s="4">
-        <v>0.62152777777777779</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -5633,256 +6100,280 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="R108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>44247</v>
+        <v>44141</v>
       </c>
       <c r="B109" s="4">
-        <v>0.78263888888888899</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>44148</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <v>2</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="R110" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>44161</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="R111" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>44255</v>
-      </c>
-      <c r="B110" s="4">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="C110" t="s">
-        <v>50</v>
-      </c>
-      <c r="D110" t="s">
-        <v>209</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>3</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P112" t="s">
+        <v>181</v>
+      </c>
+      <c r="R112" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="C113" t="s">
         <v>7</v>
       </c>
-      <c r="O110" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>44268</v>
-      </c>
-      <c r="B111" s="4">
-        <v>0.64513888888888882</v>
-      </c>
-      <c r="C111" t="s">
-        <v>50</v>
-      </c>
-      <c r="D111" t="s">
-        <v>189</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F111">
-        <v>4</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
+      <c r="D113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
         <v>2</v>
       </c>
-      <c r="J111">
-        <v>1</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>44271</v>
-      </c>
-      <c r="B112" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C112" t="s">
-        <v>50</v>
-      </c>
-      <c r="D112" t="s">
-        <v>189</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>1</v>
-      </c>
-      <c r="O112" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>44272</v>
-      </c>
-      <c r="B113" s="4">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="C113" t="s">
-        <v>50</v>
-      </c>
-      <c r="D113" t="s">
-        <v>214</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N113" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="s">
+        <v>181</v>
+      </c>
+      <c r="R113" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>44275</v>
+        <v>44179</v>
       </c>
       <c r="B114" s="4">
-        <v>0.60486111111111118</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5891,31 +6382,33 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O114" s="1"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="R114" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>44275</v>
+        <v>44188</v>
       </c>
       <c r="B115" s="4">
-        <v>0.60555555555555551</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D115" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5924,45 +6417,48 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>181</v>
+      </c>
+      <c r="R115" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>44282</v>
+        <v>44196</v>
       </c>
       <c r="B116" s="4">
-        <v>0.38263888888888892</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C116" t="s">
-        <v>50</v>
-      </c>
-      <c r="D116" t="s">
-        <v>234</v>
+        <v>7</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5974,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -5982,25 +6478,25 @@
       <c r="M116">
         <v>0</v>
       </c>
-      <c r="O116" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R116" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>44282</v>
+        <v>44198</v>
       </c>
       <c r="B117" s="4">
-        <v>0.40833333333333338</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="C117" t="s">
         <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6009,74 +6505,1154 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="R117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>44283</v>
+        <v>44199</v>
       </c>
       <c r="B118" s="4">
-        <v>0.63472222222222219</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="D118" t="s">
+        <v>186</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>44212</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>188</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="R119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>44213</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>192</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R120" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>44222</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>195</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+      <c r="R121" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>44224</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>197</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="R122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>199</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>6</v>
+      </c>
+      <c r="R123" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>201</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F124">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>284</v>
+      </c>
+      <c r="R124" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>126</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>7</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R125" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>206</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F126">
+        <v>12</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="P126" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>284</v>
+      </c>
+      <c r="R126" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" t="s">
+        <v>208</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>7</v>
+      </c>
+      <c r="O127" t="s">
+        <v>209</v>
+      </c>
+      <c r="R127" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>264</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>284</v>
+      </c>
+      <c r="R128" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>266</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>295</v>
+      </c>
+      <c r="R129" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="C130" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="P130" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="R130" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C131" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>96</v>
+      </c>
+      <c r="R131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C132" t="s">
+        <v>50</v>
+      </c>
+      <c r="D132" t="s">
+        <v>213</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R132" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>260</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1"/>
+      <c r="Q133" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>220</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O134" s="1"/>
+      <c r="R134" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>226</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P135" t="s">
+        <v>283</v>
+      </c>
+      <c r="R135" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>268</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>284</v>
+      </c>
+      <c r="R136" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>262</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>284</v>
+      </c>
+      <c r="R137" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="C138" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>234</v>
+      </c>
+      <c r="R138" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C139" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" t="s">
+        <v>232</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>102</v>
+      </c>
+      <c r="R139" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
         <v>230</v>
       </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
+      <c r="E140" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="R140" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B141" s="4">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>237</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>6</v>
+      </c>
+      <c r="O141" t="s">
+        <v>96</v>
+      </c>
+      <c r="R141" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O94">
-    <sortCondition ref="A2:A94"/>
+  <sortState ref="A2:O111">
+    <sortCondition ref="A2:A111"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F53D145-2741-486C-BB51-DD97B3C1F213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F35583-53FF-4C6F-BE09-7962C4083ED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="4740" windowWidth="29040" windowHeight="15225" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="30810" yWindow="3060" windowWidth="21600" windowHeight="10920" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="350">
   <si>
     <t>Date</t>
   </si>
@@ -952,9 +952,6 @@
     <t>Cloud</t>
   </si>
   <si>
-    <t>Warm, Spring</t>
-  </si>
-  <si>
     <t>Weather</t>
   </si>
   <si>
@@ -994,14 +991,120 @@
 Fog</t>
   </si>
   <si>
+    <t>Pollen</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>CLOVD HVSBANDRY ☁️🌸 :: #bluesky #cloud #romanlettering #walk #veterinarymedicine #springtime #multiexposure #respecttheprocess</t>
+  </si>
+  <si>
+    <t>Polk Hall</t>
+  </si>
+  <si>
+    <t>10108176585663699</t>
+  </si>
+  <si>
+    <t>Cloud
+Spring</t>
+  </si>
+  <si>
+    <t>10108183507387509</t>
+  </si>
+  <si>
+    <t>#FarmersMarket #bogo :: 🐷🚜🧊 :: #buylocal #eatlocal #ncspring #farmer #ncseafood #centennialparkway #goodfriday #paganfeels</t>
+  </si>
+  <si>
+    <t>State Farmer's Market</t>
+  </si>
+  <si>
+    <t>Spring
+Winter
+Fall</t>
+  </si>
+  <si>
     <t>Dense Fog
-WRAL</t>
-  </si>
-  <si>
-    <t>Pollen</t>
-  </si>
-  <si>
-    <t>Hurricane</t>
+Tornado</t>
+  </si>
+  <si>
+    <t>Dense Fog
+ABC</t>
+  </si>
+  <si>
+    <t>Cold
+Rain</t>
+  </si>
+  <si>
+    <t>Ducks</t>
+  </si>
+  <si>
+    <t>Dense Fog
+Geese</t>
+  </si>
+  <si>
+    <t>Rain
+Ducks</t>
+  </si>
+  <si>
+    <t>Matajuro and the ducks. #rainyday #lunch #sketch #comics</t>
+  </si>
+  <si>
+    <t>10103409728114439:1</t>
+  </si>
+  <si>
+    <t>NC State Butler Communucations Building</t>
+  </si>
+  <si>
+    <t>NC State University</t>
+  </si>
+  <si>
+    <t>Rain
+Dinosaurs</t>
+  </si>
+  <si>
+    <t>The #dinosaurs are guarding my car. #rainyday</t>
+  </si>
+  <si>
+    <t>10103409728114439:2</t>
+  </si>
+  <si>
+    <t>Flood</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Warm
+Spring</t>
+  </si>
+  <si>
+    <t>Warm Cold Rain</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Rain
+Fog</t>
+  </si>
+  <si>
+    <t>Pollen front : 🌸🌻🐝 #orbital #astronaut #currentweather #satellite #spring #pollen #holler</t>
+  </si>
+  <si>
+    <t>10108193813683609</t>
+  </si>
+  <si>
+    <t>Spring
+Pollen</t>
+  </si>
+  <si>
+    <t>There's a degree of overlap of dinosaurs/ducks/geese with the other topics.  But there are also many stand alone posts of those pesky critters.
+Dense Fog became Weather in General became inclusive of seasons...now include biology?    
+Are you the new David Attenborough?</t>
+  </si>
+  <si>
+    <t>10108185583192579</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1172,23 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1080,6 +1199,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFEBAA39-DAE0-40A9-99DE-D65118ED309E}" name="Table1" displayName="Table1" ref="A1:R147" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:R147" xr:uid="{B574F180-548F-4C6B-A90C-FF0B13CF06EF}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{F85B136B-F245-4D3A-9DD7-C39B9D8834D2}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EA3401E2-43AF-41B2-8746-0E1B9B3492F4}" name="Time" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BD3B8F80-B0EA-458A-847B-5918B05824BE}" name="Privacy"/>
+    <tableColumn id="4" xr3:uid="{3B2E4394-EF52-4E9E-A7E6-96199EFB81FD}" name="Text"/>
+    <tableColumn id="5" xr3:uid="{6A35E3C4-F095-494E-A706-322517F0762C}" name="Post" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EF1C0789-5C76-48C9-9620-F5804B204F4B}" name="Like"/>
+    <tableColumn id="7" xr3:uid="{707B99CA-6613-4E33-B173-A11910C35FFE}" name="Love"/>
+    <tableColumn id="8" xr3:uid="{CF270319-C256-42C2-858E-B68D97384571}" name="Wow"/>
+    <tableColumn id="9" xr3:uid="{B4AC937E-116B-40A1-9451-816A1C0FDA71}" name="Haha"/>
+    <tableColumn id="10" xr3:uid="{A9DB72CA-F6E2-4C55-89C7-63826E327B55}" name="Sad"/>
+    <tableColumn id="11" xr3:uid="{64A7950D-4BBC-4891-B811-2667000AC9B5}" name="Care"/>
+    <tableColumn id="12" xr3:uid="{A6725323-B221-4FA3-9D11-45DB5FD1CD14}" name="Angry"/>
+    <tableColumn id="13" xr3:uid="{F0B3EB47-65EF-4A9F-98F0-D99A2E707C78}" name="Comments"/>
+    <tableColumn id="14" xr3:uid="{8786AAD7-9BB1-4E54-8AB1-5A816ED8CC72}" name="Reference" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{4A5982C0-2107-451D-AF2C-B632BF010E59}" name="Secretary"/>
+    <tableColumn id="16" xr3:uid="{DCFFA355-8C03-4AD0-9889-D98AFA8CC551}" name="Coworker"/>
+    <tableColumn id="17" xr3:uid="{26A5A390-17D7-4AD0-A043-11D1EC6E7FC0}" name="Location"/>
+    <tableColumn id="18" xr3:uid="{EAA18DA0-A1C4-488A-A414-4C4949E23D2F}" name="Topic"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,11 +1525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N136" sqref="N136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,11 +1539,18 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
     <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1501,7 +1654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>40576</v>
       </c>
@@ -1541,8 +1694,8 @@
       <c r="M3">
         <v>7</v>
       </c>
-      <c r="R3" t="s">
-        <v>305</v>
+      <c r="R3" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1809,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1944,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2038,7 +2191,7 @@
         <v>106</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2261,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2305,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2481,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2525,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2836,7 +2989,7 @@
         <v>284</v>
       </c>
       <c r="R32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2886,7 +3039,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>42420</v>
       </c>
@@ -2930,8 +3083,11 @@
       <c r="P34" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R34" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>42424</v>
       </c>
@@ -2971,25 +3127,28 @@
       <c r="M35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>42644</v>
+        <v>42549</v>
       </c>
       <c r="B36" s="4">
-        <v>0.30208333333333331</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>104</v>
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>337</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3010,39 +3169,42 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="O36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>335</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>42648</v>
+        <v>42549</v>
       </c>
       <c r="B37" s="4">
-        <v>0.38611111111111113</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3051,74 +3213,83 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>4</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
+        <v>334</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>42644</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>42737</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.46249999999999997</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
+      <c r="R38" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>42738</v>
+        <v>42648</v>
       </c>
       <c r="B39" s="4">
-        <v>0.375</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3127,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3136,34 +3307,40 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>106</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>42750</v>
+        <v>42737</v>
       </c>
       <c r="B40" s="4">
-        <v>0.41944444444444445</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
         <v>0</v>
       </c>
@@ -3180,30 +3357,33 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>42756</v>
+        <v>42738</v>
       </c>
       <c r="B41" s="4">
-        <v>0.33611111111111108</v>
+        <v>0.375</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3221,27 +3401,30 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="R41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>42756</v>
+        <v>42750</v>
       </c>
       <c r="B42" s="4">
-        <v>0.49305555555555558</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3250,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3262,33 +3445,33 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>285</v>
+        <v>0</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>42775</v>
+        <v>42756</v>
       </c>
       <c r="B43" s="4">
-        <v>0.38263888888888892</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3306,27 +3489,30 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>42830</v>
+        <v>42756</v>
       </c>
       <c r="B44" s="4">
-        <v>0.48055555555555557</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3335,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3347,33 +3533,36 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>42850</v>
+        <v>42775</v>
       </c>
       <c r="B45" s="4">
-        <v>0.37083333333333335</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="F45">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3391,33 +3580,36 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>42850</v>
+        <v>42830</v>
       </c>
       <c r="B46" s="4">
-        <v>0.61736111111111114</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3433,29 +3625,35 @@
       </c>
       <c r="M46">
         <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>286</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>42980</v>
+        <v>42850</v>
       </c>
       <c r="B47" s="4">
-        <v>0.44791666666666669</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3473,34 +3671,37 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43023</v>
+        <v>42850</v>
       </c>
       <c r="B48" s="4">
-        <v>0.46180555555555558</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48">
         <v>0</v>
       </c>
@@ -3514,24 +3715,27 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43037</v>
+        <v>42980</v>
       </c>
       <c r="B49" s="4">
-        <v>0.37708333333333338</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -3555,27 +3759,30 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43045</v>
+        <v>43023</v>
       </c>
       <c r="B50" s="4">
-        <v>0.27986111111111112</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3598,113 +3805,122 @@
       <c r="M50">
         <v>1</v>
       </c>
-      <c r="O50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>43074</v>
+        <v>43037</v>
       </c>
       <c r="B51" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.37708333333333338</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51">
         <v>3</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43045</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>103</v>
+      </c>
+      <c r="R52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>43074</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F51">
+      <c r="F53">
         <v>8</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>3</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>43087</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52">
-        <v>13</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>43109</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0.49722222222222223</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>272</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3724,34 +3940,37 @@
       <c r="M53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43117</v>
+        <v>43087</v>
       </c>
       <c r="B54" s="4">
-        <v>0.77986111111111101</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3763,33 +3982,33 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="R54" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43141</v>
+        <v>43109</v>
       </c>
       <c r="B55" s="4">
-        <v>0.31736111111111115</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>13</v>
+      <c r="D55" t="s">
+        <v>272</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3807,39 +4026,42 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>43147</v>
+        <v>43117</v>
       </c>
       <c r="B56" s="4">
-        <v>0.59375</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>204</v>
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3848,370 +4070,400 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>288</v>
+      </c>
+      <c r="R56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>43151</v>
+        <v>43141</v>
       </c>
       <c r="B57" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43147</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="R58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>43151</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F57">
+      <c r="F59">
         <v>12</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>2</v>
       </c>
-      <c r="I57">
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="R59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>43171</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B60" s="4">
         <v>0.74791666666666667</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>50</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>4</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O60" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="R60" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>43179</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B61" s="4">
         <v>0.38680555555555557</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>50</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
         <v>225</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59" s="1" t="s">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P61" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="R61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>43354</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B62" s="4">
         <v>0.47430555555555554</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F60">
+      <c r="F62">
         <v>5</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
         <v>2</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="P62" s="7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="R62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>43360</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B63" s="4">
         <v>0.48402777777777778</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F61">
+      <c r="F63">
         <v>9</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="R63" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>43428</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B64" s="4">
         <v>0.78402777777777777</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F62">
+      <c r="F64">
         <v>4</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>2</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>4</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="P64" s="7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>43462</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>43501</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>5</v>
+      <c r="R64" s="7" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43504</v>
+        <v>43462</v>
       </c>
       <c r="B65" s="4">
-        <v>0.6020833333333333</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4220,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4232,27 +4484,27 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>43507</v>
+        <v>43501</v>
       </c>
       <c r="B66" s="4">
-        <v>0.70694444444444438</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" t="s">
-        <v>13</v>
+      <c r="D66" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -4273,27 +4525,27 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>43508</v>
+        <v>43504</v>
       </c>
       <c r="B67" s="4">
-        <v>0.75694444444444453</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
+      <c r="D67" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4302,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4319,25 +4571,25 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>43544</v>
+        <v>43507</v>
       </c>
       <c r="B68" s="4">
-        <v>0.38055555555555554</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4355,43 +4607,37 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P68" t="s">
-        <v>283</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>43555</v>
+        <v>43508</v>
       </c>
       <c r="B69" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>2</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
       <c r="J69">
         <v>0</v>
       </c>
@@ -4402,27 +4648,27 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>43564</v>
+        <v>43544</v>
       </c>
       <c r="B70" s="4">
-        <v>0.7284722222222223</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -4434,36 +4680,39 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>7</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>292</v>
+        <v>1</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P70" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43564</v>
+        <v>43555</v>
       </c>
       <c r="B71" s="4">
-        <v>0.38472222222222219</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -4472,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4487,83 +4736,83 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="P71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>43589</v>
+        <v>43564</v>
       </c>
       <c r="B72" s="4">
-        <v>0.39861111111111108</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <v>2</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>43616</v>
+        <v>43564</v>
       </c>
       <c r="B73" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.38472222222222219</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4572,36 +4821,39 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>43616</v>
+        <v>43589</v>
       </c>
       <c r="B74" s="4">
-        <v>0.78611111111111109</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4613,33 +4865,33 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>43637</v>
+        <v>43616</v>
       </c>
       <c r="B75" s="4">
-        <v>0.28819444444444448</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4654,36 +4906,36 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>43669</v>
+        <v>43616</v>
       </c>
       <c r="B76" s="4">
-        <v>0.875</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="F76">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4695,33 +4947,33 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>43683</v>
+        <v>43637</v>
       </c>
       <c r="B77" s="4">
-        <v>0.29236111111111113</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4736,27 +4988,27 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>43705</v>
+        <v>43669</v>
       </c>
       <c r="B78" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.875</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4765,39 +5017,39 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>43716</v>
+        <v>43683</v>
       </c>
       <c r="B79" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F79">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -4806,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4818,36 +5070,36 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>43729</v>
+        <v>43705</v>
       </c>
       <c r="B80" s="4">
-        <v>0.40347222222222223</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80">
         <v>8</v>
       </c>
-      <c r="D80" t="s">
-        <v>120</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F80">
-        <v>18</v>
-      </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>4</v>
@@ -4856,83 +5108,83 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>43752</v>
+        <v>43716</v>
       </c>
       <c r="B81" s="4">
-        <v>0.47291666666666665</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>2</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>43770</v>
+        <v>43729</v>
       </c>
       <c r="B82" s="4">
-        <v>0.35555555555555557</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F82">
+        <v>18</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>5</v>
       </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>7</v>
-      </c>
       <c r="J82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4941,36 +5193,36 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>43808</v>
+        <v>43752</v>
       </c>
       <c r="B83" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4979,39 +5231,39 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>43815</v>
+        <v>43770</v>
       </c>
       <c r="B84" s="4">
-        <v>0.34375</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5023,42 +5275,39 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>43825</v>
+        <v>43808</v>
       </c>
       <c r="B85" s="4">
-        <v>0.59652777777777777</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5067,65 +5316,68 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>43826</v>
+        <v>43815</v>
       </c>
       <c r="B86" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.34375</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
         <v>2</v>
       </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>13</v>
+      <c r="N86" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>43827</v>
+        <v>43825</v>
       </c>
       <c r="B87" s="4">
-        <v>0.47638888888888892</v>
+        <v>0.59652777777777777</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5134,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5150,41 +5402,38 @@
       </c>
       <c r="M87">
         <v>0</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>43847</v>
+        <v>43826</v>
       </c>
       <c r="B88" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5193,30 +5442,24 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R88" t="s">
-        <v>314</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>43851</v>
+        <v>43827</v>
       </c>
       <c r="B89" s="4">
-        <v>0.44236111111111115</v>
+        <v>0.47638888888888892</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5228,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5240,33 +5483,30 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R89" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>43866</v>
+        <v>43847</v>
       </c>
       <c r="B90" s="4">
-        <v>0.35902777777777778</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5290,30 +5530,30 @@
         <v>0</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="R90" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>43868</v>
+        <v>43851</v>
       </c>
       <c r="B91" s="4">
-        <v>0.3125</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5334,31 +5574,34 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="R91" t="s">
-        <v>319</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>43878</v>
+        <v>43866</v>
       </c>
       <c r="B92" s="4">
-        <v>0.25763888888888892</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92">
         <v>3</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
       <c r="G92">
         <v>0</v>
       </c>
@@ -5366,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5380,31 +5623,34 @@
       <c r="M92">
         <v>0</v>
       </c>
+      <c r="N92" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="R92" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>43910</v>
+        <v>43868</v>
       </c>
       <c r="B93" s="4">
-        <v>0.35694444444444445</v>
+        <v>0.3125</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5422,33 +5668,27 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P93" t="s">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="R93" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>43910</v>
+        <v>43878</v>
       </c>
       <c r="B94" s="4">
-        <v>0.51388888888888895</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="C94" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -5460,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5472,13 +5712,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>2</v>
-      </c>
-      <c r="O94" t="s">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="R94" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -5521,13 +5758,10 @@
       <c r="M95">
         <v>4</v>
       </c>
-      <c r="R95" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>44264</v>
+        <v>43899</v>
       </c>
       <c r="B96" s="4">
         <v>0.53125</v>
@@ -5566,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="R96" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -5610,12 +5844,12 @@
         <v>7</v>
       </c>
       <c r="R97" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>44270</v>
+        <v>43905</v>
       </c>
       <c r="B98" s="4">
         <v>0.55902777777777779</v>
@@ -5654,10 +5888,10 @@
         <v>5</v>
       </c>
       <c r="R98" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43908</v>
       </c>
@@ -5700,37 +5934,37 @@
       <c r="O99" t="s">
         <v>102</v>
       </c>
-      <c r="R99" s="7" t="s">
-        <v>317</v>
+      <c r="R99" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>43921</v>
+        <v>43910</v>
       </c>
       <c r="B100" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="F100">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5742,36 +5976,42 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P100" t="s">
+        <v>283</v>
       </c>
       <c r="R100" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>44001</v>
+        <v>43910</v>
       </c>
       <c r="B101" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="C101" t="s">
         <v>50</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -5786,98 +6026,101 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O101" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="R101" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>44048</v>
+        <v>43921</v>
       </c>
       <c r="B102" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>114</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>14</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
         <v>7</v>
       </c>
-      <c r="D102" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102">
-        <v>4</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
       <c r="R102" t="s">
-        <v>54</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44102</v>
+        <v>44001</v>
       </c>
       <c r="B103" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D103" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>144</v>
       </c>
       <c r="R103" t="s">
         <v>54</v>
@@ -5885,43 +6128,43 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>44116</v>
+        <v>44048</v>
       </c>
       <c r="B104" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R104" t="s">
         <v>54</v>
@@ -5929,43 +6172,43 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>44123</v>
+        <v>44102</v>
       </c>
       <c r="B105" s="4">
-        <v>0.3666666666666667</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F105">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R105" t="s">
         <v>54</v>
@@ -5973,7 +6216,7 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>44125</v>
+        <v>44116</v>
       </c>
       <c r="B106" s="4">
         <v>0.33819444444444446</v>
@@ -5982,37 +6225,34 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>2</v>
-      </c>
-      <c r="O106" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="R106" t="s">
         <v>54</v>
@@ -6020,22 +6260,22 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>44129</v>
+        <v>44123</v>
       </c>
       <c r="B107" s="4">
-        <v>0.43958333333333338</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -6044,66 +6284,66 @@
         <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R107" t="s">
-        <v>309</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>44140</v>
+        <v>44125</v>
       </c>
       <c r="B108" s="4">
-        <v>0.34513888888888888</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
         <v>2</v>
       </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>17</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>65</v>
+      <c r="O108" t="s">
+        <v>96</v>
       </c>
       <c r="R108" t="s">
         <v>54</v>
@@ -6111,22 +6351,22 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>44141</v>
+        <v>44129</v>
       </c>
       <c r="B109" s="4">
-        <v>0.42222222222222222</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -6141,60 +6381,60 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>44148</v>
+        <v>44140</v>
       </c>
       <c r="B110" s="4">
-        <v>0.30902777777777779</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="R110" t="s">
         <v>54</v>
@@ -6202,25 +6442,25 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>44161</v>
+        <v>44141</v>
       </c>
       <c r="B111" s="4">
-        <v>0.9770833333333333</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="F111">
         <v>3</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -6232,13 +6472,16 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="R111" t="s">
         <v>54</v>
@@ -6246,22 +6489,22 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>44170</v>
+        <v>44148</v>
       </c>
       <c r="B112" s="4">
-        <v>0.48680555555555555</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6276,19 +6519,13 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
       <c r="M112">
-        <v>4</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P112" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="R112" t="s">
         <v>54</v>
@@ -6296,28 +6533,28 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>44171</v>
+        <v>44161</v>
       </c>
       <c r="B113" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -6326,39 +6563,33 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113">
-        <v>2</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P113" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="R113" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>44179</v>
+        <v>44170</v>
       </c>
       <c r="B114" s="4">
-        <v>0.34861111111111115</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6370,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -6382,30 +6613,33 @@
         <v>0</v>
       </c>
       <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P114" t="s">
+        <v>181</v>
+      </c>
+      <c r="R114" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="C115" t="s">
         <v>7</v>
       </c>
-      <c r="N114" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="R114" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>44188</v>
-      </c>
-      <c r="B115" s="4">
-        <v>0.46111111111111108</v>
-      </c>
-      <c r="C115" t="s">
-        <v>50</v>
-      </c>
       <c r="D115" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -6417,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6426,39 +6660,42 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115">
-        <v>1</v>
-      </c>
-      <c r="O115" t="s">
+        <v>2</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="s">
         <v>181</v>
       </c>
-      <c r="R115" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R115" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="B116" s="4">
-        <v>0.43055555555555558</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>182</v>
+      <c r="D116" t="s">
+        <v>173</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F116">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -6467,110 +6704,110 @@
         <v>1</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="R116" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R116" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>44198</v>
+        <v>44188</v>
       </c>
       <c r="B117" s="4">
-        <v>0.8208333333333333</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C117" t="s">
         <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
       <c r="M117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O117" t="s">
-        <v>96</v>
-      </c>
-      <c r="R117" t="s">
-        <v>54</v>
+        <v>181</v>
+      </c>
+      <c r="R117" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="B118" s="4">
-        <v>0.49583333333333335</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
-      <c r="D118" t="s">
-        <v>186</v>
+      <c r="D118" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>3</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R118" t="s">
         <v>54</v>
@@ -6578,28 +6815,28 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>44212</v>
+        <v>44198</v>
       </c>
       <c r="B119" s="4">
-        <v>1.5972222222222224E-2</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -6608,13 +6845,16 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>96</v>
       </c>
       <c r="R119" t="s">
         <v>54</v>
@@ -6622,90 +6862,90 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>44213</v>
+        <v>44199</v>
       </c>
       <c r="B120" s="4">
-        <v>0.4055555555555555</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
         <v>3</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
       <c r="N120" s="1" t="s">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="R120" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>44222</v>
+        <v>44212</v>
       </c>
       <c r="B121" s="4">
-        <v>0.6791666666666667</v>
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
         <v>3</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>4</v>
       </c>
       <c r="R121" t="s">
         <v>54</v>
@@ -6713,22 +6953,22 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>44224</v>
+        <v>44213</v>
       </c>
       <c r="B122" s="4">
-        <v>0.60347222222222219</v>
+        <v>0.4055555555555555</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6737,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6749,36 +6989,39 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="R122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>44242</v>
+        <v>44222</v>
       </c>
       <c r="B123" s="4">
-        <v>0.3840277777777778</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F123">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -6790,10 +7033,10 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R123" t="s">
         <v>54</v>
@@ -6801,69 +7044,66 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
+        <v>44224</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>197</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="R124" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>44242</v>
       </c>
-      <c r="B124" s="4">
-        <v>0.84166666666666667</v>
-      </c>
-      <c r="C124" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" t="s">
-        <v>201</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F124">
-        <v>8</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>284</v>
-      </c>
-      <c r="R124" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>44243</v>
-      </c>
       <c r="B125" s="4">
-        <v>0.62152777777777779</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6875,107 +7115,101 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>7</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="R125" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="R125" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>44247</v>
+        <v>44242</v>
       </c>
       <c r="B126" s="4">
-        <v>0.78263888888888899</v>
+        <v>0.84166666666666667</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F126">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
       <c r="M126">
-        <v>2</v>
-      </c>
-      <c r="P126" s="7" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="Q126" t="s">
         <v>284</v>
       </c>
       <c r="R126" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>44255</v>
+        <v>44243</v>
       </c>
       <c r="B127" s="4">
-        <v>0.3923611111111111</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -6983,52 +7217,55 @@
       <c r="M127">
         <v>7</v>
       </c>
-      <c r="O127" t="s">
-        <v>209</v>
-      </c>
-      <c r="R127" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N127" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R127" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>44263</v>
+        <v>44247</v>
       </c>
       <c r="B128" s="4">
-        <v>0.53055555555555556</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="F128">
+        <v>12</v>
+      </c>
+      <c r="G128">
         <v>2</v>
       </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P128" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="Q128" t="s">
         <v>284</v>
@@ -7039,70 +7276,70 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>44265</v>
+        <v>44255</v>
       </c>
       <c r="B129" s="4">
-        <v>0.78819444444444453</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" t="s">
+        <v>208</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
         <v>7</v>
       </c>
-      <c r="D129" t="s">
-        <v>266</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F129">
-        <v>13</v>
-      </c>
-      <c r="G129">
+      <c r="O129" t="s">
+        <v>209</v>
+      </c>
+      <c r="R129" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>264</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F130">
         <v>2</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>295</v>
-      </c>
-      <c r="R129" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>44268</v>
-      </c>
-      <c r="B130" s="4">
-        <v>0.64513888888888882</v>
-      </c>
-      <c r="C130" t="s">
-        <v>50</v>
-      </c>
-      <c r="D130" t="s">
-        <v>188</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F130">
-        <v>4</v>
-      </c>
       <c r="G130">
         <v>1</v>
       </c>
@@ -7110,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -7124,37 +7361,37 @@
       <c r="M130">
         <v>0</v>
       </c>
-      <c r="P130" s="7" t="s">
-        <v>294</v>
+      <c r="Q130" t="s">
+        <v>284</v>
       </c>
       <c r="R130" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>44271</v>
+        <v>44265</v>
       </c>
       <c r="B131" s="4">
-        <v>0.75</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -7169,45 +7406,45 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>1</v>
-      </c>
-      <c r="O131" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>295</v>
       </c>
       <c r="R131" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>44272</v>
+        <v>44268</v>
       </c>
       <c r="B132" s="4">
-        <v>0.34027777777777773</v>
+        <v>0.64513888888888882</v>
       </c>
       <c r="C132" t="s">
         <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -7218,8 +7455,8 @@
       <c r="M132">
         <v>0</v>
       </c>
-      <c r="O132" s="1" t="s">
-        <v>181</v>
+      <c r="P132" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="R132" t="s">
         <v>54</v>
@@ -7227,28 +7464,28 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>44275</v>
+        <v>44271</v>
       </c>
       <c r="B133" s="4">
-        <v>0.4236111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D133" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="F133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -7263,37 +7500,39 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="O133" s="1"/>
-      <c r="Q133" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>96</v>
+      </c>
+      <c r="R133" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>44275</v>
+        <v>44272</v>
       </c>
       <c r="B134" s="4">
-        <v>0.60486111111111118</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D134" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -7310,12 +7549,11 @@
       <c r="M134">
         <v>0</v>
       </c>
-      <c r="N134" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O134" s="1"/>
-      <c r="R134" s="7" t="s">
-        <v>312</v>
+      <c r="O134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R134" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -7323,22 +7561,22 @@
         <v>44275</v>
       </c>
       <c r="B135" s="4">
-        <v>0.60555555555555551</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7350,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -7358,40 +7596,35 @@
       <c r="M135">
         <v>0</v>
       </c>
-      <c r="N135" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P135" t="s">
-        <v>283</v>
-      </c>
-      <c r="R135" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O135" s="1"/>
+      <c r="Q135" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>44277</v>
+        <v>44275</v>
       </c>
       <c r="B136" s="4">
-        <v>0.2902777777777778</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="F136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -7408,34 +7641,35 @@
       <c r="M136">
         <v>0</v>
       </c>
-      <c r="Q136" t="s">
-        <v>284</v>
-      </c>
-      <c r="R136" t="s">
-        <v>308</v>
+      <c r="N136" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O136" s="1"/>
+      <c r="R136" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>44280</v>
+        <v>44275</v>
       </c>
       <c r="B137" s="4">
-        <v>0.57361111111111118</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7447,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -7455,31 +7689,34 @@
       <c r="M137">
         <v>0</v>
       </c>
-      <c r="Q137" t="s">
-        <v>284</v>
+      <c r="N137" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P137" t="s">
+        <v>283</v>
       </c>
       <c r="R137" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>44282</v>
+        <v>44277</v>
       </c>
       <c r="B138" s="4">
-        <v>0.38263888888888892</v>
+        <v>0.2902777777777778</v>
       </c>
       <c r="C138" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7488,13 +7725,13 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138">
         <v>0</v>
@@ -7502,40 +7739,40 @@
       <c r="M138">
         <v>0</v>
       </c>
-      <c r="O138" t="s">
-        <v>234</v>
+      <c r="Q138" t="s">
+        <v>284</v>
       </c>
       <c r="R138" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>44282</v>
+        <v>44280</v>
       </c>
       <c r="B139" s="4">
-        <v>0.40833333333333338</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -7547,30 +7784,30 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>1</v>
-      </c>
-      <c r="O139" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>284</v>
       </c>
       <c r="R139" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B140" s="4">
-        <v>0.63472222222222219</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D140" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -7582,13 +7819,13 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -7596,25 +7833,28 @@
       <c r="M140">
         <v>0</v>
       </c>
+      <c r="O140" t="s">
+        <v>234</v>
+      </c>
       <c r="R140" t="s">
-        <v>306</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B141" s="4">
-        <v>0.83263888888888893</v>
+        <v>0.40833333333333338</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D141" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -7623,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -7638,23 +7878,302 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="R141" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>230</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="R142" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>237</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>8</v>
+      </c>
+      <c r="O143" t="s">
+        <v>96</v>
+      </c>
+      <c r="R143" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>318</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F144">
+        <v>11</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>319</v>
+      </c>
+      <c r="R144" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>323</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>324</v>
+      </c>
+      <c r="R145" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C146" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>345</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>284</v>
+      </c>
+      <c r="R147" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:O111">
-    <sortCondition ref="A2:A111"/>
+  <sortState ref="A2:O113">
+    <sortCondition ref="A2:A113"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D36" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
+    <hyperlink ref="D38" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F35583-53FF-4C6F-BE09-7962C4083ED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F451A-84EE-448D-9CAC-911C94627442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="3060" windowWidth="21600" windowHeight="10920" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="30810" yWindow="4275" windowWidth="21600" windowHeight="10920" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="370">
   <si>
     <t>Date</t>
   </si>
@@ -1105,6 +1105,66 @@
   </si>
   <si>
     <t>10108185583192579</t>
+  </si>
+  <si>
+    <t>DENSE HAZE (FINE PARTICULATES) 🌲🔥</t>
+  </si>
+  <si>
+    <t>(Semi) DENSE FOG</t>
+  </si>
+  <si>
+    <t>10108385066072289</t>
+  </si>
+  <si>
+    <t>10108434732709949</t>
+  </si>
+  <si>
+    <t>Even less faith in #2021. I know bout 47% of y’all out here lying at the grocery store right now.</t>
+  </si>
+  <si>
+    <t>10108365296525619</t>
+  </si>
+  <si>
+    <t>It's not the heat, it's the humanity. 🦍🙈🙉🙊</t>
+  </si>
+  <si>
+    <t>10105453206143089</t>
+  </si>
+  <si>
+    <t>⚾️+🐂 = 🥩 #HitBullWinSteak #durham #bullcity #minorleaguebaseball #ballpark #friends #spring2021</t>
+  </si>
+  <si>
+    <t>10108300941299009</t>
+  </si>
+  <si>
+    <t>:.:.:::.:.::...:.:.:...::.</t>
+  </si>
+  <si>
+    <t>10101932020816709</t>
+  </si>
+  <si>
+    <t>10108346707103969</t>
+  </si>
+  <si>
+    <t>☁️</t>
+  </si>
+  <si>
+    <t>Pyre traveling the sea; dressed for Decoration Day 🌊🌸🛶 #memorialday #valhalla #roadtrip #america #build #wander #interstate95 #remember #foundobjects #tomjoad</t>
+  </si>
+  <si>
+    <t>10108319560935109</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>outside the Athens Drive Library: 🌸🦉🎏 #saturdayerrands #bookscheckemout #doubleexposure #whatnext #weekend</t>
+  </si>
+  <si>
+    <t>10108200511396339</t>
+  </si>
+  <si>
+    <t>Flower</t>
   </si>
 </sst>
 </file>
@@ -1174,9 +1234,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1187,6 +1244,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,14 +1262,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFEBAA39-DAE0-40A9-99DE-D65118ED309E}" name="Table1" displayName="Table1" ref="A1:R147" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:R147" xr:uid="{B574F180-548F-4C6B-A90C-FF0B13CF06EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFEBAA39-DAE0-40A9-99DE-D65118ED309E}" name="Table1" displayName="Table1" ref="A1:R156" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:R156" xr:uid="{B574F180-548F-4C6B-A90C-FF0B13CF06EF}"/>
+  <sortState ref="A2:R156">
+    <sortCondition ref="B1:B156"/>
+  </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{F85B136B-F245-4D3A-9DD7-C39B9D8834D2}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EA3401E2-43AF-41B2-8746-0E1B9B3492F4}" name="Time" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F85B136B-F245-4D3A-9DD7-C39B9D8834D2}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EA3401E2-43AF-41B2-8746-0E1B9B3492F4}" name="Time" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{BD3B8F80-B0EA-458A-847B-5918B05824BE}" name="Privacy"/>
     <tableColumn id="4" xr3:uid="{3B2E4394-EF52-4E9E-A7E6-96199EFB81FD}" name="Text"/>
-    <tableColumn id="5" xr3:uid="{6A35E3C4-F095-494E-A706-322517F0762C}" name="Post" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6A35E3C4-F095-494E-A706-322517F0762C}" name="Post" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{EF1C0789-5C76-48C9-9620-F5804B204F4B}" name="Like"/>
     <tableColumn id="7" xr3:uid="{707B99CA-6613-4E33-B173-A11910C35FFE}" name="Love"/>
     <tableColumn id="8" xr3:uid="{CF270319-C256-42C2-858E-B68D97384571}" name="Wow"/>
@@ -1218,7 +1281,7 @@
     <tableColumn id="11" xr3:uid="{64A7950D-4BBC-4891-B811-2667000AC9B5}" name="Care"/>
     <tableColumn id="12" xr3:uid="{A6725323-B221-4FA3-9D11-45DB5FD1CD14}" name="Angry"/>
     <tableColumn id="13" xr3:uid="{F0B3EB47-65EF-4A9F-98F0-D99A2E707C78}" name="Comments"/>
-    <tableColumn id="14" xr3:uid="{8786AAD7-9BB1-4E54-8AB1-5A816ED8CC72}" name="Reference" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{8786AAD7-9BB1-4E54-8AB1-5A816ED8CC72}" name="Reference" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{4A5982C0-2107-451D-AF2C-B632BF010E59}" name="Secretary"/>
     <tableColumn id="16" xr3:uid="{DCFFA355-8C03-4AD0-9889-D98AFA8CC551}" name="Coworker"/>
     <tableColumn id="17" xr3:uid="{26A5A390-17D7-4AD0-A043-11D1EC6E7FC0}" name="Location"/>
@@ -1525,11 +1588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F1A74-1D03-420B-8D98-8D36276ED15C}">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N136" sqref="N136"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,25 +1675,25 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>39798</v>
+        <v>44212</v>
       </c>
       <c r="B2" s="4">
-        <v>0.30972222222222223</v>
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1648,27 +1711,27 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>40576</v>
+        <v>43878</v>
       </c>
       <c r="B3" s="4">
-        <v>0.37222222222222223</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1680,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1692,30 +1755,30 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>341</v>
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>40611</v>
+        <v>43908</v>
       </c>
       <c r="B4" s="4">
-        <v>0.81388888888888899</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1736,39 +1799,42 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>102</v>
       </c>
       <c r="R4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>40626</v>
+        <v>43808</v>
       </c>
       <c r="B5" s="4">
-        <v>0.45277777777777778</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1780,36 +1846,30 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="O5" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" t="s">
-        <v>302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>40649</v>
+        <v>43045</v>
       </c>
       <c r="B6" s="4">
-        <v>0.67291666666666661</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1827,36 +1887,39 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
       </c>
       <c r="R6" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>40649</v>
+        <v>43637</v>
       </c>
       <c r="B7" s="4">
-        <v>0.70138888888888884</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1871,30 +1934,27 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="R7" t="s">
-        <v>302</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>40650</v>
+        <v>44277</v>
       </c>
       <c r="B8" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.2902777777777778</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1915,33 +1975,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>284</v>
       </c>
       <c r="R8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>40720</v>
+        <v>43683</v>
       </c>
       <c r="B9" s="4">
-        <v>0.63611111111111118</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1959,39 +2022,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>309</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>40755</v>
+        <v>43151</v>
       </c>
       <c r="B10" s="4">
-        <v>0.41111111111111115</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2003,121 +2063,118 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R10" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>40883</v>
+        <v>44102</v>
       </c>
       <c r="B11" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>284</v>
+        <v>6</v>
       </c>
       <c r="R11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>40897</v>
+        <v>41955</v>
       </c>
       <c r="B12" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>309</v>
+      <c r="R12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>40988</v>
+        <v>42644</v>
       </c>
       <c r="B13" s="4">
-        <v>0.37291666666666662</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>221</v>
+      <c r="D13" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2138,33 +2195,33 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="R13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>41184</v>
+        <v>41912</v>
       </c>
       <c r="B14" s="4">
-        <v>0.35972222222222222</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2185,36 +2242,33 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>41285</v>
+        <v>44286</v>
       </c>
       <c r="B15" s="4">
-        <v>0.74722222222222223</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>320</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2226,36 +2280,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="R15" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>319</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>41286</v>
+        <v>44148</v>
       </c>
       <c r="B16" s="4">
-        <v>0.3527777777777778</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2264,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2284,22 +2341,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>41492</v>
+        <v>39798</v>
       </c>
       <c r="B17" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.30972222222222223</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2320,10 +2377,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
         <v>54</v>
@@ -2331,22 +2385,22 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>41654</v>
+        <v>43868</v>
       </c>
       <c r="B18" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.3125</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2367,77 +2421,77 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>41742</v>
+        <v>42352</v>
       </c>
       <c r="B19" s="4">
-        <v>0.89861111111111114</v>
+        <v>0.31319444444444444</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>311</v>
+      <c r="R19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>41860</v>
+        <v>43141</v>
       </c>
       <c r="B20" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2455,37 +2509,37 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>41912</v>
+        <v>44376</v>
       </c>
       <c r="B21" s="4">
-        <v>0.30763888888888891</v>
+        <v>0.31875000000000003</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
         <v>0</v>
       </c>
@@ -2499,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" t="s">
         <v>54</v>
@@ -2507,10 +2561,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>41940</v>
+        <v>42313</v>
       </c>
       <c r="B22" s="4">
-        <v>0.34166666666666662</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -2519,10 +2573,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2543,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s">
         <v>54</v>
@@ -2551,63 +2605,63 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>41955</v>
+        <v>44048</v>
       </c>
       <c r="B23" s="4">
-        <v>0.2986111111111111</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>3</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
       </c>
       <c r="R23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>41967</v>
+        <v>42424</v>
       </c>
       <c r="B24" s="4">
-        <v>0.3972222222222222</v>
+        <v>0.32361111111111113</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -2616,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2631,33 +2685,33 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="R24" t="s">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>42051</v>
+        <v>43074</v>
       </c>
       <c r="B25" s="4">
-        <v>0.86944444444444446</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2675,18 +2729,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R25" t="s">
-        <v>306</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>42313</v>
+        <v>43887</v>
       </c>
       <c r="B26" s="4">
-        <v>0.3215277777777778</v>
+        <v>0.33194444444444443</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -2695,14 +2749,14 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -2719,30 +2773,27 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="R26" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>42313</v>
+        <v>40883</v>
       </c>
       <c r="B27" s="4">
-        <v>0.8930555555555556</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2764,6 +2815,9 @@
       </c>
       <c r="M27">
         <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>284</v>
       </c>
       <c r="R27" t="s">
         <v>54</v>
@@ -2771,22 +2825,22 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>42337</v>
+        <v>41492</v>
       </c>
       <c r="B28" s="4">
-        <v>0.52222222222222225</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2807,7 +2861,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>284</v>
       </c>
       <c r="R28" t="s">
         <v>54</v>
@@ -2859,25 +2916,25 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>42346</v>
+        <v>42756</v>
       </c>
       <c r="B30" s="4">
-        <v>0.74097222222222225</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2895,30 +2952,30 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="R30" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>42352</v>
+        <v>40897</v>
       </c>
       <c r="B31" s="4">
-        <v>0.31319444444444444</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2941,28 +2998,28 @@
       <c r="M31">
         <v>5</v>
       </c>
-      <c r="R31" t="s">
-        <v>54</v>
+      <c r="R31" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>42379</v>
+        <v>41654</v>
       </c>
       <c r="B32" s="4">
-        <v>0.4680555555555555</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2983,137 +3040,133 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>307</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>42420</v>
+        <v>44001</v>
       </c>
       <c r="B33" s="4">
-        <v>0.43124999999999997</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>144</v>
+      </c>
+      <c r="R33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43847</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33">
+      <c r="D34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44116</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>284</v>
-      </c>
-      <c r="R33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>42420</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.98819444444444438</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34"/>
-      <c r="P34" t="s">
-        <v>299</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>42424</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.32361111111111113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3125,33 +3178,33 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>3</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>42549</v>
+        <v>44125</v>
       </c>
       <c r="B36" s="4">
-        <v>0.48541666666666666</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3163,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3171,34 +3224,34 @@
       <c r="M36">
         <v>2</v>
       </c>
-      <c r="Q36" t="s">
-        <v>335</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>96</v>
+      </c>
+      <c r="R36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>42549</v>
+        <v>44272</v>
       </c>
       <c r="B37" s="4">
-        <v>0.61875000000000002</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>333</v>
+        <v>214</v>
       </c>
       <c r="F37">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3216,34 +3269,34 @@
         <v>0</v>
       </c>
       <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>41940</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38">
         <v>4</v>
       </c>
-      <c r="Q37" t="s">
-        <v>334</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>42644</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
       <c r="G38">
         <v>0</v>
       </c>
@@ -3263,33 +3316,30 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>3</v>
-      </c>
-      <c r="O38" t="s">
-        <v>106</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>327</v>
+        <v>4</v>
+      </c>
+      <c r="R38" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>42648</v>
+        <v>43815</v>
       </c>
       <c r="B39" s="4">
-        <v>0.38611111111111113</v>
+        <v>0.34375</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3298,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3307,36 +3357,33 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>4</v>
-      </c>
-      <c r="P39" t="s">
-        <v>106</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>42737</v>
+        <v>44140</v>
       </c>
       <c r="B40" s="4">
-        <v>0.46249999999999997</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3345,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3357,30 +3404,33 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>2</v>
-      </c>
-      <c r="R40" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>42738</v>
+        <v>44179</v>
       </c>
       <c r="B41" s="4">
-        <v>0.375</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3389,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3401,30 +3451,33 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>4</v>
-      </c>
-      <c r="R41" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>42750</v>
+        <v>41286</v>
       </c>
       <c r="B42" s="4">
-        <v>0.41944444444444445</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3447,28 +3500,28 @@
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="R42" s="7" t="s">
-        <v>304</v>
+      <c r="R42" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>42756</v>
+        <v>43770</v>
       </c>
       <c r="B43" s="4">
-        <v>0.33611111111111108</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F43">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3477,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3489,77 +3542,77 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>2</v>
-      </c>
-      <c r="R43" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P44" t="s">
+        <v>283</v>
+      </c>
+      <c r="R44" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>42756</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44">
-        <v>7</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>285</v>
-      </c>
-      <c r="R44" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>42775</v>
+        <v>43866</v>
       </c>
       <c r="B45" s="4">
-        <v>0.38263888888888892</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3582,28 +3635,31 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="R45" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N45" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>42830</v>
+        <v>41184</v>
       </c>
       <c r="B46" s="4">
-        <v>0.48055555555555557</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>279</v>
+        <v>161</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3626,131 +3682,131 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="Q46" t="s">
-        <v>286</v>
+      <c r="O46" t="s">
+        <v>106</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>42850</v>
+        <v>43902</v>
       </c>
       <c r="B47" s="4">
-        <v>0.37083333333333335</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="F47">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>7</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>10</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>329</v>
+      <c r="R47" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>42850</v>
+        <v>44123</v>
       </c>
       <c r="B48" s="4">
-        <v>0.61736111111111114</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
         <v>3</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="R48" s="7" t="s">
-        <v>339</v>
+      <c r="R48" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>42980</v>
+        <v>43826</v>
       </c>
       <c r="B49" s="4">
-        <v>0.44791666666666669</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3759,33 +3815,30 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>2</v>
-      </c>
-      <c r="R49" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43023</v>
+        <v>42850</v>
       </c>
       <c r="B50" s="4">
-        <v>0.46180555555555558</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3803,30 +3856,30 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="R50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>43037</v>
+        <v>40576</v>
       </c>
       <c r="B51" s="4">
-        <v>0.37708333333333338</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3847,33 +3900,33 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="R51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>43045</v>
+        <v>40988</v>
       </c>
       <c r="B52" s="4">
-        <v>0.27986111111111112</v>
+        <v>0.37291666666666662</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3891,36 +3944,36 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="O52" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="R52" t="s">
-        <v>54</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43074</v>
+        <v>42738</v>
       </c>
       <c r="B53" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F53">
         <v>8</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3938,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="s">
         <v>54</v>
@@ -3946,31 +3999,31 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43087</v>
+        <v>43037</v>
       </c>
       <c r="B54" s="4">
-        <v>0.41319444444444442</v>
+        <v>0.37708333333333338</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="F54">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3982,33 +4035,33 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>340</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43109</v>
+        <v>43544</v>
       </c>
       <c r="B55" s="4">
-        <v>0.49722222222222223</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4026,36 +4079,39 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>5</v>
-      </c>
-      <c r="R55" t="s">
-        <v>307</v>
+        <v>1</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P55" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>43117</v>
+        <v>42775</v>
       </c>
       <c r="B56" s="4">
-        <v>0.77986111111111101</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="F56">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4070,54 +4126,54 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>288</v>
-      </c>
-      <c r="R56" t="s">
-        <v>313</v>
+        <v>0</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>43141</v>
+        <v>44282</v>
       </c>
       <c r="B57" s="4">
-        <v>0.31736111111111115</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>234</v>
       </c>
       <c r="R57" t="s">
         <v>54</v>
@@ -4125,22 +4181,22 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>43147</v>
+        <v>44242</v>
       </c>
       <c r="B58" s="4">
-        <v>0.59375</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>204</v>
+      <c r="D58" t="s">
+        <v>199</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4152,51 +4208,51 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R58" t="s">
-        <v>342</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>43151</v>
+        <v>43564</v>
       </c>
       <c r="B59" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.38472222222222219</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4205,30 +4261,30 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>10</v>
-      </c>
-      <c r="R59" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>43171</v>
+        <v>42648</v>
       </c>
       <c r="B60" s="4">
-        <v>0.74791666666666667</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4237,25 +4293,25 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>4</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>106</v>
       </c>
-      <c r="R60" t="s">
-        <v>313</v>
+      <c r="R60" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4308,168 +4364,162 @@
         <v>303</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>43354</v>
+        <v>44255</v>
       </c>
       <c r="B62" s="4">
-        <v>0.47430555555555554</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>208</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>289</v>
+        <v>7</v>
+      </c>
+      <c r="O62" t="s">
+        <v>209</v>
       </c>
       <c r="R62" t="s">
-        <v>317</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>43360</v>
+        <v>43705</v>
       </c>
       <c r="B63" s="4">
-        <v>0.48402777777777778</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63">
         <v>8</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F63">
-        <v>9</v>
-      </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>41967</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="R64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>43589</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="R63" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>43428</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>4</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="R64" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>43462</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -4484,74 +4534,74 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>43501</v>
+        <v>43729</v>
       </c>
       <c r="B66" s="4">
-        <v>0.4777777777777778</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>249</v>
+      <c r="D66" t="s">
+        <v>120</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="F66">
+        <v>18</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44213</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67">
         <v>3</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>43504</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0.6020833333333333</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F67">
-        <v>4</v>
-      </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4566,68 +4616,75 @@
         <v>0</v>
       </c>
       <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43271</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="G68">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>43507</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
         <v>2</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R68" s="7"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>43508</v>
+        <v>44282</v>
       </c>
       <c r="B69" s="4">
-        <v>0.75694444444444453</v>
+        <v>0.40833333333333338</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4636,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4648,30 +4705,36 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>102</v>
+      </c>
+      <c r="R69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>43544</v>
+        <v>40755</v>
       </c>
       <c r="B70" s="4">
-        <v>0.38055555555555554</v>
+        <v>0.41111111111111115</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4689,33 +4752,30 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P70" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43555</v>
+        <v>43087</v>
       </c>
       <c r="B71" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4724,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4736,162 +4796,177 @@
         <v>0</v>
       </c>
       <c r="M71">
+        <v>6</v>
+      </c>
+      <c r="R71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>42750</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>44141</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>43564</v>
-      </c>
-      <c r="B72" s="4">
-        <v>0.7284722222222223</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>240</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F72">
-        <v>6</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
         <v>2</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
+      <c r="N74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s">
+        <v>181</v>
+      </c>
+      <c r="R74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C75" t="s">
         <v>7</v>
       </c>
-      <c r="P72" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>43564</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0.38472222222222219</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" t="s">
-        <v>238</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F73">
+      <c r="D75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F75">
         <v>4</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="P73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>43589</v>
-      </c>
-      <c r="B74" s="4">
-        <v>0.39861111111111108</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>43616</v>
-      </c>
-      <c r="B75" s="4">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4908,72 +4983,79 @@
       <c r="M75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O75" s="1"/>
+      <c r="Q75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>43616</v>
+        <v>44290</v>
       </c>
       <c r="B76" s="4">
-        <v>0.78611111111111109</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>159</v>
+        <v>50</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
         <v>5</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>43637</v>
+        <v>41804</v>
       </c>
       <c r="B77" s="4">
-        <v>0.28819444444444448</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>360</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4988,71 +5070,77 @@
         <v>0</v>
       </c>
       <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44196</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>43669</v>
-      </c>
-      <c r="B78" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F78">
-        <v>13</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>43683</v>
+        <v>42420</v>
       </c>
       <c r="B79" s="4">
-        <v>0.29236111111111113</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -5070,27 +5158,33 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>284</v>
+      </c>
+      <c r="R79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>43705</v>
+        <v>44129</v>
       </c>
       <c r="B80" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5099,48 +5193,51 @@
         <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
         <v>2</v>
       </c>
-      <c r="M80">
-        <v>10</v>
+      <c r="R80" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>43716</v>
+        <v>43851</v>
       </c>
       <c r="B81" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F81">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5154,25 +5251,31 @@
       <c r="M81">
         <v>2</v>
       </c>
+      <c r="N81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R81" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>43729</v>
+        <v>42980</v>
       </c>
       <c r="B82" s="4">
-        <v>0.40347222222222223</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="F82">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -5181,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5193,77 +5296,83 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R82" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>43752</v>
+        <v>44399</v>
       </c>
       <c r="B83" s="4">
-        <v>0.47291666666666665</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>43770</v>
+        <v>40626</v>
       </c>
       <c r="B84" s="4">
-        <v>0.35555555555555557</v>
+        <v>0.45277777777777778</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5275,30 +5384,36 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>106</v>
+      </c>
+      <c r="R84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>43808</v>
+        <v>44188</v>
       </c>
       <c r="B85" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5317,29 +5432,35 @@
       </c>
       <c r="M85">
         <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>181</v>
+      </c>
+      <c r="R85" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>43815</v>
+        <v>43023</v>
       </c>
       <c r="B86" s="4">
-        <v>0.34375</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5357,42 +5478,42 @@
         <v>0</v>
       </c>
       <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="R86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>42737</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87">
         <v>2</v>
       </c>
-      <c r="N86" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>43825</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.59652777777777777</v>
-      </c>
-      <c r="C87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" t="s">
-        <v>274</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5401,39 +5522,42 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R87" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>43826</v>
+        <v>44289</v>
       </c>
       <c r="B88" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5442,27 +5566,33 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>324</v>
+      </c>
+      <c r="R88" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>43827</v>
+        <v>42379</v>
       </c>
       <c r="B89" s="4">
-        <v>0.47638888888888892</v>
+        <v>0.4680555555555555</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5471,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5483,27 +5613,30 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>252</v>
+        <v>1</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>284</v>
+      </c>
+      <c r="R89" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>43847</v>
+        <v>43752</v>
       </c>
       <c r="B90" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -5515,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -5524,42 +5657,36 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>0</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R90" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>43851</v>
+        <v>44367</v>
       </c>
       <c r="B91" s="4">
-        <v>0.44236111111111115</v>
+        <v>0.47361111111111115</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -5574,33 +5701,31 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R91" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="R91" s="7"/>
+    </row>
+    <row r="92" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>43866</v>
+        <v>43354</v>
       </c>
       <c r="B92" s="4">
-        <v>0.35902777777777778</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
-      <c r="D92" t="s">
-        <v>246</v>
+      <c r="D92" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5621,33 +5746,33 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>248</v>
+        <v>2</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="R92" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>43868</v>
+        <v>43827</v>
       </c>
       <c r="B93" s="4">
-        <v>0.3125</v>
+        <v>0.47638888888888892</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5656,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5668,31 +5793,31 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="R93" t="s">
-        <v>317</v>
+        <v>0</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>43878</v>
+        <v>43501</v>
       </c>
       <c r="B94" s="4">
-        <v>0.25763888888888892</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F94">
         <v>3</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
       <c r="G94">
         <v>0</v>
       </c>
@@ -5700,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5712,33 +5837,30 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="R94" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>43887</v>
+        <v>42830</v>
       </c>
       <c r="B95" s="4">
-        <v>0.33194444444444443</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5756,27 +5878,33 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>286</v>
+      </c>
+      <c r="R95" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>43899</v>
+        <v>43360</v>
       </c>
       <c r="B96" s="4">
-        <v>0.53125</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
-      <c r="D96" t="s">
-        <v>270</v>
+      <c r="D96" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5797,39 +5925,39 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R96" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>43902</v>
+        <v>42549</v>
       </c>
       <c r="B97" s="4">
-        <v>0.3659722222222222</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>337</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>29</v>
+        <v>338</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5841,30 +5969,33 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>7</v>
-      </c>
-      <c r="R97" t="s">
-        <v>316</v>
+        <v>2</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>335</v>
+      </c>
+      <c r="R97" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>43905</v>
+        <v>44170</v>
       </c>
       <c r="B98" s="4">
-        <v>0.55902777777777779</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5873,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -5885,30 +6016,36 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P98" t="s">
+        <v>181</v>
       </c>
       <c r="R98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>43908</v>
+        <v>42756</v>
       </c>
       <c r="B99" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5917,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5931,34 +6068,34 @@
       <c r="M99">
         <v>1</v>
       </c>
-      <c r="O99" t="s">
-        <v>102</v>
-      </c>
-      <c r="R99" t="s">
-        <v>307</v>
+      <c r="Q99" t="s">
+        <v>285</v>
+      </c>
+      <c r="R99" s="7" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>43910</v>
+        <v>44199</v>
       </c>
       <c r="B100" s="4">
-        <v>0.35694444444444445</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5973,16 +6110,13 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P100" t="s">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="R100" t="s">
         <v>54</v>
@@ -5990,22 +6124,22 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>43910</v>
+        <v>43109</v>
       </c>
       <c r="B101" s="4">
-        <v>0.51388888888888895</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -6026,42 +6160,39 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>2</v>
-      </c>
-      <c r="O101" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="R101" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>43921</v>
+        <v>41860</v>
       </c>
       <c r="B102" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F102">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -6073,36 +6204,36 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R102" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>44001</v>
+        <v>43910</v>
       </c>
       <c r="B103" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="C103" t="s">
         <v>50</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -6117,34 +6248,34 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O103" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="R103" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>44048</v>
+        <v>42337</v>
       </c>
       <c r="B104" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104">
         <v>3</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F104">
-        <v>4</v>
-      </c>
       <c r="G104">
         <v>0</v>
       </c>
@@ -6158,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104">
         <v>3</v>
@@ -6172,22 +6303,22 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>44102</v>
+        <v>44263</v>
       </c>
       <c r="B105" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -6196,51 +6327,54 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>284</v>
       </c>
       <c r="R105" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>44116</v>
+        <v>43899</v>
       </c>
       <c r="B106" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.53125</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6252,51 +6386,51 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R106" t="s">
-        <v>54</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>44123</v>
+        <v>43905</v>
       </c>
       <c r="B107" s="4">
-        <v>0.3666666666666667</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="F107">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R107" t="s">
         <v>54</v>
@@ -6304,25 +6438,25 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>44125</v>
+        <v>44280</v>
       </c>
       <c r="B108" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F108">
         <v>3</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
       <c r="G108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6334,36 +6468,36 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
       <c r="M108">
-        <v>2</v>
-      </c>
-      <c r="O108" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>284</v>
       </c>
       <c r="R108" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>44129</v>
+        <v>44361</v>
       </c>
       <c r="B109" s="4">
-        <v>0.43958333333333338</v>
+        <v>0.59097222222222223</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>87</v>
+        <v>363</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>88</v>
+        <v>362</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6372,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -6381,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -6389,40 +6523,43 @@
       <c r="M109">
         <v>2</v>
       </c>
-      <c r="R109" t="s">
-        <v>308</v>
+      <c r="N109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R109" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>44140</v>
+        <v>43147</v>
       </c>
       <c r="B110" s="4">
-        <v>0.34513888888888888</v>
+        <v>0.59375</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
-      <c r="D110" t="s">
-        <v>94</v>
+      <c r="D110" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -6431,33 +6568,30 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>17</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>54</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>44141</v>
+        <v>43825</v>
       </c>
       <c r="B111" s="4">
-        <v>0.42222222222222222</v>
+        <v>0.59652777777777777</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6466,10 +6600,10 @@
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -6479,32 +6613,26 @@
       </c>
       <c r="M111">
         <v>0</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R111" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>44148</v>
+        <v>43504</v>
       </c>
       <c r="B112" s="4">
-        <v>0.30902777777777779</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" t="s">
-        <v>127</v>
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6513,95 +6641,92 @@
         <v>0</v>
       </c>
       <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
         <v>2</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>3</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="R112" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>44161</v>
+        <v>44224</v>
       </c>
       <c r="B113" s="4">
-        <v>0.9770833333333333</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>44170</v>
+        <v>44275</v>
       </c>
       <c r="B114" s="4">
-        <v>0.48680555555555555</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6613,36 +6738,34 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P114" t="s">
-        <v>181</v>
-      </c>
-      <c r="R114" t="s">
-        <v>54</v>
+        <v>217</v>
+      </c>
+      <c r="O114" s="1"/>
+      <c r="R114" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>44171</v>
+        <v>44275</v>
       </c>
       <c r="B115" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -6657,39 +6780,39 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="P115" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="R115" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>44179</v>
+        <v>42850</v>
       </c>
       <c r="B116" s="4">
-        <v>0.34861111111111115</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -6698,13 +6821,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -6713,42 +6836,39 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>7</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>44188</v>
+        <v>42549</v>
       </c>
       <c r="B117" s="4">
-        <v>0.46111111111111108</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="C117" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6760,48 +6880,48 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>1</v>
-      </c>
-      <c r="O117" t="s">
-        <v>181</v>
+        <v>4</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>334</v>
       </c>
       <c r="R117" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>44196</v>
+        <v>43462</v>
       </c>
       <c r="B118" s="4">
-        <v>0.43055555555555558</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>182</v>
+      <c r="D118" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="F118">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>2</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -6809,225 +6929,216 @@
       <c r="M118">
         <v>0</v>
       </c>
-      <c r="R118" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>44198</v>
+        <v>44243</v>
       </c>
       <c r="B119" s="4">
-        <v>0.8208333333333333</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="C119" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
       <c r="M119">
-        <v>2</v>
-      </c>
-      <c r="O119" t="s">
-        <v>96</v>
-      </c>
-      <c r="R119" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R119" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>44199</v>
+        <v>43921</v>
       </c>
       <c r="B120" s="4">
-        <v>0.49583333333333335</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>14</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
         <v>7</v>
       </c>
-      <c r="D120" t="s">
-        <v>186</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120">
-        <v>3</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="R120" t="s">
-        <v>54</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>44212</v>
+        <v>44283</v>
       </c>
       <c r="B121" s="4">
-        <v>1.5972222222222224E-2</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
+        <v>230</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="R121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>40720</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="R122" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="C123" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" t="s">
         <v>188</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>3</v>
-      </c>
-      <c r="R121" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>44213</v>
-      </c>
-      <c r="B122" s="4">
-        <v>0.4055555555555555</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>192</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>1</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R122" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>44222</v>
-      </c>
-      <c r="B123" s="4">
-        <v>0.6791666666666667</v>
-      </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" t="s">
-        <v>195</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -7036,7 +7147,10 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P123" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="R123" t="s">
         <v>54</v>
@@ -7044,31 +7158,31 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>44224</v>
+        <v>44296</v>
       </c>
       <c r="B124" s="4">
-        <v>0.60347222222222219</v>
+        <v>0.65</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
+        <v>367</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -7082,28 +7196,28 @@
       <c r="M124">
         <v>0</v>
       </c>
-      <c r="R124" t="s">
-        <v>313</v>
+      <c r="R124" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>44242</v>
+        <v>40650</v>
       </c>
       <c r="B125" s="4">
-        <v>0.3840277777777778</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="F125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -7121,80 +7235,74 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R125" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>44242</v>
+        <v>43555</v>
       </c>
       <c r="B126" s="4">
-        <v>0.84166666666666667</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="C127" t="s">
         <v>8</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>284</v>
-      </c>
-      <c r="R126" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
-        <v>44243</v>
-      </c>
-      <c r="B127" s="4">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="C127" t="s">
-        <v>7</v>
-      </c>
       <c r="D127" t="s">
-        <v>126</v>
+        <v>364</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -7206,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -7215,107 +7323,98 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>7</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>205</v>
+        <v>0</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>288</v>
       </c>
       <c r="R127" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>44247</v>
+        <v>40649</v>
       </c>
       <c r="B128" s="4">
-        <v>0.78263888888888899</v>
+        <v>0.67291666666666661</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="F128">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
       <c r="M128">
-        <v>2</v>
-      </c>
-      <c r="P128" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>284</v>
+        <v>5</v>
       </c>
       <c r="R128" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>44255</v>
+        <v>44222</v>
       </c>
       <c r="B129" s="4">
-        <v>0.3923611111111111</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>7</v>
-      </c>
-      <c r="O129" t="s">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="R129" t="s">
         <v>54</v>
@@ -7323,28 +7422,28 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>44263</v>
+        <v>44339</v>
       </c>
       <c r="B130" s="4">
-        <v>0.53055555555555556</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -7362,171 +7461,159 @@
         <v>0</v>
       </c>
       <c r="Q130" t="s">
-        <v>284</v>
-      </c>
-      <c r="R130" t="s">
+        <v>366</v>
+      </c>
+      <c r="R130" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>44265</v>
+        <v>40649</v>
       </c>
       <c r="B131" s="4">
-        <v>0.78819444444444453</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>6</v>
+      </c>
+      <c r="R131" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>43507</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
         <v>7</v>
       </c>
-      <c r="D131" t="s">
-        <v>266</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F131">
-        <v>13</v>
-      </c>
-      <c r="G131">
+    </row>
+    <row r="133" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>43564</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>240</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F133">
+        <v>6</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
         <v>2</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>295</v>
-      </c>
-      <c r="R131" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
-        <v>44268</v>
-      </c>
-      <c r="B132" s="4">
-        <v>0.64513888888888882</v>
-      </c>
-      <c r="C132" t="s">
-        <v>50</v>
-      </c>
-      <c r="D132" t="s">
-        <v>188</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F132">
-        <v>4</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
-      <c r="J132">
-        <v>1</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>0</v>
-      </c>
-      <c r="P132" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="R132" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>44271</v>
-      </c>
-      <c r="B133" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133" t="s">
-        <v>188</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
       <c r="K133">
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>1</v>
-      </c>
-      <c r="O133" t="s">
-        <v>96</v>
-      </c>
-      <c r="R133" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="P133" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>44272</v>
+        <v>42346</v>
       </c>
       <c r="B134" s="4">
-        <v>0.34027777777777773</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="C134" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7547,10 +7634,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="R134" t="s">
         <v>54</v>
@@ -7558,121 +7642,119 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>44275</v>
+        <v>41285</v>
       </c>
       <c r="B135" s="4">
-        <v>0.4236111111111111</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>261</v>
+        <v>58</v>
       </c>
       <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="R135" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="C136" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
         <v>4</v>
       </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="O135" s="1"/>
-      <c r="Q135" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
-        <v>44275</v>
-      </c>
-      <c r="B136" s="4">
-        <v>0.60486111111111118</v>
-      </c>
-      <c r="C136" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" t="s">
-        <v>220</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O136" s="1"/>
-      <c r="R136" s="7" t="s">
-        <v>311</v>
+      <c r="O136" t="s">
+        <v>106</v>
+      </c>
+      <c r="R136" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>44275</v>
+        <v>44271</v>
       </c>
       <c r="B137" s="4">
-        <v>0.60555555555555551</v>
+        <v>0.75</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D137" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -7681,42 +7763,39 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P137" t="s">
-        <v>283</v>
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>96</v>
       </c>
       <c r="R137" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>44277</v>
+        <v>43508</v>
       </c>
       <c r="B138" s="4">
-        <v>0.2902777777777778</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="F138">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7725,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -7737,133 +7816,130 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>284</v>
-      </c>
-      <c r="R138" t="s">
-        <v>307</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>44280</v>
+        <v>43117</v>
       </c>
       <c r="B139" s="4">
-        <v>0.57361111111111118</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F139">
+        <v>19</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>5</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>288</v>
+      </c>
+      <c r="R139" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="C140" t="s">
         <v>7</v>
       </c>
-      <c r="D139" t="s">
-        <v>262</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
-      </c>
-      <c r="G139">
+      <c r="D140" t="s">
+        <v>206</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F140">
+        <v>12</v>
+      </c>
+      <c r="G140">
         <v>2</v>
       </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="Q139" t="s">
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="P140" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q140" t="s">
         <v>284</v>
       </c>
-      <c r="R139" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
-        <v>44282</v>
-      </c>
-      <c r="B140" s="4">
-        <v>0.38263888888888892</v>
-      </c>
-      <c r="C140" t="s">
-        <v>50</v>
-      </c>
-      <c r="D140" t="s">
-        <v>233</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>1</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-      <c r="O140" t="s">
-        <v>234</v>
-      </c>
       <c r="R140" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>44282</v>
+        <v>43428</v>
       </c>
       <c r="B141" s="4">
-        <v>0.40833333333333338</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C141" t="s">
-        <v>50</v>
-      </c>
-      <c r="D141" t="s">
-        <v>232</v>
+        <v>7</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -7878,39 +7954,39 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>1</v>
-      </c>
-      <c r="O141" t="s">
-        <v>102</v>
-      </c>
-      <c r="R141" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="P141" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="R141" s="7" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>44283</v>
+        <v>43616</v>
       </c>
       <c r="B142" s="4">
-        <v>0.63472222222222219</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -7926,82 +8002,73 @@
       </c>
       <c r="M142">
         <v>0</v>
-      </c>
-      <c r="R142" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>44283</v>
+        <v>43716</v>
       </c>
       <c r="B143" s="4">
-        <v>0.83263888888888893</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="F143">
+        <v>27</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
         <v>2</v>
       </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>8</v>
-      </c>
-      <c r="O143" t="s">
-        <v>96</v>
-      </c>
-      <c r="R143" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>44286</v>
+        <v>43616</v>
       </c>
       <c r="B144" s="4">
-        <v>0.30763888888888891</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F144">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -8010,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144">
         <v>0</v>
@@ -8018,28 +8085,22 @@
       <c r="M144">
         <v>0</v>
       </c>
-      <c r="Q144" t="s">
-        <v>319</v>
-      </c>
-      <c r="R144" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>44289</v>
+        <v>44293</v>
       </c>
       <c r="B145" s="4">
-        <v>0.46458333333333335</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -8060,107 +8121,513 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q145" t="s">
-        <v>324</v>
-      </c>
-      <c r="R145" t="s">
+        <v>284</v>
+      </c>
+      <c r="R145" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>266</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F146">
+        <v>13</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>295</v>
+      </c>
+      <c r="R146" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
-        <v>44290</v>
-      </c>
-      <c r="B146" s="4">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="C146" t="s">
-        <v>50</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>5</v>
-      </c>
-      <c r="O146" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>44293</v>
+        <v>40611</v>
       </c>
       <c r="B147" s="4">
-        <v>0.78749999999999998</v>
+        <v>0.81388888888888899</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>345</v>
+        <v>108</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="R147" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>44198</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="C148" t="s">
+        <v>50</v>
+      </c>
+      <c r="D148" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
         <v>2</v>
       </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147">
-        <v>1</v>
-      </c>
-      <c r="Q147" t="s">
+      <c r="O148" t="s">
+        <v>96</v>
+      </c>
+      <c r="R148" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>237</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>8</v>
+      </c>
+      <c r="O149" t="s">
+        <v>96</v>
+      </c>
+      <c r="R149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>201</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F150">
+        <v>8</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="Q150" t="s">
         <v>284</v>
       </c>
-      <c r="R147" s="7" t="s">
-        <v>347</v>
+      <c r="R150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>42051</v>
+      </c>
+      <c r="B151" s="4">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="R151" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>112</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F152">
+        <v>13</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>42313</v>
+      </c>
+      <c r="B153" s="4">
+        <v>0.8930555555555556</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>63</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F153">
+        <v>13</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="R153" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>41742</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>256</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F154">
+        <v>5</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>4</v>
+      </c>
+      <c r="R154" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>44161</v>
+      </c>
+      <c r="B155" s="4">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>129</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="R155" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>42420</v>
+      </c>
+      <c r="B156" s="4">
+        <v>0.98819444444444438</v>
+      </c>
+      <c r="C156" t="s">
+        <v>50</v>
+      </c>
+      <c r="D156" t="s">
+        <v>258</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156"/>
+      <c r="P156" t="s">
+        <v>299</v>
+      </c>
+      <c r="R156" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -8168,7 +8635,7 @@
     <sortCondition ref="A2:A113"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/DENSE FOG.xlsx
+++ b/DENSE FOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\DENSE FOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F451A-84EE-448D-9CAC-911C94627442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE255D2D-E7EF-4AC4-B466-65142017E962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="4275" windowWidth="21600" windowHeight="10920" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
+    <workbookView xWindow="30810" yWindow="5490" windowWidth="21600" windowHeight="10920" xr2:uid="{6C7622AB-0C5D-4C7C-A13D-3BD86EFEC89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1265,7 +1265,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFEBAA39-DAE0-40A9-99DE-D65118ED309E}" name="Table1" displayName="Table1" ref="A1:R156" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:R156" xr:uid="{B574F180-548F-4C6B-A90C-FF0B13CF06EF}"/>
   <sortState ref="A2:R156">
-    <sortCondition ref="B1:B156"/>
+    <sortCondition ref="A1:A156"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{F85B136B-F245-4D3A-9DD7-C39B9D8834D2}" name="Date" dataDxfId="3"/>
@@ -1675,25 +1675,25 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44212</v>
+        <v>39798</v>
       </c>
       <c r="B2" s="4">
-        <v>1.5972222222222224E-2</v>
+        <v>0.30972222222222223</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1711,27 +1711,27 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43878</v>
+        <v>40576</v>
       </c>
       <c r="B3" s="4">
-        <v>0.25763888888888892</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1755,30 +1755,30 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43908</v>
+        <v>40611</v>
       </c>
       <c r="B4" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.81388888888888899</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1799,42 +1799,39 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>43808</v>
+        <v>40626</v>
       </c>
       <c r="B5" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.45277777777777778</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1846,30 +1843,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43045</v>
+        <v>40649</v>
       </c>
       <c r="B6" s="4">
-        <v>0.27986111111111112</v>
+        <v>0.67291666666666661</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1887,39 +1890,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>43637</v>
+        <v>40649</v>
       </c>
       <c r="B7" s="4">
-        <v>0.28819444444444448</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1934,27 +1934,30 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44277</v>
+        <v>40650</v>
       </c>
       <c r="B8" s="4">
-        <v>0.2902777777777778</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1975,36 +1978,33 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>284</v>
+        <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>43683</v>
+        <v>40720</v>
       </c>
       <c r="B9" s="4">
-        <v>0.29236111111111113</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2022,36 +2022,39 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43151</v>
+        <v>40755</v>
       </c>
       <c r="B10" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.41111111111111115</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2063,74 +2066,77 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44102</v>
+        <v>40883</v>
       </c>
       <c r="B11" s="4">
-        <v>0.29375000000000001</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>284</v>
       </c>
       <c r="R11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>41955</v>
+        <v>40897</v>
       </c>
       <c r="B12" s="4">
-        <v>0.2986111111111111</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2151,168 +2157,168 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="R12" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>42644</v>
+        <v>40988</v>
       </c>
       <c r="B13" s="4">
-        <v>0.30208333333333331</v>
+        <v>0.37291666666666662</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>104</v>
+      <c r="D13" t="s">
+        <v>221</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>41184</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>41285</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>41912</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.30763888888888891</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R15" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44286</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.30763888888888891</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>319</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44148</v>
+        <v>41286</v>
       </c>
       <c r="B16" s="4">
-        <v>0.30902777777777779</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2321,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2341,22 +2347,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>39798</v>
+        <v>41492</v>
       </c>
       <c r="B17" s="4">
-        <v>0.30972222222222223</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2377,7 +2383,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>284</v>
       </c>
       <c r="R17" t="s">
         <v>54</v>
@@ -2385,22 +2394,22 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43868</v>
+        <v>41654</v>
       </c>
       <c r="B18" s="4">
-        <v>0.3125</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2421,30 +2430,30 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>42352</v>
+        <v>41742</v>
       </c>
       <c r="B19" s="4">
-        <v>0.31319444444444444</v>
+        <v>0.89861111111111114</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2465,33 +2474,33 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="R19" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43141</v>
+        <v>41804</v>
       </c>
       <c r="B20" s="4">
-        <v>0.31736111111111115</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>360</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2511,60 +2520,60 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
-        <v>54</v>
+      <c r="R20" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44376</v>
+        <v>41860</v>
       </c>
       <c r="B21" s="4">
-        <v>0.31875000000000003</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>42313</v>
+        <v>41912</v>
       </c>
       <c r="B22" s="4">
-        <v>0.3215277777777778</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -2573,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2597,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R22" t="s">
         <v>54</v>
@@ -2605,19 +2614,19 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44048</v>
+        <v>41940</v>
       </c>
       <c r="B23" s="4">
-        <v>0.32222222222222224</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -2635,33 +2644,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>42424</v>
+        <v>41955</v>
       </c>
       <c r="B24" s="4">
-        <v>0.32361111111111113</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -2670,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2685,33 +2694,33 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>326</v>
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43074</v>
+        <v>41967</v>
       </c>
       <c r="B25" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
       <c r="G25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2729,33 +2738,33 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43887</v>
+        <v>42051</v>
       </c>
       <c r="B26" s="4">
-        <v>0.33194444444444443</v>
+        <v>0.86944444444444446</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2773,27 +2782,30 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>40883</v>
+        <v>42313</v>
       </c>
       <c r="B27" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2814,10 +2826,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>284</v>
+        <v>3</v>
       </c>
       <c r="R27" t="s">
         <v>54</v>
@@ -2825,22 +2834,22 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>41492</v>
+        <v>42313</v>
       </c>
       <c r="B28" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.8930555555555556</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2862,9 +2871,6 @@
       </c>
       <c r="M28">
         <v>1</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>284</v>
       </c>
       <c r="R28" t="s">
         <v>54</v>
@@ -2872,22 +2878,22 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>42340</v>
+        <v>42337</v>
       </c>
       <c r="B29" s="4">
-        <v>0.33402777777777781</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2908,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29" t="s">
         <v>54</v>
@@ -2916,25 +2922,25 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>42756</v>
+        <v>42340</v>
       </c>
       <c r="B30" s="4">
-        <v>0.33611111111111108</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30">
-        <v>14</v>
-      </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2952,30 +2958,30 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="R30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>40897</v>
+        <v>42346</v>
       </c>
       <c r="B31" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2996,30 +3002,30 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>5</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>309</v>
+        <v>4</v>
+      </c>
+      <c r="R31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>41654</v>
+        <v>42352</v>
       </c>
       <c r="B32" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.31319444444444444</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3040,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R32" t="s">
         <v>54</v>
@@ -3048,28 +3054,28 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44001</v>
+        <v>42379</v>
       </c>
       <c r="B33" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.4680555555555555</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3086,31 +3092,31 @@
       <c r="M33">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
-        <v>144</v>
+      <c r="Q33" t="s">
+        <v>284</v>
       </c>
       <c r="R33" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>43847</v>
+        <v>42420</v>
       </c>
       <c r="B34" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3131,174 +3137,175 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>191</v>
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>284</v>
       </c>
       <c r="R34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44116</v>
+        <v>42420</v>
       </c>
       <c r="B35" s="4">
-        <v>0.33819444444444446</v>
+        <v>0.98819444444444438</v>
       </c>
       <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35"/>
+      <c r="P35" t="s">
+        <v>299</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>42424</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>42549</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35">
-        <v>6</v>
-      </c>
-      <c r="G35">
+      <c r="D37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>2</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="R35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>44125</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.33819444444444446</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="Q37" t="s">
+        <v>335</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>42549</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-      <c r="O36" t="s">
-        <v>96</v>
-      </c>
-      <c r="R36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>44272</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>41940</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.34166666666666662</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3318,28 +3325,31 @@
       <c r="M38">
         <v>4</v>
       </c>
-      <c r="R38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>334</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>43815</v>
+        <v>42644</v>
       </c>
       <c r="B39" s="4">
-        <v>0.34375</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3360,33 +3370,36 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>106</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44140</v>
+        <v>42648</v>
       </c>
       <c r="B40" s="4">
-        <v>0.34513888888888888</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3401,48 +3414,48 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>17</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R40" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="P40" t="s">
+        <v>106</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44179</v>
+        <v>42737</v>
       </c>
       <c r="B41" s="4">
-        <v>0.34861111111111115</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3451,33 +3464,30 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>41286</v>
+        <v>42738</v>
       </c>
       <c r="B42" s="4">
-        <v>0.3527777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3498,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R42" t="s">
         <v>54</v>
@@ -3506,31 +3516,31 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43770</v>
+        <v>42750</v>
       </c>
       <c r="B43" s="4">
-        <v>0.35555555555555557</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3543,26 +3553,29 @@
       </c>
       <c r="M43">
         <v>0</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43910</v>
+        <v>42756</v>
       </c>
       <c r="B44" s="4">
-        <v>0.35694444444444445</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3583,36 +3596,30 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P44" t="s">
-        <v>283</v>
-      </c>
-      <c r="R44" t="s">
+        <v>2</v>
+      </c>
+      <c r="R44" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>43866</v>
+        <v>42756</v>
       </c>
       <c r="B45" s="4">
-        <v>0.35902777777777778</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3621,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3633,33 +3640,33 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R45" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>285</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>41184</v>
+        <v>42775</v>
       </c>
       <c r="B46" s="4">
-        <v>0.35972222222222222</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3682,28 +3689,25 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="O46" t="s">
-        <v>106</v>
-      </c>
       <c r="R46" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>43902</v>
+        <v>42830</v>
       </c>
       <c r="B47" s="4">
-        <v>0.3659722222222222</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>278</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -3712,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3727,86 +3731,89 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>7</v>
-      </c>
-      <c r="R47" t="s">
-        <v>316</v>
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>286</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44123</v>
+        <v>42850</v>
       </c>
       <c r="B48" s="4">
-        <v>0.3666666666666667</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="D48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48">
-        <v>17</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>3</v>
-      </c>
-      <c r="R48" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43826</v>
+        <v>42850</v>
       </c>
       <c r="B49" s="4">
-        <v>0.36874999999999997</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>3</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49">
-        <v>6</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3815,30 +3822,33 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>42850</v>
+        <v>42980</v>
       </c>
       <c r="B50" s="4">
-        <v>0.37083333333333335</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="F50">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3856,33 +3866,33 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>10</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>40576</v>
+        <v>43023</v>
       </c>
       <c r="B51" s="4">
-        <v>0.37222222222222223</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3900,30 +3910,30 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>7</v>
-      </c>
-      <c r="R51" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>40988</v>
+        <v>43037</v>
       </c>
       <c r="B52" s="4">
-        <v>0.37291666666666662</v>
+        <v>0.37708333333333338</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3944,36 +3954,33 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>5</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>42738</v>
+        <v>43045</v>
       </c>
       <c r="B53" s="4">
-        <v>0.375</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3991,7 +3998,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>103</v>
       </c>
       <c r="R53" t="s">
         <v>54</v>
@@ -3999,26 +4009,26 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43037</v>
+        <v>43074</v>
       </c>
       <c r="B54" s="4">
-        <v>0.37708333333333338</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
         <v>3</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
         <v>0</v>
       </c>
@@ -4035,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R54" t="s">
         <v>54</v>
@@ -4043,31 +4053,31 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43544</v>
+        <v>43087</v>
       </c>
       <c r="B55" s="4">
-        <v>0.38055555555555554</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4079,33 +4089,30 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P55" t="s">
-        <v>283</v>
+        <v>6</v>
+      </c>
+      <c r="R55" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>42775</v>
+        <v>43109</v>
       </c>
       <c r="B56" s="4">
-        <v>0.38263888888888892</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4126,80 +4133,80 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="R56" s="7" t="s">
-        <v>305</v>
+        <v>5</v>
+      </c>
+      <c r="R56" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44282</v>
+        <v>43117</v>
       </c>
       <c r="B57" s="4">
-        <v>0.38263888888888892</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>234</v>
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>288</v>
       </c>
       <c r="R57" t="s">
-        <v>54</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44242</v>
+        <v>43141</v>
       </c>
       <c r="B58" s="4">
-        <v>0.3840277777777778</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58" t="s">
-        <v>199</v>
+      <c r="D58" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4214,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R58" t="s">
         <v>54</v>
@@ -4225,34 +4232,34 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>43564</v>
+        <v>43147</v>
       </c>
       <c r="B59" s="4">
-        <v>0.38472222222222219</v>
+        <v>0.59375</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>238</v>
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4263,37 +4270,37 @@
       <c r="M59">
         <v>1</v>
       </c>
-      <c r="P59" t="s">
-        <v>96</v>
+      <c r="R59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>42648</v>
+        <v>43151</v>
       </c>
       <c r="B60" s="4">
-        <v>0.38611111111111113</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>147</v>
+        <v>7</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4302,39 +4309,36 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="P60" t="s">
-        <v>106</v>
-      </c>
-      <c r="R60" s="7" t="s">
-        <v>317</v>
+        <v>10</v>
+      </c>
+      <c r="R60" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>43179</v>
+        <v>43171</v>
       </c>
       <c r="B61" s="4">
-        <v>0.38680555555555557</v>
+        <v>0.74791666666666667</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4343,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4352,36 +4356,33 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P61" t="s">
-        <v>283</v>
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>106</v>
       </c>
       <c r="R61" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44255</v>
+        <v>43179</v>
       </c>
       <c r="B62" s="4">
-        <v>0.3923611111111111</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -4390,86 +4391,90 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>7</v>
-      </c>
-      <c r="O62" t="s">
-        <v>209</v>
+        <v>0</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P62" t="s">
+        <v>283</v>
       </c>
       <c r="R62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>43705</v>
+        <v>43271</v>
       </c>
       <c r="B63" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.40763888888888888</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D63" t="s">
-        <v>116</v>
+      <c r="D63" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>117</v>
+        <v>357</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
         <v>2</v>
       </c>
-      <c r="M63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R63" s="7"/>
+    </row>
+    <row r="64" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>41967</v>
+        <v>43354</v>
       </c>
       <c r="B64" s="4">
-        <v>0.3972222222222222</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
-        <v>244</v>
+      <c r="D64" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4492,166 +4497,172 @@
       <c r="M64">
         <v>2</v>
       </c>
+      <c r="P64" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="R64" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43589</v>
+        <v>43360</v>
       </c>
       <c r="B65" s="4">
-        <v>0.39861111111111108</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="D65" t="s">
-        <v>12</v>
+      <c r="D65" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>4</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
+      <c r="R65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>43428</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>2</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>43729</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0.40347222222222223</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F66">
-        <v>18</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
       <c r="I66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
         <v>4</v>
       </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
+      <c r="P66" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44213</v>
+        <v>43462</v>
       </c>
       <c r="B67" s="4">
-        <v>0.4055555555555555</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="D67" t="s">
-        <v>192</v>
+      <c r="D67" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43501</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F68">
         <v>3</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R67" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>43271</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F68">
-        <v>20</v>
-      </c>
       <c r="G68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4663,28 +4674,27 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2</v>
-      </c>
-      <c r="R68" s="7"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44282</v>
+        <v>43504</v>
       </c>
       <c r="B69" s="4">
-        <v>0.40833333333333338</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" t="s">
-        <v>232</v>
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4693,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4705,33 +4715,27 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>102</v>
-      </c>
-      <c r="R69" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>40755</v>
+        <v>43507</v>
       </c>
       <c r="B70" s="4">
-        <v>0.41111111111111115</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4752,40 +4756,37 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>5</v>
-      </c>
-      <c r="R70" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43087</v>
+        <v>43508</v>
       </c>
       <c r="B71" s="4">
-        <v>0.41319444444444442</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>2</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
       <c r="J71">
         <v>0</v>
       </c>
@@ -4796,33 +4797,30 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>6</v>
-      </c>
-      <c r="R71" t="s">
-        <v>340</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>42750</v>
+        <v>43544</v>
       </c>
       <c r="B72" s="4">
-        <v>0.41944444444444445</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4840,182 +4838,172 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="R72" s="7" t="s">
-        <v>304</v>
+        <v>1</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44141</v>
+        <v>43555</v>
       </c>
       <c r="B73" s="4">
-        <v>0.42222222222222222</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>3</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44171</v>
+        <v>43564</v>
       </c>
       <c r="B74" s="4">
-        <v>0.42291666666666666</v>
+        <v>0.38472222222222219</v>
       </c>
       <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>43564</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
         <v>7</v>
       </c>
-      <c r="D74" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
+      <c r="P75" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>43589</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P74" t="s">
-        <v>181</v>
-      </c>
-      <c r="R74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>44275</v>
-      </c>
-      <c r="B75" s="4">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>260</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="O75" s="1"/>
-      <c r="Q75" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>44290</v>
-      </c>
-      <c r="B76" s="4">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="C76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76">
         <v>0</v>
       </c>
@@ -5026,27 +5014,24 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>5</v>
-      </c>
-      <c r="O76" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>41804</v>
+        <v>43616</v>
       </c>
       <c r="B77" s="4">
-        <v>0.42708333333333331</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>360</v>
+        <v>157</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>361</v>
+        <v>158</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -5055,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5071,120 +5056,108 @@
       </c>
       <c r="M77">
         <v>0</v>
-      </c>
-      <c r="R77" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44196</v>
+        <v>43616</v>
       </c>
       <c r="B78" s="4">
-        <v>0.43055555555555558</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>182</v>
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>159</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
         <v>0</v>
-      </c>
-      <c r="R78" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>42420</v>
+        <v>43637</v>
       </c>
       <c r="B79" s="4">
-        <v>0.43124999999999997</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
         <v>2</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>284</v>
-      </c>
-      <c r="R79" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44129</v>
+        <v>43669</v>
       </c>
       <c r="B80" s="4">
-        <v>0.43958333333333338</v>
+        <v>0.875</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5193,45 +5166,42 @@
         <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="R80" t="s">
-        <v>308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>43851</v>
+        <v>43683</v>
       </c>
       <c r="B81" s="4">
-        <v>0.44236111111111115</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -5249,121 +5219,109 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R81" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>42980</v>
+        <v>43705</v>
       </c>
       <c r="B82" s="4">
-        <v>0.44791666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82">
         <v>8</v>
       </c>
-      <c r="D82" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="R82" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44399</v>
+        <v>43716</v>
       </c>
       <c r="B83" s="4">
-        <v>0.44791666666666669</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>350</v>
+        <v>118</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>353</v>
+        <v>119</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
         <v>2</v>
-      </c>
-      <c r="I83">
-        <v>5</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="R83" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>40626</v>
+        <v>43729</v>
       </c>
       <c r="B84" s="4">
-        <v>0.45277777777777778</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -5372,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5384,33 +5342,27 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="O84" t="s">
-        <v>106</v>
-      </c>
-      <c r="R84" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44188</v>
+        <v>43752</v>
       </c>
       <c r="B85" s="4">
-        <v>0.46111111111111108</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5419,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -5428,89 +5380,80 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="O85" t="s">
-        <v>181</v>
-      </c>
-      <c r="R85" s="7" t="s">
-        <v>314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>43023</v>
+        <v>43770</v>
       </c>
       <c r="B86" s="4">
-        <v>0.46180555555555558</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>7</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>43808</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="C87" t="s">
         <v>8</v>
       </c>
-      <c r="D86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="R86" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>42737</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.46249999999999997</v>
-      </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
       <c r="D87" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5522,89 +5465,83 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="R87" s="7" t="s">
-        <v>328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44289</v>
+        <v>43815</v>
       </c>
       <c r="B88" s="4">
-        <v>0.46458333333333335</v>
+        <v>0.34375</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
         <v>2</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>324</v>
-      </c>
-      <c r="R88" t="s">
-        <v>307</v>
+      <c r="N88" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>42379</v>
+        <v>43825</v>
       </c>
       <c r="B89" s="4">
-        <v>0.4680555555555555</v>
+        <v>0.59652777777777777</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5613,83 +5550,77 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>284</v>
-      </c>
-      <c r="R89" t="s">
-        <v>307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>43752</v>
+        <v>43826</v>
       </c>
       <c r="B90" s="4">
-        <v>0.47291666666666665</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>44367</v>
+        <v>43827</v>
       </c>
       <c r="B91" s="4">
-        <v>0.47361111111111115</v>
+        <v>0.47638888888888892</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>250</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>355</v>
+        <v>251</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5704,28 +5635,27 @@
         <v>0</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="R91" s="7"/>
-    </row>
-    <row r="92" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>43354</v>
+        <v>43847</v>
       </c>
       <c r="B92" s="4">
-        <v>0.47430555555555554</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>124</v>
+      <c r="D92" t="s">
+        <v>126</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5746,30 +5676,30 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>2</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>289</v>
+        <v>0</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="R92" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>43827</v>
+        <v>43851</v>
       </c>
       <c r="B93" s="4">
-        <v>0.47638888888888892</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5781,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5793,27 +5723,30 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>252</v>
+        <v>31</v>
+      </c>
+      <c r="R93" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>43501</v>
+        <v>43866</v>
       </c>
       <c r="B94" s="4">
-        <v>0.4777777777777778</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>249</v>
+      <c r="D94" t="s">
+        <v>246</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -5837,27 +5770,33 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R94" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>42830</v>
+        <v>43868</v>
       </c>
       <c r="B95" s="4">
-        <v>0.48055555555555557</v>
+        <v>0.3125</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5878,33 +5817,30 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>286</v>
-      </c>
-      <c r="R95" s="7" t="s">
-        <v>307</v>
+        <v>1</v>
+      </c>
+      <c r="R95" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>43360</v>
+        <v>43878</v>
       </c>
       <c r="B96" s="4">
-        <v>0.48402777777777778</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>169</v>
+      <c r="D96" t="s">
+        <v>3</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5913,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5925,174 +5861,159 @@
         <v>0</v>
       </c>
       <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
         <v>4</v>
-      </c>
-      <c r="R96" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>42549</v>
-      </c>
-      <c r="B97" s="4">
-        <v>0.48541666666666666</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>337</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F97">
-        <v>11</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>2</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>335</v>
-      </c>
-      <c r="R97" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>44170</v>
+        <v>43899</v>
       </c>
       <c r="B98" s="4">
-        <v>0.48680555555555555</v>
+        <v>0.53125</v>
       </c>
       <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>270</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="R98" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>43902</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
         <v>7</v>
       </c>
-      <c r="D98" t="s">
-        <v>132</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P98" t="s">
-        <v>181</v>
-      </c>
-      <c r="R98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>42756</v>
-      </c>
-      <c r="B99" s="4">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>42</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F99">
-        <v>7</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>285</v>
-      </c>
-      <c r="R99" s="7" t="s">
-        <v>330</v>
+      <c r="R99" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>44199</v>
+        <v>43905</v>
       </c>
       <c r="B100" s="4">
-        <v>0.49583333333333335</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -6104,19 +6025,16 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>3</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="R100" t="s">
         <v>54</v>
@@ -6124,22 +6042,22 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>43109</v>
+        <v>43908</v>
       </c>
       <c r="B101" s="4">
-        <v>0.49722222222222223</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D101" t="s">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -6160,7 +6078,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>102</v>
       </c>
       <c r="R101" t="s">
         <v>307</v>
@@ -6168,25 +6089,25 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>41860</v>
+        <v>43910</v>
       </c>
       <c r="B102" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -6204,10 +6125,16 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P102" t="s">
+        <v>283</v>
       </c>
       <c r="R102" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -6259,31 +6186,31 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>42337</v>
+        <v>43921</v>
       </c>
       <c r="B104" s="4">
-        <v>0.52222222222222225</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6295,36 +6222,36 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R104" t="s">
-        <v>54</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>44263</v>
+        <v>44001</v>
       </c>
       <c r="B105" s="4">
-        <v>0.53055555555555556</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D105" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -6339,33 +6266,33 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>284</v>
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>144</v>
       </c>
       <c r="R105" t="s">
-        <v>307</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>43899</v>
+        <v>44048</v>
       </c>
       <c r="B106" s="4">
-        <v>0.53125</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -6380,57 +6307,57 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R106" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>43905</v>
+        <v>44102</v>
       </c>
       <c r="B107" s="4">
-        <v>0.55902777777777779</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="F107">
         <v>6</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
       <c r="M107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R107" t="s">
         <v>54</v>
@@ -6438,22 +6365,22 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>44280</v>
+        <v>44116</v>
       </c>
       <c r="B108" s="4">
-        <v>0.57361111111111118</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -6462,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -6474,83 +6401,77 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>307</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>44361</v>
+        <v>44123</v>
       </c>
       <c r="B109" s="4">
-        <v>0.59097222222222223</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109">
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="R109" s="7" t="s">
-        <v>304</v>
+        <v>3</v>
+      </c>
+      <c r="R109" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>43147</v>
+        <v>44125</v>
       </c>
       <c r="B110" s="4">
-        <v>0.59375</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>204</v>
+      <c r="D110" t="s">
+        <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6559,36 +6480,39 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>96</v>
       </c>
       <c r="R110" t="s">
-        <v>342</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>43825</v>
+        <v>44129</v>
       </c>
       <c r="B111" s="4">
-        <v>0.59652777777777777</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -6600,48 +6524,51 @@
         <v>1</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R111" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>43504</v>
+        <v>44140</v>
       </c>
       <c r="B112" s="4">
-        <v>0.6020833333333333</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>94</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6653,27 +6580,33 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R112" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>44224</v>
+        <v>44141</v>
       </c>
       <c r="B113" s="4">
-        <v>0.60347222222222219</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6682,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6696,43 +6629,46 @@
       <c r="M113">
         <v>0</v>
       </c>
+      <c r="N113" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="R113" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>44275</v>
+        <v>44148</v>
       </c>
       <c r="B114" s="4">
-        <v>0.60486111111111118</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -6740,38 +6676,34 @@
       <c r="M114">
         <v>0</v>
       </c>
-      <c r="N114" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O114" s="1"/>
-      <c r="R114" s="7" t="s">
-        <v>311</v>
+      <c r="R114" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>44275</v>
+        <v>44161</v>
       </c>
       <c r="B115" s="4">
-        <v>0.60555555555555551</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -6786,33 +6718,27 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P115" t="s">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="R115" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>42850</v>
+        <v>44170</v>
       </c>
       <c r="B116" s="4">
-        <v>0.61736111111111114</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -6821,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6836,33 +6762,39 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="R116" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P116" t="s">
+        <v>181</v>
+      </c>
+      <c r="R116" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>42549</v>
+        <v>44171</v>
       </c>
       <c r="B117" s="4">
-        <v>0.61875000000000002</v>
+        <v>0.42291666666666666</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="F117">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -6877,36 +6809,39 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117">
-        <v>4</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>334</v>
-      </c>
-      <c r="R117" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P117" t="s">
+        <v>181</v>
+      </c>
+      <c r="R117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>43462</v>
+        <v>44179</v>
       </c>
       <c r="B118" s="4">
-        <v>0.61944444444444446</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>253</v>
+      <c r="D118" t="s">
+        <v>173</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6915,10 +6850,10 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -6927,24 +6862,30 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R118" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>44243</v>
+        <v>44188</v>
       </c>
       <c r="B119" s="4">
-        <v>0.62152777777777779</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -6956,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -6968,121 +6909,124 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>7</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>205</v>
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>181</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="B120" s="4">
-        <v>0.63263888888888886</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" t="s">
-        <v>114</v>
+        <v>7</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="F120">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R120" t="s">
-        <v>313</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>44283</v>
+        <v>44198</v>
       </c>
       <c r="B121" s="4">
-        <v>0.63472222222222219</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="C121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" t="s">
+        <v>185</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>96</v>
+      </c>
+      <c r="R121" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>44199</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="C122" t="s">
         <v>7</v>
       </c>
-      <c r="D121" t="s">
-        <v>230</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="R121" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>40720</v>
-      </c>
-      <c r="B122" s="4">
-        <v>0.63611111111111118</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -7100,33 +7044,36 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="R122" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R122" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>44268</v>
+        <v>44212</v>
       </c>
       <c r="B123" s="4">
-        <v>0.64513888888888882</v>
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
         <v>188</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -7135,10 +7082,10 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -7147,10 +7094,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="P123" s="7" t="s">
-        <v>294</v>
+        <v>3</v>
       </c>
       <c r="R123" t="s">
         <v>54</v>
@@ -7158,28 +7102,28 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>44296</v>
+        <v>44213</v>
       </c>
       <c r="B124" s="4">
-        <v>0.65</v>
+        <v>0.4055555555555555</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>367</v>
+        <v>192</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="F124">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -7194,36 +7138,39 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="R124" s="7" t="s">
-        <v>369</v>
+        <v>1</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R124" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>40650</v>
+        <v>44222</v>
       </c>
       <c r="B125" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -7238,39 +7185,39 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R125" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>43555</v>
+        <v>44224</v>
       </c>
       <c r="B126" s="4">
-        <v>0.65208333333333335</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="F126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -7282,27 +7229,30 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="R126" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>44347</v>
+        <v>44242</v>
       </c>
       <c r="B127" s="4">
-        <v>0.66319444444444442</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>365</v>
+        <v>200</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -7320,42 +7270,39 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>288</v>
-      </c>
-      <c r="R127" s="7" t="s">
-        <v>369</v>
+        <v>6</v>
+      </c>
+      <c r="R127" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>40649</v>
+        <v>44242</v>
       </c>
       <c r="B128" s="4">
-        <v>0.67291666666666661</v>
+        <v>0.84166666666666667</v>
       </c>
       <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>201</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F128">
         <v>8</v>
       </c>
-      <c r="D128" t="s">
-        <v>153</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -7370,42 +7317,45 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>284</v>
       </c>
       <c r="R128" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>44222</v>
+        <v>44243</v>
       </c>
       <c r="B129" s="4">
-        <v>0.6791666666666667</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -7414,124 +7364,133 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>4</v>
-      </c>
-      <c r="R129" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R129" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>44339</v>
+        <v>44247</v>
       </c>
       <c r="B130" s="4">
-        <v>0.69236111111111109</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>358</v>
+        <v>206</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P130" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="Q130" t="s">
-        <v>366</v>
-      </c>
-      <c r="R130" s="7" t="s">
-        <v>307</v>
+        <v>284</v>
+      </c>
+      <c r="R130" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>40649</v>
+        <v>44255</v>
       </c>
       <c r="B131" s="4">
-        <v>0.70138888888888884</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="O131" t="s">
+        <v>209</v>
       </c>
       <c r="R131" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>43507</v>
+        <v>44263</v>
       </c>
       <c r="B132" s="4">
-        <v>0.70694444444444438</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="F132">
         <v>2</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -7549,30 +7508,36 @@
         <v>0</v>
       </c>
       <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>284</v>
+      </c>
+      <c r="R132" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C133" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>43564</v>
-      </c>
-      <c r="B133" s="4">
-        <v>0.7284722222222223</v>
-      </c>
-      <c r="C133" t="s">
-        <v>8</v>
-      </c>
       <c r="D133" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="F133">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7581,51 +7546,54 @@
         <v>0</v>
       </c>
       <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>295</v>
+      </c>
+      <c r="R133" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="C134" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>2</v>
       </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-      <c r="M133">
-        <v>7</v>
-      </c>
-      <c r="P133" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>42346</v>
-      </c>
-      <c r="B134" s="4">
-        <v>0.74097222222222225</v>
-      </c>
-      <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F134">
-        <v>8</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -7634,7 +7602,10 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P134" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="R134" t="s">
         <v>54</v>
@@ -7642,28 +7613,28 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>41285</v>
+        <v>44271</v>
       </c>
       <c r="B135" s="4">
-        <v>0.74722222222222223</v>
+        <v>0.75</v>
       </c>
       <c r="C135" t="s">
         <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -7678,7 +7649,10 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>96</v>
       </c>
       <c r="R135" t="s">
         <v>54</v>
@@ -7686,19 +7660,19 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>43171</v>
+        <v>44272</v>
       </c>
       <c r="B136" s="4">
-        <v>0.74791666666666667</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="C136" t="s">
         <v>50</v>
       </c>
       <c r="D136" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -7713,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -7722,39 +7696,39 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>4</v>
-      </c>
-      <c r="O136" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="R136" t="s">
-        <v>313</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>44271</v>
+        <v>44275</v>
       </c>
       <c r="B137" s="4">
-        <v>0.75</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -7769,42 +7743,40 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>1</v>
-      </c>
-      <c r="O137" t="s">
-        <v>96</v>
-      </c>
-      <c r="R137" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1"/>
+      <c r="Q137" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>43508</v>
+        <v>44275</v>
       </c>
       <c r="B138" s="4">
-        <v>0.75694444444444453</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="F138">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -7816,33 +7788,40 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O138" s="1"/>
+      <c r="R138" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>43117</v>
+        <v>44275</v>
       </c>
       <c r="B139" s="4">
-        <v>0.77986111111111101</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="F139">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -7851,98 +7830,98 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
       <c r="M139">
-        <v>5</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>288</v>
+        <v>0</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P139" t="s">
+        <v>283</v>
       </c>
       <c r="R139" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>44247</v>
+        <v>44277</v>
       </c>
       <c r="B140" s="4">
-        <v>0.78263888888888899</v>
+        <v>0.2902777777777778</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="F140">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
       <c r="M140">
-        <v>2</v>
-      </c>
-      <c r="P140" s="7" t="s">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="Q140" t="s">
         <v>284</v>
       </c>
       <c r="R140" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>43428</v>
+        <v>44280</v>
       </c>
       <c r="B141" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>34</v>
+      <c r="D141" t="s">
+        <v>262</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -7954,77 +7933,83 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>4</v>
-      </c>
-      <c r="P141" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="R141" s="7" t="s">
-        <v>344</v>
+        <v>0</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>284</v>
+      </c>
+      <c r="R141" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>43616</v>
+        <v>44282</v>
       </c>
       <c r="B142" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
       <c r="M142">
         <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>234</v>
+      </c>
+      <c r="R142" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>43716</v>
+        <v>44282</v>
       </c>
       <c r="B143" s="4">
-        <v>0.78402777777777777</v>
+        <v>0.40833333333333338</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D143" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="F143">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8042,24 +8027,30 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>102</v>
+      </c>
+      <c r="R143" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>43616</v>
+        <v>44283</v>
       </c>
       <c r="B144" s="4">
-        <v>0.78611111111111109</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -8068,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -8085,22 +8076,25 @@
       <c r="M144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="R144" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>44293</v>
+        <v>44283</v>
       </c>
       <c r="B145" s="4">
-        <v>0.78749999999999998</v>
+        <v>0.83263888888888893</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>346</v>
+        <v>236</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -8109,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -8121,39 +8115,39 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M145">
-        <v>1</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>284</v>
-      </c>
-      <c r="R145" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="O145" t="s">
+        <v>96</v>
+      </c>
+      <c r="R145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>44265</v>
+        <v>44286</v>
       </c>
       <c r="B146" s="4">
-        <v>0.78819444444444453</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="F146">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8165,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146">
         <v>0</v>
@@ -8174,30 +8168,30 @@
         <v>0</v>
       </c>
       <c r="Q146" t="s">
-        <v>295</v>
-      </c>
-      <c r="R146" t="s">
-        <v>307</v>
+        <v>319</v>
+      </c>
+      <c r="R146" s="7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>40611</v>
+        <v>44289</v>
       </c>
       <c r="B147" s="4">
-        <v>0.81388888888888899</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -8218,30 +8212,33 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>324</v>
       </c>
       <c r="R147" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>44198</v>
+        <v>44290</v>
       </c>
       <c r="B148" s="4">
-        <v>0.8208333333333333</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C148" t="s">
         <v>50</v>
       </c>
-      <c r="D148" t="s">
-        <v>185</v>
+      <c r="D148" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -8256,36 +8253,33 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O148" t="s">
-        <v>96</v>
-      </c>
-      <c r="R148" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>44283</v>
+        <v>44293</v>
       </c>
       <c r="B149" s="4">
-        <v>0.83263888888888893</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -8294,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -8306,42 +8300,42 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149">
-        <v>8</v>
-      </c>
-      <c r="O149" t="s">
-        <v>96</v>
-      </c>
-      <c r="R149" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>284</v>
+      </c>
+      <c r="R149" s="7" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>44242</v>
+        <v>44296</v>
       </c>
       <c r="B150" s="4">
-        <v>0.84166666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>367</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F150">
         <v>7</v>
       </c>
-      <c r="D150" t="s">
-        <v>201</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F150">
-        <v>8</v>
-      </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -8356,39 +8350,36 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>284</v>
-      </c>
-      <c r="R150" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="R150" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>42051</v>
+        <v>44339</v>
       </c>
       <c r="B151" s="4">
-        <v>0.86944444444444446</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>188</v>
+        <v>358</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="F151">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -8405,37 +8396,40 @@
       <c r="M151">
         <v>0</v>
       </c>
-      <c r="R151" t="s">
-        <v>306</v>
+      <c r="Q151" t="s">
+        <v>366</v>
+      </c>
+      <c r="R151" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>43669</v>
+        <v>44347</v>
       </c>
       <c r="B152" s="4">
-        <v>0.875</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="F152">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -8447,27 +8441,33 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>288</v>
+      </c>
+      <c r="R152" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>42313</v>
+        <v>44361</v>
       </c>
       <c r="B153" s="4">
-        <v>0.8930555555555556</v>
+        <v>0.59097222222222223</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>63</v>
+        <v>363</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>65</v>
+        <v>362</v>
       </c>
       <c r="F153">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -8488,27 +8488,30 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>1</v>
-      </c>
-      <c r="R153" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R153" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>41742</v>
+        <v>44367</v>
       </c>
       <c r="B154" s="4">
-        <v>0.89861111111111114</v>
+        <v>0.47361111111111115</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="F154">
         <v>5</v>
@@ -8517,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -8532,37 +8535,38 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>4</v>
-      </c>
-      <c r="R154" s="7" t="s">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R154" s="7"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>44161</v>
+        <v>44376</v>
       </c>
       <c r="B155" s="4">
-        <v>0.9770833333333333</v>
+        <v>0.31875000000000003</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+      <c r="H155">
         <v>3</v>
       </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
       <c r="I155">
         <v>0</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155">
         <v>0</v>
@@ -8582,36 +8586,36 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>42420</v>
+        <v>44399</v>
       </c>
       <c r="B156" s="4">
-        <v>0.98819444444444438</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C156" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -8620,14 +8624,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0</v>
-      </c>
-      <c r="N156"/>
-      <c r="P156" t="s">
-        <v>299</v>
-      </c>
-      <c r="R156" s="7" t="s">
-        <v>325</v>
+        <v>1</v>
+      </c>
+      <c r="R156" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -8635,7 +8635,7 @@
     <sortCondition ref="A2:A113"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
+    <hyperlink ref="D39" r:id="rId1" xr:uid="{B9D611A6-A676-439A-9C1B-91E0F76A862E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
